--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Play song</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Hannes</t>
   </si>
   <si>
-    <t>Filthy Casual</t>
-  </si>
-  <si>
     <t>Little helper (figure out voting)</t>
   </si>
   <si>
@@ -104,6 +101,18 @@
   </si>
   <si>
     <t>Andrei</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Time est.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage </t>
   </si>
 </sst>
 </file>
@@ -145,12 +154,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Parasts" xfId="0" builtinId="0"/>
@@ -431,24 +441,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A16:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,6 +540,9 @@
       <c r="B5">
         <v>12</v>
       </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
@@ -524,6 +554,9 @@
       <c r="B6">
         <v>10</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -533,6 +566,9 @@
       <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
         <v>15</v>
@@ -545,6 +581,9 @@
       <c r="B8">
         <v>3</v>
       </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -566,13 +605,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -581,27 +617,33 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -610,16 +652,19 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>16</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>43047</v>
       </c>
     </row>
   </sheetData>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Play song</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Show message info</t>
+  </si>
+  <si>
+    <t>Manage group</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,26 +872,26 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -896,6 +899,14 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
         <v>62</v>
       </c>
     </row>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>Play song</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Manage group</t>
+  </si>
+  <si>
+    <t>Join as group</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,6 +911,14 @@
       </c>
       <c r="B42" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>Play song</t>
   </si>
@@ -112,7 +112,127 @@
     <t>Time est.</t>
   </si>
   <si>
-    <t xml:space="preserve">Manage </t>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>Send message</t>
+  </si>
+  <si>
+    <t>Receive Message</t>
+  </si>
+  <si>
+    <t>Get messages</t>
+  </si>
+  <si>
+    <t>Remove your message</t>
+  </si>
+  <si>
+    <t>Create Chat</t>
+  </si>
+  <si>
+    <t>Update Chat</t>
+  </si>
+  <si>
+    <t>Find chat</t>
+  </si>
+  <si>
+    <t>Join chat</t>
+  </si>
+  <si>
+    <t>Leave chat</t>
+  </si>
+  <si>
+    <t>Delete Chat</t>
+  </si>
+  <si>
+    <t>Create profile</t>
+  </si>
+  <si>
+    <t>Get profile</t>
+  </si>
+  <si>
+    <t>Update profile</t>
+  </si>
+  <si>
+    <t>Delete profile</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Invite person to chat</t>
+  </si>
+  <si>
+    <t>Multiplayer game</t>
+  </si>
+  <si>
+    <t>Remove song</t>
+  </si>
+  <si>
+    <t>Update song</t>
+  </si>
+  <si>
+    <t>Save song</t>
+  </si>
+  <si>
+    <t>Get songs info</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Like</t>
+  </si>
+  <si>
+    <t>Add Friend</t>
+  </si>
+  <si>
+    <t>Remove Friend</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>Dedicated client</t>
+  </si>
+  <si>
+    <t>Web client</t>
+  </si>
+  <si>
+    <t>Show if someone is writing</t>
+  </si>
+  <si>
+    <t>Change time displaying</t>
+  </si>
+  <si>
+    <t>News area</t>
+  </si>
+  <si>
+    <t>Sound equalizer</t>
+  </si>
+  <si>
+    <t>Multiple chats for one client</t>
+  </si>
+  <si>
+    <t>Show online persons</t>
+  </si>
+  <si>
+    <t>Show newest info</t>
+  </si>
+  <si>
+    <t>Show chat status (online P.)</t>
+  </si>
+  <si>
+    <t>Show message info</t>
+  </si>
+  <si>
+    <t>Manage group</t>
+  </si>
+  <si>
+    <t>Join as group</t>
   </si>
 </sst>
 </file>
@@ -160,7 +280,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Parasts" xfId="0" builtinId="0"/>
@@ -441,28 +563,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A16:C17"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
+      <c r="A16">
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -475,7 +931,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C17" sqref="C17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,20 +1115,23 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="3">
+      <c r="C17" s="3">
         <v>43047</v>
       </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>Play song</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Show online persons</t>
   </si>
   <si>
-    <t>Show newest info</t>
-  </si>
-  <si>
     <t>Show chat status (online P.)</t>
   </si>
   <si>
@@ -233,6 +230,12 @@
   </si>
   <si>
     <t>Join as group</t>
+  </si>
+  <si>
+    <t>Close chat if its deleted</t>
+  </si>
+  <si>
+    <t>Show newest chat info</t>
   </si>
 </sst>
 </file>
@@ -563,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,31 +817,31 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -846,7 +849,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,31 +881,31 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,15 +913,23 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sprint 3" sheetId="4" r:id="rId4"/>
     <sheet name="Sprint 4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>Play song</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>Show newest chat info</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Booking</t>
   </si>
 </sst>
 </file>
@@ -288,7 +300,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -566,18 +578,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -588,7 +600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -596,7 +608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -604,7 +616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -612,7 +624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -620,7 +632,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -628,7 +640,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -636,15 +648,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -652,7 +667,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -660,7 +675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -668,7 +683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -676,7 +691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -684,15 +699,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -700,7 +718,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -708,7 +726,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -716,7 +734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -724,15 +742,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -740,7 +761,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -748,15 +769,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -764,7 +788,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -772,7 +796,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -780,7 +804,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -788,23 +812,29 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -812,87 +842,117 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
       <c r="B38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -900,36 +960,59 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
       <c r="B42" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
       <c r="B43" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" t="s">
         <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -945,13 +1028,13 @@
       <selection activeCell="C17" sqref="C17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -968,7 +1051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -979,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -991,7 +1074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1000,7 +1083,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1014,7 +1097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1026,7 +1109,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +1124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1053,7 +1136,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1064,7 +1147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1073,7 +1156,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1082,7 +1165,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1096,7 +1179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1108,7 +1191,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1117,7 +1200,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1126,7 +1209,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1156,7 +1239,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1168,7 +1251,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1182,7 +1265,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>Play song</t>
   </si>
@@ -184,15 +184,6 @@
     <t>Theme</t>
   </si>
   <si>
-    <t>Like</t>
-  </si>
-  <si>
-    <t>Add Friend</t>
-  </si>
-  <si>
-    <t>Remove Friend</t>
-  </si>
-  <si>
     <t>Notifications</t>
   </si>
   <si>
@@ -244,10 +235,10 @@
     <t>+</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Booking</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -300,7 +291,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -578,18 +569,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -600,7 +591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -608,7 +599,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -616,7 +607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -624,7 +615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -632,7 +623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -640,7 +631,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -648,26 +639,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -675,7 +663,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -683,7 +671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -691,7 +679,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -699,18 +687,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -718,7 +703,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -726,7 +711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -734,7 +719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -742,26 +727,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -769,50 +751,47 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -820,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -831,10 +810,10 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -842,7 +821,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -850,10 +829,10 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -861,32 +840,29 @@
         <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -897,7 +873,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -905,114 +881,81 @@
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>3</v>
       </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>3</v>
       </c>
-      <c r="B39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2</v>
-      </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1028,13 +971,13 @@
       <selection activeCell="C17" sqref="C17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1051,7 +994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1062,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1083,7 +1026,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1097,7 +1040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1052,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1124,7 +1067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1079,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1147,7 +1090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1156,7 +1099,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1165,7 +1108,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1179,7 +1122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1191,7 +1134,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1200,7 +1143,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1209,7 +1152,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1239,7 +1182,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1251,7 +1194,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1265,7 +1208,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
   <si>
     <t>Play song</t>
   </si>
@@ -217,12 +217,6 @@
     <t>Spike on binding</t>
   </si>
   <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>Documenter</t>
-  </si>
-  <si>
     <t>Create playlist</t>
   </si>
   <si>
@@ -269,6 +263,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Actual</t>
   </si>
 </sst>
 </file>
@@ -304,10 +307,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -324,6 +330,1102 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="lv-LV"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3803149606299209E-2"/>
+          <c:y val="3.7037037037037035E-2"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprint 1'!$S$2:$S$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprint 1'!$S$2:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprint 1'!$Q$2:$Q$34</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprint 1'!$Q$2:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-7559-492D-A8CB-4D0B2A504E32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprint 1'!$S$2:$S$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprint 1'!$S$2:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprint 1'!$R$2:$R$34</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprint 1'!$R$2:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-7559-492D-A8CB-4D0B2A504E32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="488277248"/>
+        <c:axId val="488277576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="488277248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488277576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="488277576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488277248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="lv-LV"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>131989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17689</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramma 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F655AD2-89FA-4209-B3BA-24E168D91292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,7 +1693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
@@ -800,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -808,7 +1910,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>42</v>
@@ -927,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -938,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
@@ -949,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
@@ -963,7 +2065,7 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -974,7 +2076,7 @@
         <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
         <v>42</v>
@@ -1015,7 +2117,7 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
         <v>42</v>
@@ -1026,7 +2128,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
         <v>42</v>
@@ -1037,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
         <v>42</v>
@@ -1048,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
         <v>42</v>
@@ -1059,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
         <v>42</v>
@@ -1073,7 +2175,7 @@
         <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1095,7 +2197,7 @@
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1105,19 +2207,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B33"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1136,8 +2240,23 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1153,11 +2272,28 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f>M34-SUM(M2:M5)</f>
+        <v>104</v>
+      </c>
+      <c r="R2">
+        <f>N34-SUM(N2:N5)</f>
+        <v>113</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1173,11 +2309,28 @@
       <c r="E3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f>Q2-SUM(M6)</f>
+        <v>101</v>
+      </c>
+      <c r="R3">
+        <f>R2-SUM(N6)</f>
+        <v>110</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1193,11 +2346,28 @@
       <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <f>Q3-SUM(M7:M8)</f>
+        <v>97</v>
+      </c>
+      <c r="R4">
+        <f>R3-SUM(N7:N8)</f>
+        <v>105</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1213,11 +2383,28 @@
       <c r="E5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f>Q4-SUM(M9:M10)</f>
+        <v>91</v>
+      </c>
+      <c r="R5">
+        <f>R4-SUM(N9:N10)</f>
+        <v>99</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1233,11 +2420,28 @@
       <c r="E6" t="s">
         <v>50</v>
       </c>
-      <c r="F6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <f>Q5-SUM(M11:M12)</f>
+        <v>86</v>
+      </c>
+      <c r="R6">
+        <f>R5-SUM(N11:N12)</f>
+        <v>95</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1253,11 +2457,28 @@
       <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <f>Q6-SUM(M13:M15)</f>
+        <v>77</v>
+      </c>
+      <c r="R7">
+        <f>R6-SUM(N13:N15)</f>
+        <v>86</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1276,8 +2497,28 @@
       <c r="F8" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <f>Q7-SUM(M16:M17)</f>
+        <v>68</v>
+      </c>
+      <c r="R8">
+        <f>R7-SUM(N16:N17)</f>
+        <v>72</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1296,8 +2537,28 @@
       <c r="F9" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <f>Q8-SUM(M18)</f>
+        <v>65</v>
+      </c>
+      <c r="R9">
+        <f>R8-SUM(N18)</f>
+        <v>70</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1316,8 +2577,28 @@
       <c r="F10" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <f>Q9-SUM(M19:M21)</f>
+        <v>53</v>
+      </c>
+      <c r="R10">
+        <f>R9-SUM(N19:N21)</f>
+        <v>59</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1336,8 +2617,28 @@
       <c r="F11" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <f>Q10-SUM(M22:M24)</f>
+        <v>46</v>
+      </c>
+      <c r="R11">
+        <f>R10-SUM(N22:N24)</f>
+        <v>52</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1356,8 +2657,28 @@
       <c r="F12" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <f>Q11-SUM(M25:M26)</f>
+        <v>41</v>
+      </c>
+      <c r="R12">
+        <f>R11-SUM(N25:N26)</f>
+        <v>46</v>
+      </c>
+      <c r="S12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1376,8 +2697,28 @@
       <c r="F13" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <f>Q12-SUM(M27:M29)</f>
+        <v>34</v>
+      </c>
+      <c r="R13">
+        <f>R12-SUM(N27:N29)</f>
+        <v>40</v>
+      </c>
+      <c r="S13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1396,8 +2737,28 @@
       <c r="F14" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <f>Q13-SUM(M30:M33)</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f>R13-SUM(N30:N33)</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1416,8 +2777,17 @@
       <c r="F15" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1436,8 +2806,17 @@
       <c r="F16" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1456,8 +2835,17 @@
       <c r="F17" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1476,8 +2864,17 @@
       <c r="F18" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1496,8 +2893,17 @@
       <c r="F19" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1516,8 +2922,17 @@
       <c r="F20" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1536,8 +2951,17 @@
       <c r="F21" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1556,8 +2980,17 @@
       <c r="F22" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1576,8 +3009,17 @@
       <c r="F23" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1596,13 +3038,22 @@
       <c r="F24" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1616,13 +3067,22 @@
       <c r="F25" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1636,8 +3096,17 @@
       <c r="F26" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1648,7 +3117,7 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
         <v>54</v>
@@ -1656,8 +3125,17 @@
       <c r="F27" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1676,8 +3154,17 @@
       <c r="F28" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1696,8 +3183,17 @@
       <c r="F29" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1713,11 +3209,18 @@
       <c r="E30" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1733,11 +3236,18 @@
       <c r="E31" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1753,11 +3263,18 @@
       <c r="E32" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1773,9 +3290,32 @@
       <c r="E33" t="s">
         <v>59</v>
       </c>
+      <c r="M33">
+        <v>25</v>
+      </c>
+      <c r="N33">
+        <v>30</v>
+      </c>
+      <c r="O33" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f>SUM(M2:M33)</f>
+        <v>118</v>
+      </c>
+      <c r="N34">
+        <f>SUM(N2:N33)</f>
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="M2:O33">
+    <sortCondition ref="O2:O33"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1783,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037159B-319A-4C42-A294-2B2489B57574}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1889,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1903,7 +3443,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1917,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1969,6 +3509,9 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
       <c r="E13" t="s">
         <v>50</v>
       </c>
@@ -1987,18 +3530,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2015,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2032,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2049,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2066,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2083,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2200,7 +3741,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
         <v>54</v>
@@ -2208,12 +3749,12 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="85">
   <si>
     <t>Play song</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -333,6 +339,518 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="lv-LV"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3803149606299209E-2"/>
+          <c:y val="3.7037037037037035E-2"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprint 1'!$S$2:$S$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprint 1'!$S$2:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprint 1'!$Q$2:$Q$34</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprint 1'!$Q$2:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E1A-443C-8892-BDFC65A0A0A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprint 1'!$S$2:$S$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprint 1'!$S$2:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprint 1'!$R$2:$R$34</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprint 1'!$R$2:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E1A-443C-8892-BDFC65A0A0A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="488277248"/>
+        <c:axId val="488277576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="488277248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488277576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="488277576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488277248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="lv-LV"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="lv-LV"/>
@@ -884,6 +1402,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1387,7 +1945,553 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>131989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17689</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramma 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8B0D07-D641-49D4-91D0-7D9753D97F44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1691,18 +2795,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1710,266 +2815,1063 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f>O34-SUM(O2:O5)</f>
+        <v>104</v>
+      </c>
+      <c r="T2">
+        <f>P34-SUM(P2:P5)</f>
+        <v>113</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f>S2-SUM(O6)</f>
+        <v>101</v>
+      </c>
+      <c r="T3">
+        <f>T2-SUM(P6)</f>
+        <v>110</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f>S3-SUM(O7:O8)</f>
+        <v>97</v>
+      </c>
+      <c r="T4">
+        <f>T3-SUM(P7:P8)</f>
+        <v>105</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f>S4-SUM(O9:O10)</f>
+        <v>91</v>
+      </c>
+      <c r="T5">
+        <f>T4-SUM(P9:P10)</f>
+        <v>99</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <f>S5-SUM(O11:O12)</f>
+        <v>86</v>
+      </c>
+      <c r="T6">
+        <f>T5-SUM(P11:P12)</f>
+        <v>95</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <f>S6-SUM(O13:O15)</f>
+        <v>77</v>
+      </c>
+      <c r="T7">
+        <f>T6-SUM(P13:P15)</f>
+        <v>86</v>
+      </c>
+      <c r="U7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <f>S7-SUM(O16:O17)</f>
+        <v>68</v>
+      </c>
+      <c r="T8">
+        <f>T7-SUM(P16:P17)</f>
+        <v>72</v>
+      </c>
+      <c r="U8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <f>S8-SUM(O18)</f>
+        <v>65</v>
+      </c>
+      <c r="T9">
+        <f>T8-SUM(P18)</f>
+        <v>70</v>
+      </c>
+      <c r="U9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <f>S9-SUM(O19:O21)</f>
+        <v>53</v>
+      </c>
+      <c r="T10">
+        <f>T9-SUM(P19:P21)</f>
+        <v>59</v>
+      </c>
+      <c r="U10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <f>S10-SUM(O22:O24)</f>
+        <v>46</v>
+      </c>
+      <c r="T11">
+        <f>T10-SUM(P22:P24)</f>
+        <v>52</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <f>S11-SUM(O25:O26)</f>
+        <v>41</v>
+      </c>
+      <c r="T12">
+        <f>T11-SUM(P25:P26)</f>
+        <v>46</v>
+      </c>
+      <c r="U12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <f>S12-SUM(O27:O29)</f>
+        <v>34</v>
+      </c>
+      <c r="T13">
+        <f>T12-SUM(P27:P29)</f>
+        <v>40</v>
+      </c>
+      <c r="U13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <f>S13-SUM(O30:O33)</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>T13-SUM(P30:P33)</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="U16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="U17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+      <c r="U18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>9</v>
+      </c>
+      <c r="U19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>9</v>
+      </c>
+      <c r="U20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+      <c r="U21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+      <c r="U22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+      <c r="U23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="U24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>11</v>
+      </c>
+      <c r="U25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>11</v>
+      </c>
+      <c r="U26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>12</v>
+      </c>
+      <c r="U27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>12</v>
+      </c>
+      <c r="U28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>12</v>
+      </c>
+      <c r="U29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="Q30">
+        <v>13</v>
+      </c>
+      <c r="U30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31">
+        <v>4</v>
+      </c>
+      <c r="Q31">
+        <v>13</v>
+      </c>
+      <c r="U31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>13</v>
+      </c>
+      <c r="U32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+      <c r="O33">
+        <v>25</v>
+      </c>
+      <c r="P33">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>13</v>
+      </c>
+      <c r="U33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1979,8 +3881,19 @@
       <c r="C34" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <f>SUM(O2:O33)</f>
+        <v>118</v>
+      </c>
+      <c r="P34">
+        <f>SUM(P2:P33)</f>
+        <v>129</v>
+      </c>
+      <c r="U34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1990,8 +3903,11 @@
       <c r="C35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -2001,8 +3917,11 @@
       <c r="C36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2012,8 +3931,11 @@
       <c r="C37" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2023,8 +3945,11 @@
       <c r="C38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2034,8 +3959,11 @@
       <c r="C39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2045,8 +3973,11 @@
       <c r="C40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2056,8 +3987,11 @@
       <c r="C41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -2067,8 +4001,11 @@
       <c r="C42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="U42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -2079,7 +4016,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2090,7 +4027,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2101,7 +4038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -2112,7 +4049,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2123,7 +4060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2202,6 +4139,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2209,8 +4147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,8 +5261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037159B-319A-4C42-A294-2B2489B57574}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3716,6 +5654,9 @@
         <v>47</v>
       </c>
       <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="83">
   <si>
     <t>Play song</t>
   </si>
@@ -254,12 +254,6 @@
   </si>
   <si>
     <t>Get notification</t>
-  </si>
-  <si>
-    <t>chat to activity</t>
-  </si>
-  <si>
-    <t>no more statu</t>
   </si>
   <si>
     <t>-</t>
@@ -2797,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2815,7 +2809,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -2830,13 +2824,13 @@
         <v>3</v>
       </c>
       <c r="Q1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" t="s">
         <v>80</v>
-      </c>
-      <c r="S1" t="s">
-        <v>81</v>
-      </c>
-      <c r="T1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2847,7 +2841,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -2884,7 +2878,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2921,7 +2915,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2958,7 +2952,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -2995,7 +2989,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -3032,7 +3026,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3069,7 +3063,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -3106,7 +3100,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -3143,7 +3137,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -3180,7 +3174,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3217,7 +3211,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -3254,7 +3248,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -3291,7 +3285,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -3328,7 +3322,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -3357,7 +3351,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -3386,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -3415,7 +3409,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -3444,7 +3438,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3473,7 +3467,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3502,7 +3496,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -3531,7 +3525,7 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -3560,7 +3554,7 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -3589,7 +3583,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -3618,7 +3612,7 @@
         <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -3647,7 +3641,7 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -3676,7 +3670,7 @@
         <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -3705,7 +3699,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -3734,7 +3728,7 @@
         <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -3763,7 +3757,7 @@
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -3792,7 +3786,7 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -3821,7 +3815,7 @@
         <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -3850,7 +3844,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D33">
         <v>25</v>
@@ -3999,7 +3993,7 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U42">
         <v>41</v>
@@ -4013,7 +4007,7 @@
         <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4112,7 +4106,7 @@
         <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4134,7 +4128,7 @@
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4147,7 +4141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -4185,13 +4179,13 @@
         <v>3</v>
       </c>
       <c r="O1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" t="s">
         <v>80</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -5259,10 +5253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037159B-319A-4C42-A294-2B2489B57574}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5406,55 +5400,71 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5462,22 +5472,24 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -5494,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -5511,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -5528,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -5542,44 +5554,41 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5587,10 +5596,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
       </c>
       <c r="E22" t="s">
         <v>52</v>
@@ -5598,10 +5610,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5609,13 +5627,16 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5623,13 +5644,13 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5637,65 +5658,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="88">
   <si>
     <t>Play song</t>
   </si>
@@ -163,15 +163,9 @@
     <t>exceptions</t>
   </si>
   <si>
-    <t>tests</t>
-  </si>
-  <si>
     <t>burn down chart</t>
   </si>
   <si>
-    <t>db refactoring</t>
-  </si>
-  <si>
     <t>Stoicho</t>
   </si>
   <si>
@@ -181,12 +175,6 @@
     <t>Hannes</t>
   </si>
   <si>
-    <t>Each of us</t>
-  </si>
-  <si>
-    <t>Message encryption</t>
-  </si>
-  <si>
     <t>Ralfs</t>
   </si>
   <si>
@@ -247,9 +235,6 @@
     <t>Delete group</t>
   </si>
   <si>
-    <t>Updated person updated in all chats</t>
-  </si>
-  <si>
     <t>Remove notifications</t>
   </si>
   <si>
@@ -272,6 +257,36 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>Get playlist</t>
+  </si>
+  <si>
+    <t>One person can be logged in at once</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logout </t>
+  </si>
+  <si>
+    <t>Multiplayer game</t>
+  </si>
+  <si>
+    <t>Game error</t>
+  </si>
+  <si>
+    <t>Report planing</t>
+  </si>
+  <si>
+    <t>Spreading tasks</t>
+  </si>
+  <si>
+    <t>All of us together</t>
+  </si>
+  <si>
+    <t>Updating end expanding existing UI</t>
+  </si>
+  <si>
+    <t>Not done</t>
   </si>
 </sst>
 </file>
@@ -405,11 +420,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Sprint 1'!$S$2:$S$14</c15:sqref>
+                    <c15:sqref>'Sprint 1'!$S$3:$S$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Sprint 1'!$S$2:$S$14</c:f>
+              <c:f>'Sprint 1'!$S$3:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -460,11 +475,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Sprint 1'!$Q$2:$Q$34</c15:sqref>
+                    <c15:sqref>'Sprint 1'!$Q$3:$Q$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Sprint 1'!$Q$2:$Q$14</c:f>
+              <c:f>'Sprint 1'!$Q$3:$Q$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -560,11 +575,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Sprint 1'!$S$2:$S$14</c15:sqref>
+                    <c15:sqref>'Sprint 1'!$S$3:$S$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Sprint 1'!$S$2:$S$14</c:f>
+              <c:f>'Sprint 1'!$S$3:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -615,11 +630,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Sprint 1'!$R$2:$R$34</c15:sqref>
+                    <c15:sqref>'Sprint 1'!$R$3:$R$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Sprint 1'!$R$2:$R$14</c:f>
+              <c:f>'Sprint 1'!$R$3:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -914,54 +929,50 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Sprint 1'!$S$2:$S$14</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Sprint 1'!$S$2:$S$14</c:f>
+              <c:f>'Sprint 1'!$S$2:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
@@ -969,54 +980,50 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Sprint 1'!$Q$2:$Q$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Sprint 1'!$Q$2:$Q$14</c:f>
+              <c:f>'Sprint 1'!$Q$2:$Q$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1069,54 +1076,50 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Sprint 1'!$S$2:$S$14</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Sprint 1'!$S$2:$S$14</c:f>
+              <c:f>'Sprint 1'!$S$2:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
@@ -1124,54 +1127,50 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Sprint 1'!$R$2:$R$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Sprint 1'!$R$2:$R$14</c:f>
+              <c:f>'Sprint 1'!$R$2:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>113</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1193,6 +1192,414 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="488277248"/>
+        <c:axId val="488277576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="488277248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488277576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="488277576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488277248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="lv-LV"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="lv-LV"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3803149606299209E-2"/>
+          <c:y val="3.7037037037037035E-2"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$M:$M</c:f>
+              <c:strCache>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>Estimate</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 2'!$O$2:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-26A2-4469-9AC6-DAD0A002A0F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 2'!$O$2:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$N$2:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-26A2-4469-9AC6-DAD0A002A0F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:smooth val="0"/>
         <c:axId val="488277248"/>
         <c:axId val="488277576"/>
@@ -1436,6 +1843,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2089,6 +2533,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2510,6 +3470,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>503465</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramma 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A75515-41B4-4775-954A-E404F04918DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2809,7 +3812,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -2824,13 +3827,13 @@
         <v>3</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="S1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="T1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2841,7 +3844,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -2878,7 +3881,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2915,7 +3918,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2952,7 +3955,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -2989,7 +3992,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -3026,7 +4029,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3063,7 +4066,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -3100,7 +4103,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -3137,7 +4140,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -3174,7 +4177,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3211,7 +4214,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -3248,7 +4251,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -3285,7 +4288,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -3322,7 +4325,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -3351,7 +4354,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -3380,7 +4383,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -3409,7 +4412,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -3438,7 +4441,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3467,7 +4470,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3496,7 +4499,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -3525,7 +4528,7 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -3554,7 +4557,7 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -3583,7 +4586,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -3609,10 +4612,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -3638,10 +4641,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -3667,10 +4670,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -3699,7 +4702,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -3725,10 +4728,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -3754,10 +4757,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -3783,10 +4786,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -3812,10 +4815,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -3844,7 +4847,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D33">
         <v>25</v>
@@ -3934,7 +4937,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
         <v>42</v>
@@ -3948,7 +4951,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -3962,7 +4965,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
@@ -3976,7 +4979,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
@@ -3993,7 +4996,7 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="U42">
         <v>41</v>
@@ -4007,7 +5010,7 @@
         <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4037,7 +5040,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
         <v>42</v>
@@ -4048,7 +5051,7 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
         <v>42</v>
@@ -4059,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
         <v>42</v>
@@ -4070,7 +5073,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
         <v>42</v>
@@ -4081,7 +5084,7 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
         <v>42</v>
@@ -4092,7 +5095,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
         <v>42</v>
@@ -4106,7 +5109,7 @@
         <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4128,7 +5131,7 @@
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4141,8 +5144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4179,13 +5182,13 @@
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4202,7 +5205,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -4214,52 +5217,52 @@
         <v>1</v>
       </c>
       <c r="Q2">
+        <f>M34</f>
+        <v>118</v>
+      </c>
+      <c r="R2">
+        <f>N34</f>
+        <v>129</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <f>M34-SUM(M2:M5)</f>
         <v>104</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <f>N34-SUM(N2:N5)</f>
         <v>113</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <f>Q2-SUM(M6)</f>
-        <v>101</v>
-      </c>
-      <c r="R3">
-        <f>R2-SUM(N6)</f>
-        <v>110</v>
-      </c>
       <c r="S3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -4276,7 +5279,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M4">
         <v>6</v>
@@ -4288,15 +5291,15 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <f>Q3-SUM(M7:M8)</f>
-        <v>97</v>
+        <f>Q3-SUM(M6)</f>
+        <v>101</v>
       </c>
       <c r="R4">
-        <f>R3-SUM(N7:N8)</f>
-        <v>105</v>
+        <f>R3-SUM(N6)</f>
+        <v>110</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -4313,7 +5316,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -4325,15 +5328,15 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <f>Q4-SUM(M9:M10)</f>
-        <v>91</v>
+        <f>Q4-SUM(M7:M8)</f>
+        <v>97</v>
       </c>
       <c r="R5">
-        <f>R4-SUM(N9:N10)</f>
-        <v>99</v>
+        <f>R4-SUM(N7:N8)</f>
+        <v>105</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -4350,7 +5353,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -4362,15 +5365,15 @@
         <v>2</v>
       </c>
       <c r="Q6">
-        <f>Q5-SUM(M11:M12)</f>
-        <v>86</v>
+        <f>Q5-SUM(M9:M10)</f>
+        <v>91</v>
       </c>
       <c r="R6">
-        <f>R5-SUM(N11:N12)</f>
-        <v>95</v>
+        <f>R5-SUM(N9:N10)</f>
+        <v>99</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -4387,7 +5390,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -4399,15 +5402,15 @@
         <v>3</v>
       </c>
       <c r="Q7">
-        <f>Q6-SUM(M13:M15)</f>
-        <v>77</v>
+        <f>Q6-SUM(M11:M12)</f>
+        <v>86</v>
       </c>
       <c r="R7">
-        <f>R6-SUM(N13:N15)</f>
-        <v>86</v>
+        <f>R6-SUM(N11:N12)</f>
+        <v>95</v>
       </c>
       <c r="S7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -4424,10 +5427,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -4439,15 +5442,15 @@
         <v>3</v>
       </c>
       <c r="Q8">
-        <f>Q7-SUM(M16:M17)</f>
-        <v>68</v>
+        <f>Q7-SUM(M13:M15)</f>
+        <v>77</v>
       </c>
       <c r="R8">
-        <f>R7-SUM(N16:N17)</f>
-        <v>72</v>
+        <f>R7-SUM(N13:N15)</f>
+        <v>86</v>
       </c>
       <c r="S8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -4464,10 +5467,10 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -4479,15 +5482,15 @@
         <v>4</v>
       </c>
       <c r="Q9">
-        <f>Q8-SUM(M18)</f>
-        <v>65</v>
+        <f>Q8-SUM(M16:M17)</f>
+        <v>68</v>
       </c>
       <c r="R9">
-        <f>R8-SUM(N18)</f>
-        <v>70</v>
+        <f>R8-SUM(N16:N17)</f>
+        <v>72</v>
       </c>
       <c r="S9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -4504,10 +5507,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M10">
         <v>4</v>
@@ -4519,15 +5522,15 @@
         <v>4</v>
       </c>
       <c r="Q10">
-        <f>Q9-SUM(M19:M21)</f>
-        <v>53</v>
+        <f>Q9-SUM(M18)</f>
+        <v>65</v>
       </c>
       <c r="R10">
-        <f>R9-SUM(N19:N21)</f>
-        <v>59</v>
+        <f>R9-SUM(N18)</f>
+        <v>70</v>
       </c>
       <c r="S10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -4544,10 +5547,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -4559,15 +5562,15 @@
         <v>5</v>
       </c>
       <c r="Q11">
-        <f>Q10-SUM(M22:M24)</f>
-        <v>46</v>
+        <f>Q10-SUM(M19:M21)</f>
+        <v>53</v>
       </c>
       <c r="R11">
-        <f>R10-SUM(N22:N24)</f>
-        <v>52</v>
+        <f>R10-SUM(N19:N21)</f>
+        <v>59</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -4584,10 +5587,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M12">
         <v>2</v>
@@ -4599,15 +5602,15 @@
         <v>5</v>
       </c>
       <c r="Q12">
-        <f>Q11-SUM(M25:M26)</f>
-        <v>41</v>
+        <f>Q11-SUM(M22:M24)</f>
+        <v>46</v>
       </c>
       <c r="R12">
-        <f>R11-SUM(N25:N26)</f>
-        <v>46</v>
+        <f>R11-SUM(N22:N24)</f>
+        <v>52</v>
       </c>
       <c r="S12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -4624,10 +5627,10 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M13">
         <v>4</v>
@@ -4639,15 +5642,15 @@
         <v>6</v>
       </c>
       <c r="Q13">
-        <f>Q12-SUM(M27:M29)</f>
-        <v>34</v>
+        <f>Q12-SUM(M25:M26)</f>
+        <v>41</v>
       </c>
       <c r="R13">
-        <f>R12-SUM(N27:N29)</f>
-        <v>40</v>
+        <f>R12-SUM(N25:N26)</f>
+        <v>46</v>
       </c>
       <c r="S13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -4664,10 +5667,10 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M14">
         <v>3</v>
@@ -4679,15 +5682,15 @@
         <v>6</v>
       </c>
       <c r="Q14">
-        <f>Q13-SUM(M30:M33)</f>
-        <v>0</v>
+        <f>Q13-SUM(M27:M29)</f>
+        <v>34</v>
       </c>
       <c r="R14">
-        <f>R13-SUM(N30:N33)</f>
-        <v>0</v>
+        <f>R13-SUM(N27:N29)</f>
+        <v>40</v>
       </c>
       <c r="S14">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -4704,10 +5707,10 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M15">
         <v>2</v>
@@ -4718,6 +5721,17 @@
       <c r="O15">
         <v>6</v>
       </c>
+      <c r="Q15">
+        <f>Q14-SUM(M30:M33)</f>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f>R14-SUM(N30:N33)</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -4733,10 +5747,10 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M16">
         <v>6</v>
@@ -4762,10 +5776,10 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M17">
         <v>3</v>
@@ -4791,10 +5805,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M18">
         <v>3</v>
@@ -4820,10 +5834,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M19">
         <v>5</v>
@@ -4849,10 +5863,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M20">
         <v>4</v>
@@ -4878,10 +5892,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M21">
         <v>3</v>
@@ -4907,10 +5921,10 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M22">
         <v>2</v>
@@ -4936,10 +5950,10 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M23">
         <v>3</v>
@@ -4965,10 +5979,10 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M24">
         <v>2</v>
@@ -4985,7 +5999,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -4994,10 +6008,10 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -5014,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -5023,10 +6037,10 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M26">
         <v>4</v>
@@ -5043,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -5052,10 +6066,10 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M27">
         <v>2</v>
@@ -5081,10 +6095,10 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M28">
         <v>2</v>
@@ -5101,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -5110,10 +6124,10 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M29">
         <v>3</v>
@@ -5130,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -5139,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F30" s="1"/>
       <c r="M30">
@@ -5157,7 +6171,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -5166,7 +6180,7 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F31" s="1"/>
       <c r="M31">
@@ -5184,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -5193,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F32" s="1"/>
       <c r="M32">
@@ -5220,7 +6234,7 @@
         <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M33">
         <v>25</v>
@@ -5253,20 +6267,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037159B-319A-4C42-A294-2B2489B57574}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -5285,8 +6300,23 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5296,11 +6326,37 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
       <c r="E2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>I26</f>
+        <v>81</v>
+      </c>
+      <c r="N2">
+        <f>J26</f>
+        <v>90</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5310,362 +6366,828 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f>I26-SUM(I2:I5)</f>
+        <v>74</v>
+      </c>
+      <c r="N3">
+        <f>J26-SUM(J2:J5)</f>
+        <v>75</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>M3-SUM(I6:I10)</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="N4">
+        <f>N3-SUM(J6:J10)</f>
+        <v>45</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>M4-SUM(I11:I14)</f>
+        <v>32</v>
+      </c>
+      <c r="N5">
+        <f>N4-SUM(J11:J14)</f>
+        <v>28</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f>M5-SUM(I15:I17)</f>
+        <v>26</v>
+      </c>
+      <c r="N6">
+        <f>N5-SUM(J15:J17)</f>
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f>M6-SUM(I18:I23)</f>
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <f>N6-SUM(J18:J23)</f>
+        <v>9</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f>M7-SUM(I24:I25)</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>N7-SUM(J24:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10">
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <f>SUM(I2:I25)</f>
+        <v>81</v>
+      </c>
+      <c r="J26">
+        <f>SUM(J2:J25)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28">
         <v>8</v>
       </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -293,10 +293,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -322,12 +329,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5144,8 +5155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5175,21 +5186,23 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="M1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -5207,24 +5220,25 @@
       <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="3">
+        <v>3</v>
+      </c>
+      <c r="N2" s="3">
         <v>5</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3">
         <f>M34</f>
         <v>118</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <f>N34</f>
         <v>129</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5258,25 @@
       <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
+      <c r="M3" s="3">
+        <v>3</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
         <f>M34-SUM(M2:M5)</f>
         <v>104</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <f>N34-SUM(N2:N5)</f>
         <v>113</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5281,24 +5296,25 @@
       <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>6</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>6</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
         <f>Q3-SUM(M6)</f>
         <v>101</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
         <f>R3-SUM(N6)</f>
         <v>110</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="3">
         <v>2</v>
       </c>
     </row>
@@ -5318,24 +5334,25 @@
       <c r="E5" t="s">
         <v>48</v>
       </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3">
         <f>Q4-SUM(M7:M8)</f>
         <v>97</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="3">
         <f>R4-SUM(N7:N8)</f>
         <v>105</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="3">
         <v>3</v>
       </c>
     </row>
@@ -5355,24 +5372,25 @@
       <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
+      <c r="M6" s="3">
+        <v>3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
         <f>Q5-SUM(M9:M10)</f>
         <v>91</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <f>R5-SUM(N9:N10)</f>
         <v>99</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="3">
         <v>4</v>
       </c>
     </row>
@@ -5392,24 +5410,25 @@
       <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="Q7">
+      <c r="M7" s="3">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>3</v>
+      </c>
+      <c r="O7" s="3">
+        <v>3</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3">
         <f>Q6-SUM(M11:M12)</f>
         <v>86</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="3">
         <f>R6-SUM(N11:N12)</f>
         <v>95</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="3">
         <v>5</v>
       </c>
     </row>
@@ -5432,24 +5451,25 @@
       <c r="F8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="Q8">
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3">
         <f>Q7-SUM(M13:M15)</f>
         <v>77</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <f>R7-SUM(N13:N15)</f>
         <v>86</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="3">
         <v>6</v>
       </c>
     </row>
@@ -5472,24 +5492,25 @@
       <c r="F9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9">
+      <c r="M9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3">
         <v>4</v>
       </c>
-      <c r="Q9">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3">
         <f>Q8-SUM(M16:M17)</f>
         <v>68</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="3">
         <f>R8-SUM(N16:N17)</f>
         <v>72</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="3">
         <v>7</v>
       </c>
     </row>
@@ -5512,24 +5533,25 @@
       <c r="F10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>4</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>4</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>4</v>
       </c>
-      <c r="Q10">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3">
         <f>Q9-SUM(M18)</f>
         <v>65</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <f>R9-SUM(N18)</f>
         <v>70</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="3">
         <v>8</v>
       </c>
     </row>
@@ -5552,24 +5574,25 @@
       <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11">
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3">
         <v>5</v>
       </c>
-      <c r="Q11">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3">
         <f>Q10-SUM(M19:M21)</f>
         <v>53</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="3">
         <f>R10-SUM(N19:N21)</f>
         <v>59</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="3">
         <v>9</v>
       </c>
     </row>
@@ -5592,24 +5615,25 @@
       <c r="F12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
+      <c r="M12" s="3">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
         <v>5</v>
       </c>
-      <c r="Q12">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3">
         <f>Q11-SUM(M22:M24)</f>
         <v>46</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="3">
         <f>R11-SUM(N22:N24)</f>
         <v>52</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="3">
         <v>10</v>
       </c>
     </row>
@@ -5632,24 +5656,25 @@
       <c r="F13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>4</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>4</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>6</v>
       </c>
-      <c r="Q13">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3">
         <f>Q12-SUM(M25:M26)</f>
         <v>41</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="3">
         <f>R12-SUM(N25:N26)</f>
         <v>46</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="3">
         <v>11</v>
       </c>
     </row>
@@ -5672,24 +5697,25 @@
       <c r="F14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
+      <c r="M14" s="3">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>6</v>
       </c>
-      <c r="Q14">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3">
         <f>Q13-SUM(M27:M29)</f>
         <v>34</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="3">
         <f>R13-SUM(N27:N29)</f>
         <v>40</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="3">
         <v>12</v>
       </c>
     </row>
@@ -5712,24 +5738,25 @@
       <c r="F15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-      <c r="O15">
+      <c r="M15" s="3">
+        <v>2</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2</v>
+      </c>
+      <c r="O15" s="3">
         <v>6</v>
       </c>
-      <c r="Q15">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3">
         <f>Q14-SUM(M30:M33)</f>
         <v>0</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="3">
         <f>R14-SUM(N30:N33)</f>
         <v>0</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="3">
         <v>13</v>
       </c>
     </row>
@@ -5752,17 +5779,21 @@
       <c r="F16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <v>6</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <v>10</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5781,17 +5812,21 @@
       <c r="F17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17">
+      <c r="M17" s="3">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
         <v>4</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -5810,17 +5845,21 @@
       <c r="F18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="O18">
+      <c r="M18" s="3">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2</v>
+      </c>
+      <c r="O18" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5839,17 +5878,21 @@
       <c r="F19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>5</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>4</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -5868,17 +5911,21 @@
       <c r="F20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>4</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>4</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5897,17 +5944,21 @@
       <c r="F21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21">
+      <c r="M21" s="3">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -5926,17 +5977,21 @@
       <c r="F22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22">
+      <c r="M22" s="3">
+        <v>2</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2</v>
+      </c>
+      <c r="O22" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -5955,17 +6010,21 @@
       <c r="F23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M23">
-        <v>3</v>
-      </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-      <c r="O23">
+      <c r="M23" s="3">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2</v>
+      </c>
+      <c r="O23" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5984,17 +6043,21 @@
       <c r="F24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
-      <c r="O24">
+      <c r="M24" s="3">
+        <v>2</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -6013,17 +6076,21 @@
       <c r="F25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6042,17 +6109,21 @@
       <c r="F26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="3">
         <v>4</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="3">
         <v>5</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -6071,17 +6142,21 @@
       <c r="F27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27">
+      <c r="M27" s="3">
+        <v>2</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2</v>
+      </c>
+      <c r="O27" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -6100,17 +6175,21 @@
       <c r="F28" t="s">
         <v>53</v>
       </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28">
+      <c r="M28" s="3">
+        <v>2</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2</v>
+      </c>
+      <c r="O28" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6129,17 +6208,21 @@
       <c r="F29" t="s">
         <v>53</v>
       </c>
-      <c r="M29">
-        <v>3</v>
-      </c>
-      <c r="N29">
-        <v>2</v>
-      </c>
-      <c r="O29">
+      <c r="M29" s="3">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2</v>
+      </c>
+      <c r="O29" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6156,17 +6239,21 @@
         <v>49</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="M30">
+      <c r="M30" s="3">
         <v>4</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="3">
         <v>4</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -6183,17 +6270,21 @@
         <v>49</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="M31">
-        <v>3</v>
-      </c>
-      <c r="N31">
+      <c r="M31" s="3">
+        <v>3</v>
+      </c>
+      <c r="N31" s="3">
         <v>4</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -6210,17 +6301,21 @@
         <v>49</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="M32">
-        <v>2</v>
-      </c>
-      <c r="N32">
-        <v>2</v>
-      </c>
-      <c r="O32">
+      <c r="M32" s="3">
+        <v>2</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2</v>
+      </c>
+      <c r="O32" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -6236,25 +6331,34 @@
       <c r="E33" t="s">
         <v>55</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="3">
         <v>25</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="3">
         <v>30</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M34">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M34" s="3">
         <f>SUM(M2:M33)</f>
         <v>118</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="3">
         <f>SUM(N2:N33)</f>
         <v>129</v>
       </c>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
     </row>
   </sheetData>
   <sortState ref="M2:O33">
@@ -6269,8 +6373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037159B-319A-4C42-A294-2B2489B57574}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6300,21 +6404,23 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -6335,24 +6441,25 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="M2">
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
         <f>I26</f>
         <v>81</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <f>J26</f>
         <v>90</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6375,24 +6482,25 @@
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="M3">
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
         <f>I26-SUM(I2:I5)</f>
         <v>74</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <f>J26-SUM(J2:J5)</f>
         <v>75</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6412,24 +6520,25 @@
       <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
         <f>M3-SUM(I6:I10)</f>
         <v>49</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <f>N3-SUM(J6:J10)</f>
         <v>45</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>2</v>
       </c>
     </row>
@@ -6452,24 +6561,25 @@
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
         <v>10</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="M5">
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
         <f>M4-SUM(I11:I14)</f>
         <v>32</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <f>N4-SUM(J11:J14)</f>
         <v>28</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>3</v>
       </c>
     </row>
@@ -6492,24 +6602,25 @@
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="M6">
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
         <f>M5-SUM(I15:I17)</f>
         <v>26</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <f>N5-SUM(J15:J17)</f>
         <v>20</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>4</v>
       </c>
     </row>
@@ -6529,24 +6640,25 @@
       <c r="G7" t="s">
         <v>87</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="M7">
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
         <f>M6-SUM(I18:I23)</f>
         <v>11</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <f>N6-SUM(J18:J23)</f>
         <v>9</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>5</v>
       </c>
     </row>
@@ -6566,24 +6678,25 @@
       <c r="G8" t="s">
         <v>87</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="M8">
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
         <f>M7-SUM(I24:I25)</f>
         <v>0</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <f>N7-SUM(J24:J25)</f>
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>6</v>
       </c>
     </row>
@@ -6609,15 +6722,19 @@
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -6641,15 +6758,19 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>20</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>24</v>
       </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -6673,15 +6794,19 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>8</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>8</v>
       </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
+      <c r="K11" s="3">
+        <v>3</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -6705,15 +6830,19 @@
       <c r="G12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -6737,15 +6866,19 @@
       <c r="G13">
         <v>4</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>6</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>5</v>
       </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -6767,15 +6900,19 @@
       <c r="G14">
         <v>6</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -6796,15 +6933,19 @@
       <c r="G15">
         <v>6</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
         <v>4</v>
       </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -6825,17 +6966,21 @@
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>4</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>6</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6857,17 +7002,21 @@
       <c r="G17">
         <v>5</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -6889,17 +7038,21 @@
       <c r="G18">
         <v>5</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -6921,17 +7074,21 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -6953,17 +7110,21 @@
       <c r="G20">
         <v>2</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>5</v>
       </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
+      <c r="J20" s="3">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6985,17 +7146,21 @@
       <c r="G21">
         <v>3</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>4</v>
       </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
+      <c r="J21" s="3">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7017,17 +7182,21 @@
       <c r="G22">
         <v>4</v>
       </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22">
+      <c r="I22" s="3">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -7047,17 +7216,21 @@
       <c r="G23">
         <v>5</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -7077,17 +7250,21 @@
       <c r="G24">
         <v>5</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>10</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>8</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -7107,17 +7284,21 @@
       <c r="G25">
         <v>5</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -7136,16 +7317,21 @@
       <c r="G26">
         <v>5</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <f>SUM(I2:I25)</f>
         <v>81</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <f>SUM(J2:J25)</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -7165,7 +7351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -7187,7 +7373,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>Play song</t>
   </si>
@@ -103,12 +103,6 @@
     <t>Invite person to chat</t>
   </si>
   <si>
-    <t>Remove song</t>
-  </si>
-  <si>
-    <t>Update song</t>
-  </si>
-  <si>
     <t>Save song</t>
   </si>
   <si>
@@ -124,15 +118,6 @@
     <t>Show if someone is writing</t>
   </si>
   <si>
-    <t>Change time displaying</t>
-  </si>
-  <si>
-    <t>News area</t>
-  </si>
-  <si>
-    <t>Sound equalizer</t>
-  </si>
-  <si>
     <t>Multiple chats for one client</t>
   </si>
   <si>
@@ -151,24 +136,12 @@
     <t>Show newest chat info</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Booking</t>
-  </si>
-  <si>
-    <t>Multiplayer game (scalable)</t>
-  </si>
-  <si>
     <t>exceptions</t>
   </si>
   <si>
     <t>burn down chart</t>
   </si>
   <si>
-    <t>Stoicho</t>
-  </si>
-  <si>
     <t>Andrei</t>
   </si>
   <si>
@@ -208,9 +181,6 @@
     <t>Create playlist</t>
   </si>
   <si>
-    <t>Read playlist</t>
-  </si>
-  <si>
     <t>Update playlist</t>
   </si>
   <si>
@@ -241,9 +211,6 @@
     <t>Get notification</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -286,7 +253,52 @@
     <t>Updating end expanding existing UI</t>
   </si>
   <si>
-    <t>Not done</t>
+    <t>MVC</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>WCF hosting</t>
+  </si>
+  <si>
+    <t>Dos/Ddos protection</t>
+  </si>
+  <si>
+    <t>test/refactor code</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Entity framework</t>
+  </si>
+  <si>
+    <t>Sys dev report</t>
+  </si>
+  <si>
+    <t>Techno/Programming report</t>
+  </si>
+  <si>
+    <t>Chat users upated if user info changed</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>transactions isolaton</t>
+  </si>
+  <si>
+    <t>Stoycho</t>
+  </si>
+  <si>
+    <t>Ajax spike</t>
+  </si>
+  <si>
+    <t>Andrei/Ralfs</t>
+  </si>
+  <si>
+    <t>Splitting report tasks</t>
   </si>
 </sst>
 </file>
@@ -1408,22 +1420,22 @@
                   <c:v>Estimate</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1480,22 +1492,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1573,22 +1585,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3803,15 +3815,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3823,7 +3835,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -3838,13 +3850,13 @@
         <v>3</v>
       </c>
       <c r="Q1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3855,7 +3867,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -3892,7 +3904,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3929,7 +3941,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3966,7 +3978,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -4003,7 +4015,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -4040,7 +4052,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -4074,10 +4086,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -4114,7 +4126,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -4151,7 +4163,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -4188,7 +4200,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -4225,7 +4237,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -4262,7 +4274,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -4299,7 +4311,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -4336,7 +4348,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -4365,7 +4377,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -4394,7 +4406,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -4420,10 +4432,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -4452,7 +4464,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -4478,10 +4490,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4507,10 +4519,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -4536,10 +4548,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -4565,10 +4577,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -4597,7 +4609,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -4623,10 +4635,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -4652,10 +4664,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4681,10 +4693,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -4710,10 +4722,10 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -4739,10 +4751,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -4768,10 +4780,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -4797,10 +4809,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -4826,10 +4838,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -4855,10 +4867,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D33">
         <v>25</v>
@@ -4887,7 +4899,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
       </c>
       <c r="O34">
         <f>SUM(O2:O33)</f>
@@ -4906,10 +4924,16 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
       </c>
       <c r="U35">
         <v>34</v>
@@ -4920,10 +4944,16 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
       </c>
       <c r="U36">
         <v>35</v>
@@ -4934,10 +4964,16 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="U37">
         <v>36</v>
@@ -4948,10 +4984,16 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
       </c>
       <c r="U38">
         <v>37</v>
@@ -4962,10 +5004,16 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="U39">
         <v>38</v>
@@ -4976,10 +5024,16 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
       </c>
       <c r="U40">
         <v>39</v>
@@ -4987,13 +5041,19 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
       </c>
       <c r="U41">
         <v>40</v>
@@ -5001,13 +5061,19 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
       </c>
       <c r="U42">
         <v>41</v>
@@ -5015,24 +5081,36 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -5040,10 +5118,16 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -5051,10 +5135,16 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -5062,10 +5152,16 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -5073,76 +5169,66 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
         <v>66</v>
       </c>
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>3</v>
-      </c>
-      <c r="B54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5155,8 +5241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5193,14 +5279,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="S1" s="3"/>
     </row>
@@ -5218,7 +5304,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M2" s="3">
         <v>3</v>
@@ -5256,7 +5342,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M3" s="3">
         <v>3</v>
@@ -5294,7 +5380,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M4" s="3">
         <v>6</v>
@@ -5332,7 +5418,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M5" s="3">
         <v>2</v>
@@ -5370,7 +5456,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M6" s="3">
         <v>3</v>
@@ -5408,7 +5494,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M7" s="3">
         <v>2</v>
@@ -5437,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -5446,10 +5532,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M8" s="3">
         <v>2</v>
@@ -5487,10 +5573,10 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M9" s="3">
         <v>2</v>
@@ -5528,10 +5614,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M10" s="3">
         <v>4</v>
@@ -5569,10 +5655,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M11" s="3">
         <v>3</v>
@@ -5610,10 +5696,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M12" s="3">
         <v>2</v>
@@ -5651,10 +5737,10 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M13" s="3">
         <v>4</v>
@@ -5692,10 +5778,10 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M14" s="3">
         <v>3</v>
@@ -5733,10 +5819,10 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M15" s="3">
         <v>2</v>
@@ -5774,10 +5860,10 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M16" s="3">
         <v>6</v>
@@ -5807,10 +5893,10 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M17" s="3">
         <v>3</v>
@@ -5831,7 +5917,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -5840,10 +5926,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M18" s="3">
         <v>3</v>
@@ -5873,10 +5959,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M19" s="3">
         <v>5</v>
@@ -5897,7 +5983,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -5906,10 +5992,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M20" s="3">
         <v>4</v>
@@ -5930,7 +6016,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -5939,10 +6025,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M21" s="3">
         <v>3</v>
@@ -5963,7 +6049,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -5972,10 +6058,10 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M22" s="3">
         <v>2</v>
@@ -5996,19 +6082,19 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
         <v>41</v>
       </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M23" s="3">
         <v>3</v>
@@ -6038,10 +6124,10 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M24" s="3">
         <v>2</v>
@@ -6062,7 +6148,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -6071,10 +6157,10 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M25" s="3">
         <v>1</v>
@@ -6095,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -6104,10 +6190,10 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M26" s="3">
         <v>4</v>
@@ -6128,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -6137,10 +6223,10 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M27" s="3">
         <v>2</v>
@@ -6161,7 +6247,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -6170,10 +6256,10 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M28" s="3">
         <v>2</v>
@@ -6194,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -6203,10 +6289,10 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M29" s="3">
         <v>3</v>
@@ -6227,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -6236,7 +6322,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F30" s="1"/>
       <c r="M30" s="3">
@@ -6258,7 +6344,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -6267,7 +6353,7 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F31" s="1"/>
       <c r="M31" s="3">
@@ -6289,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -6298,7 +6384,7 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F32" s="1"/>
       <c r="M32" s="3">
@@ -6320,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>25</v>
@@ -6329,7 +6415,7 @@
         <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M33" s="3">
         <v>25</v>
@@ -6371,10 +6457,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037159B-319A-4C42-A294-2B2489B57574}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6411,14 +6497,14 @@
         <v>3</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="O1" s="3"/>
     </row>
@@ -6436,7 +6522,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -6452,12 +6538,12 @@
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3">
-        <f>I26</f>
-        <v>81</v>
+        <f>I29</f>
+        <v>85</v>
       </c>
       <c r="N2" s="3">
-        <f>J26</f>
-        <v>90</v>
+        <f>J29</f>
+        <v>94</v>
       </c>
       <c r="O2" s="3">
         <v>0</v>
@@ -6468,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -6477,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6493,12 +6579,12 @@
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3">
-        <f>I26-SUM(I2:I5)</f>
-        <v>74</v>
+        <f>I29-SUM(I2:I5)</f>
+        <v>78</v>
       </c>
       <c r="N3" s="3">
-        <f>J26-SUM(J2:J5)</f>
-        <v>75</v>
+        <f>J29-SUM(J2:J5)</f>
+        <v>79</v>
       </c>
       <c r="O3" s="3">
         <v>1</v>
@@ -6509,16 +6595,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -6532,11 +6621,11 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3">
         <f>M3-SUM(I6:I10)</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N4" s="3">
         <f>N3-SUM(J6:J10)</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O4" s="3">
         <v>2</v>
@@ -6547,19 +6636,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -6573,11 +6662,11 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3">
         <f>M4-SUM(I11:I14)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N5" s="3">
         <f>N4-SUM(J11:J14)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O5" s="3">
         <v>3</v>
@@ -6585,22 +6674,26 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f>-H7</f>
+        <v>0</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -6614,11 +6707,11 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3">
         <f>M5-SUM(I15:I17)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N6" s="3">
         <f>N5-SUM(J15:J17)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O6" s="3">
         <v>4</v>
@@ -6629,16 +6722,22 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -6651,12 +6750,12 @@
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3">
-        <f>M6-SUM(I18:I23)</f>
+        <f>M6-SUM(I18:I24)</f>
+        <v>13</v>
+      </c>
+      <c r="N7" s="3">
+        <f>N6-SUM(J18:J24)</f>
         <v>11</v>
-      </c>
-      <c r="N7" s="3">
-        <f>N6-SUM(J18:J23)</f>
-        <v>9</v>
       </c>
       <c r="O7" s="3">
         <v>5</v>
@@ -6667,16 +6766,22 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>87</v>
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
       </c>
       <c r="I8" s="3">
         <v>2</v>
@@ -6689,11 +6794,11 @@
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3">
-        <f>M7-SUM(I24:I25)</f>
+        <f>M7-SUM(I25:I28)</f>
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <f>N7-SUM(J24:J25)</f>
+        <f>N7-SUM(J25:J28)</f>
         <v>0</v>
       </c>
       <c r="O8" s="3">
@@ -6705,19 +6810,19 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -6738,22 +6843,22 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -6777,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -6786,10 +6891,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -6813,19 +6918,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6849,20 +6954,18 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13">
         <v>4</v>
       </c>
@@ -6882,21 +6985,20 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>41</v>
+      </c>
       <c r="G14">
         <v>6</v>
       </c>
@@ -6919,16 +7021,16 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -6949,19 +7051,22 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -6985,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -6994,10 +7099,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -7021,7 +7126,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -7030,10 +7135,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -7057,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -7066,10 +7171,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -7093,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -7102,10 +7207,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -7129,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -7138,10 +7243,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -7162,23 +7267,21 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22">
         <v>4</v>
       </c>
@@ -7201,16 +7304,16 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23">
@@ -7235,31 +7338,30 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24">
         <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J24" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K24" s="3">
-        <v>6</v>
-      </c>
-      <c r="L24" s="3"/>
+        <v>5</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -7269,18 +7371,17 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>40</v>
+      </c>
       <c r="G25">
         <v>5</v>
       </c>
@@ -7293,7 +7394,6 @@
       <c r="K25" s="3">
         <v>6</v>
       </c>
-      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -7303,29 +7403,29 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="G26">
         <v>5</v>
       </c>
       <c r="I26" s="3">
-        <f>SUM(I2:I25)</f>
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="J26" s="3">
-        <f>SUM(J2:J25)</f>
-        <v>90</v>
-      </c>
-      <c r="K26" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
+        <v>6</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -7336,40 +7436,71 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>6</v>
+      </c>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>6</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I29" s="3">
+        <f>SUM(C2:C28)</f>
         <v>85</v>
       </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
+      <c r="J29" s="3">
+        <f>SUM(D2:D28)</f>
+        <v>94</v>
+      </c>
+      <c r="K29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7380,12 +7511,130 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7884E-D22C-4C15-B48F-DDAEB03C83F5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="93">
   <si>
     <t>Play song</t>
   </si>
@@ -286,9 +286,6 @@
     <t>Reports</t>
   </si>
   <si>
-    <t>transactions isolaton</t>
-  </si>
-  <si>
     <t>Stoycho</t>
   </si>
   <si>
@@ -299,6 +296,12 @@
   </si>
   <si>
     <t>Splitting report tasks</t>
+  </si>
+  <si>
+    <t>Fix update profile</t>
+  </si>
+  <si>
+    <t>transactions</t>
   </si>
 </sst>
 </file>
@@ -6256,7 +6259,7 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
         <v>44</v>
@@ -6289,7 +6292,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
         <v>44</v>
@@ -6522,7 +6525,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -6563,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6604,7 +6607,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -6645,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -6686,7 +6689,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -6731,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -7347,7 +7350,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24">
@@ -7511,10 +7514,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7884E-D22C-4C15-B48F-DDAEB03C83F5}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7574,7 +7577,7 @@
         <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>43</v>
@@ -7604,10 +7607,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
         <v>89</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7615,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -7624,14 +7627,40 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>87</v>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sprint 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sprint 3" sheetId="4" r:id="rId4"/>
-    <sheet name="Sprint 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint 0" sheetId="6" r:id="rId2"/>
+    <sheet name="Sprint 1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint 2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sprint 3" sheetId="4" r:id="rId5"/>
+    <sheet name="Sprint 4" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="114">
   <si>
     <t>Play song</t>
   </si>
@@ -302,6 +303,69 @@
   </si>
   <si>
     <t>transactions</t>
+  </si>
+  <si>
+    <t>Mock up</t>
+  </si>
+  <si>
+    <t>MoSCoW</t>
+  </si>
+  <si>
+    <t>Use cases</t>
+  </si>
+  <si>
+    <t>Group Contract</t>
+  </si>
+  <si>
+    <t>Domain model</t>
+  </si>
+  <si>
+    <t>Database model</t>
+  </si>
+  <si>
+    <t>Drop database script</t>
+  </si>
+  <si>
+    <t>Database table creation scripts</t>
+  </si>
+  <si>
+    <t>Database insert row scripts scripts</t>
+  </si>
+  <si>
+    <t>Domain model explanation</t>
+  </si>
+  <si>
+    <t>Distribute usecases</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>User stories</t>
+  </si>
+  <si>
+    <t>Create report structure</t>
+  </si>
+  <si>
+    <t>Database triger tests</t>
+  </si>
+  <si>
+    <t>Read about chats</t>
+  </si>
+  <si>
+    <t>Decide on development method</t>
+  </si>
+  <si>
+    <t>Establish coding standards</t>
+  </si>
+  <si>
+    <t>Agree on working conditions</t>
+  </si>
+  <si>
+    <t>Generate product idea</t>
+  </si>
+  <si>
+    <t>Do it!</t>
   </si>
 </sst>
 </file>
@@ -408,7 +472,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1'!$Q$1</c:f>
+              <c:f>'Sprint 0'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -443,109 +507,53 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Sprint 1'!$S$3:$S$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Sprint 1'!$S$3:$S$15</c:f>
+              <c:f>'Sprint 0'!$O$2:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Sprint 1'!$Q$3:$Q$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Sprint 1'!$Q$3:$Q$15</c:f>
+              <c:f>'Sprint 0'!$M$2:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>104</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -554,7 +562,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E1A-443C-8892-BDFC65A0A0A1}"/>
+              <c16:uniqueId val="{00000002-A33C-438A-9A29-801E903EE326}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -563,7 +571,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1'!$R$1</c:f>
+              <c:f>'Sprint 0'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -598,109 +606,53 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Sprint 1'!$S$3:$S$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Sprint 1'!$S$3:$S$15</c:f>
+              <c:f>'Sprint 0'!$O$2:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Sprint 1'!$R$3:$R$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Sprint 1'!$R$3:$R$15</c:f>
+              <c:f>'Sprint 0'!$N$2:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>113</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -709,7 +661,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7E1A-443C-8892-BDFC65A0A0A1}"/>
+              <c16:uniqueId val="{00000003-A33C-438A-9A29-801E903EE326}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1412,122 +1364,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sprint 2'!$M:$M</c:f>
-              <c:strCache>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>Estimate</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Sprint 2'!$O$2:$O$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 2'!$M$2:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-26A2-4469-9AC6-DAD0A002A0F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Sprint 2'!$N$1</c:f>
@@ -1542,14 +1380,26 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1618,6 +1468,81 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F94-48BA-8251-850259E5A8DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1626,6 +1551,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="488277248"/>
         <c:axId val="488277576"/>
@@ -1870,10 +1796,13 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2913,7 +2842,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3021,11 +2950,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3036,11 +2960,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3072,9 +2991,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3432,23 +3348,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>299358</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>131989</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>17689</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramma 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8B0D07-D641-49D4-91D0-7D9753D97F44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90F5E9A-3702-4EF0-A1FC-776B1F2DDFED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3818,10 +3734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W72" sqref="W72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3830,7 +3746,7 @@
     <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3846,23 +3762,8 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3878,28 +3779,8 @@
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <f>O34-SUM(O2:O5)</f>
-        <v>104</v>
-      </c>
-      <c r="T2">
-        <f>P34-SUM(P2:P5)</f>
-        <v>113</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3915,28 +3796,8 @@
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <f>S2-SUM(O6)</f>
-        <v>101</v>
-      </c>
-      <c r="T3">
-        <f>T2-SUM(P6)</f>
-        <v>110</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3952,28 +3813,8 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="O4">
-        <v>6</v>
-      </c>
-      <c r="P4">
-        <v>6</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <f>S3-SUM(O7:O8)</f>
-        <v>97</v>
-      </c>
-      <c r="T4">
-        <f>T3-SUM(P7:P8)</f>
-        <v>105</v>
-      </c>
-      <c r="U4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3989,28 +3830,8 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <f>S4-SUM(O9:O10)</f>
-        <v>91</v>
-      </c>
-      <c r="T5">
-        <f>T4-SUM(P9:P10)</f>
-        <v>99</v>
-      </c>
-      <c r="U5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4026,28 +3847,8 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>3</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <f>S5-SUM(O11:O12)</f>
-        <v>86</v>
-      </c>
-      <c r="T6">
-        <f>T5-SUM(P11:P12)</f>
-        <v>95</v>
-      </c>
-      <c r="U6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4063,28 +3864,8 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>3</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="S7">
-        <f>S6-SUM(O13:O15)</f>
-        <v>77</v>
-      </c>
-      <c r="T7">
-        <f>T6-SUM(P13:P15)</f>
-        <v>86</v>
-      </c>
-      <c r="U7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4100,28 +3881,8 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-      <c r="S8">
-        <f>S7-SUM(O16:O17)</f>
-        <v>68</v>
-      </c>
-      <c r="T8">
-        <f>T7-SUM(P16:P17)</f>
-        <v>72</v>
-      </c>
-      <c r="U8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4137,28 +3898,8 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
-      </c>
-      <c r="S9">
-        <f>S8-SUM(O18)</f>
-        <v>65</v>
-      </c>
-      <c r="T9">
-        <f>T8-SUM(P18)</f>
-        <v>70</v>
-      </c>
-      <c r="U9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4174,28 +3915,8 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="P10">
-        <v>4</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-      <c r="S10">
-        <f>S9-SUM(O19:O21)</f>
-        <v>53</v>
-      </c>
-      <c r="T10">
-        <f>T9-SUM(P19:P21)</f>
-        <v>59</v>
-      </c>
-      <c r="U10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4211,28 +3932,8 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="O11">
-        <v>3</v>
-      </c>
-      <c r="P11">
-        <v>3</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
-      </c>
-      <c r="S11">
-        <f>S10-SUM(O22:O24)</f>
-        <v>46</v>
-      </c>
-      <c r="T11">
-        <f>T10-SUM(P22:P24)</f>
-        <v>52</v>
-      </c>
-      <c r="U11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4248,28 +3949,8 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
-      </c>
-      <c r="S12">
-        <f>S11-SUM(O25:O26)</f>
-        <v>41</v>
-      </c>
-      <c r="T12">
-        <f>T11-SUM(P25:P26)</f>
-        <v>46</v>
-      </c>
-      <c r="U12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4285,28 +3966,8 @@
       <c r="E13">
         <v>4</v>
       </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>4</v>
-      </c>
-      <c r="Q13">
-        <v>6</v>
-      </c>
-      <c r="S13">
-        <f>S12-SUM(O27:O29)</f>
-        <v>34</v>
-      </c>
-      <c r="T13">
-        <f>T12-SUM(P27:P29)</f>
-        <v>40</v>
-      </c>
-      <c r="U13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4322,28 +3983,8 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="O14">
-        <v>3</v>
-      </c>
-      <c r="P14">
-        <v>3</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-      <c r="S14">
-        <f>S13-SUM(O30:O33)</f>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f>T13-SUM(P30:P33)</f>
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4359,20 +4000,8 @@
       <c r="E15">
         <v>4</v>
       </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15">
-        <v>2</v>
-      </c>
-      <c r="Q15">
-        <v>6</v>
-      </c>
-      <c r="U15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4388,20 +4017,8 @@
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="O16">
-        <v>6</v>
-      </c>
-      <c r="P16">
-        <v>10</v>
-      </c>
-      <c r="Q16">
-        <v>7</v>
-      </c>
-      <c r="U16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4417,20 +4034,8 @@
       <c r="E17">
         <v>3</v>
       </c>
-      <c r="O17">
-        <v>3</v>
-      </c>
-      <c r="P17">
-        <v>4</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
-      </c>
-      <c r="U17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4446,20 +4051,8 @@
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="O18">
-        <v>3</v>
-      </c>
-      <c r="P18">
-        <v>2</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
-      </c>
-      <c r="U18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4475,20 +4068,8 @@
       <c r="E19">
         <v>3</v>
       </c>
-      <c r="O19">
-        <v>5</v>
-      </c>
-      <c r="P19">
-        <v>4</v>
-      </c>
-      <c r="Q19">
-        <v>9</v>
-      </c>
-      <c r="U19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -4504,20 +4085,8 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>4</v>
-      </c>
-      <c r="Q20">
-        <v>9</v>
-      </c>
-      <c r="U20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4533,20 +4102,8 @@
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="O21">
-        <v>3</v>
-      </c>
-      <c r="P21">
-        <v>3</v>
-      </c>
-      <c r="Q21">
-        <v>9</v>
-      </c>
-      <c r="U21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4562,20 +4119,8 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="O22">
-        <v>2</v>
-      </c>
-      <c r="P22">
-        <v>2</v>
-      </c>
-      <c r="Q22">
-        <v>10</v>
-      </c>
-      <c r="U22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -4591,20 +4136,8 @@
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="O23">
-        <v>3</v>
-      </c>
-      <c r="P23">
-        <v>2</v>
-      </c>
-      <c r="Q23">
-        <v>10</v>
-      </c>
-      <c r="U23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -4620,20 +4153,8 @@
       <c r="E24">
         <v>4</v>
       </c>
-      <c r="O24">
-        <v>2</v>
-      </c>
-      <c r="P24">
-        <v>3</v>
-      </c>
-      <c r="Q24">
-        <v>10</v>
-      </c>
-      <c r="U24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -4649,20 +4170,8 @@
       <c r="E25">
         <v>4</v>
       </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>11</v>
-      </c>
-      <c r="U25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -4678,20 +4187,8 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="O26">
-        <v>4</v>
-      </c>
-      <c r="P26">
-        <v>5</v>
-      </c>
-      <c r="Q26">
-        <v>11</v>
-      </c>
-      <c r="U26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4707,20 +4204,8 @@
       <c r="E27">
         <v>10</v>
       </c>
-      <c r="O27">
-        <v>2</v>
-      </c>
-      <c r="P27">
-        <v>2</v>
-      </c>
-      <c r="Q27">
-        <v>12</v>
-      </c>
-      <c r="U27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -4736,20 +4221,8 @@
       <c r="E28">
         <v>5</v>
       </c>
-      <c r="O28">
-        <v>2</v>
-      </c>
-      <c r="P28">
-        <v>2</v>
-      </c>
-      <c r="Q28">
-        <v>12</v>
-      </c>
-      <c r="U28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4765,20 +4238,8 @@
       <c r="E29">
         <v>6</v>
       </c>
-      <c r="O29">
-        <v>3</v>
-      </c>
-      <c r="P29">
-        <v>2</v>
-      </c>
-      <c r="Q29">
-        <v>12</v>
-      </c>
-      <c r="U29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4794,20 +4255,8 @@
       <c r="E30">
         <v>2</v>
       </c>
-      <c r="O30">
-        <v>4</v>
-      </c>
-      <c r="P30">
-        <v>4</v>
-      </c>
-      <c r="Q30">
-        <v>13</v>
-      </c>
-      <c r="U30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -4823,20 +4272,8 @@
       <c r="E31">
         <v>4</v>
       </c>
-      <c r="O31">
-        <v>3</v>
-      </c>
-      <c r="P31">
-        <v>4</v>
-      </c>
-      <c r="Q31">
-        <v>13</v>
-      </c>
-      <c r="U31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4852,20 +4289,8 @@
       <c r="E32">
         <v>4</v>
       </c>
-      <c r="O32">
-        <v>2</v>
-      </c>
-      <c r="P32">
-        <v>2</v>
-      </c>
-      <c r="Q32">
-        <v>13</v>
-      </c>
-      <c r="U32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -4881,20 +4306,9 @@
       <c r="E33">
         <v>30</v>
       </c>
-      <c r="O33">
-        <v>25</v>
-      </c>
-      <c r="P33">
-        <v>30</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>13</v>
-      </c>
-      <c r="U33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -4910,19 +4324,8 @@
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="O34">
-        <f>SUM(O2:O33)</f>
-        <v>118</v>
-      </c>
-      <c r="P34">
-        <f>SUM(P2:P33)</f>
-        <v>129</v>
-      </c>
-      <c r="U34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -4938,11 +4341,8 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="U35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -4958,11 +4358,8 @@
       <c r="E36">
         <v>3</v>
       </c>
-      <c r="U36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -4978,11 +4375,8 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="U37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -4998,11 +4392,8 @@
       <c r="E38">
         <v>2</v>
       </c>
-      <c r="U38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -5018,11 +4409,8 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="U39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -5038,11 +4426,8 @@
       <c r="E40">
         <v>5</v>
       </c>
-      <c r="U40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -5058,11 +4443,8 @@
       <c r="E41">
         <v>2</v>
       </c>
-      <c r="U41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -5078,11 +4460,8 @@
       <c r="E42">
         <v>2</v>
       </c>
-      <c r="U42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -5099,7 +4478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -5116,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -5133,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -5150,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -5167,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -5203,13 +4582,19 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5217,10 +4602,16 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -5228,10 +4619,1018 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
         <v>84</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C72" t="s">
         <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416D8BE7-F174-4DE6-8BD7-669440759E00}">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <f>I22</f>
+        <v>88</v>
+      </c>
+      <c r="N2" s="3">
+        <f>J22</f>
+        <v>96</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <f>M2-SUM(I2:I3)</f>
+        <v>69</v>
+      </c>
+      <c r="N3" s="3">
+        <f>N2-SUM(J2:J3)</f>
+        <v>73</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3">
+        <f>M3-SUM(I4:I8)</f>
+        <v>45</v>
+      </c>
+      <c r="N4" s="3">
+        <f>N3-SUM(J4:J8)</f>
+        <v>50</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <f>M4-SUM(I9:I12)</f>
+        <v>25</v>
+      </c>
+      <c r="N5" s="3">
+        <f>N4-SUM(J9:J12)</f>
+        <v>27</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3">
+        <f>M5-SUM(I13:I17)</f>
+        <v>16</v>
+      </c>
+      <c r="N6" s="3">
+        <f>N5-SUM(J13:J17)</f>
+        <v>17</v>
+      </c>
+      <c r="O6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
+        <f>M6-SUM(I18:I21)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <f>N6-SUM(J18:J21)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f>SUM(I2:I21)</f>
+        <v>88</v>
+      </c>
+      <c r="J22">
+        <f>SUM(J2:J21)</f>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5240,17 +5639,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -6458,12 +6857,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037159B-319A-4C42-A294-2B2489B57574}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6527,9 +6926,6 @@
       <c r="E2" t="s">
         <v>87</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
       <c r="I2" s="3">
         <v>1</v>
       </c>
@@ -6568,9 +6964,6 @@
       <c r="E3" t="s">
         <v>87</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
       <c r="I3" s="3">
         <v>2</v>
       </c>
@@ -6609,9 +7002,6 @@
       <c r="E4" t="s">
         <v>87</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
       <c r="I4" s="3">
         <v>1</v>
       </c>
@@ -6650,9 +7040,6 @@
       <c r="E5" t="s">
         <v>87</v>
       </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
       <c r="I5" s="3">
         <v>3</v>
       </c>
@@ -6691,13 +7078,6 @@
       <c r="E6" t="s">
         <v>87</v>
       </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <f>-H7</f>
-        <v>0</v>
-      </c>
       <c r="I6" s="3">
         <v>1</v>
       </c>
@@ -6736,12 +7116,6 @@
       <c r="E7" t="s">
         <v>87</v>
       </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
@@ -6783,9 +7157,6 @@
       <c r="F8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
       <c r="I8" s="3">
         <v>2</v>
       </c>
@@ -6827,9 +7198,6 @@
       <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
       <c r="I9" s="3">
         <v>1</v>
       </c>
@@ -6863,9 +7231,6 @@
       <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="I10" s="3">
         <v>20</v>
       </c>
@@ -6899,9 +7264,6 @@
       <c r="F11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
       <c r="I11" s="3">
         <v>8</v>
       </c>
@@ -6935,9 +7297,6 @@
       <c r="F12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
       <c r="I12" s="3">
         <v>2</v>
       </c>
@@ -6969,9 +7328,6 @@
         <v>41</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13">
-        <v>4</v>
-      </c>
       <c r="I13" s="3">
         <v>6</v>
       </c>
@@ -7002,9 +7358,6 @@
       <c r="E14" t="s">
         <v>41</v>
       </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
       <c r="I14" s="3">
         <v>1</v>
       </c>
@@ -7035,9 +7388,6 @@
       <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
       <c r="I15" s="3">
         <v>1</v>
       </c>
@@ -7071,9 +7421,6 @@
       <c r="F16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
       <c r="I16" s="3">
         <v>4</v>
       </c>
@@ -7107,9 +7454,6 @@
       <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
       <c r="I17" s="3">
         <v>1</v>
       </c>
@@ -7143,9 +7487,6 @@
       <c r="F18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
       <c r="I18" s="3">
         <v>1</v>
       </c>
@@ -7179,9 +7520,6 @@
       <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
       <c r="I19" s="3">
         <v>1</v>
       </c>
@@ -7215,9 +7553,6 @@
       <c r="F20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
       <c r="I20" s="3">
         <v>5</v>
       </c>
@@ -7251,9 +7586,6 @@
       <c r="F21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
       <c r="I21" s="3">
         <v>4</v>
       </c>
@@ -7285,9 +7617,6 @@
         <v>39</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22">
-        <v>4</v>
-      </c>
       <c r="I22" s="3">
         <v>2</v>
       </c>
@@ -7319,9 +7648,6 @@
         <v>41</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23">
-        <v>5</v>
-      </c>
       <c r="I23" s="3">
         <v>2</v>
       </c>
@@ -7353,9 +7679,6 @@
         <v>87</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24">
-        <v>5</v>
-      </c>
       <c r="I24" s="3">
         <v>2</v>
       </c>
@@ -7385,9 +7708,6 @@
       <c r="E25" t="s">
         <v>40</v>
       </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
       <c r="I25" s="3">
         <v>1</v>
       </c>
@@ -7397,6 +7717,7 @@
       <c r="K25" s="3">
         <v>6</v>
       </c>
+      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -7416,9 +7737,6 @@
       </c>
       <c r="E26" t="s">
         <v>74</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
       </c>
       <c r="I26" s="3">
         <v>10</v>
@@ -7450,9 +7768,6 @@
       <c r="E27" t="s">
         <v>74</v>
       </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
       <c r="I27" s="3">
         <v>1</v>
       </c>
@@ -7479,9 +7794,6 @@
       </c>
       <c r="E28" t="s">
         <v>41</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
@@ -7512,11 +7824,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7884E-D22C-4C15-B48F-DDAEB03C83F5}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -7668,7 +7980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C4868-DA68-4B79-A75F-C29998123D8F}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -137,9 +137,6 @@
     <t>Show newest chat info</t>
   </si>
   <si>
-    <t>exceptions</t>
-  </si>
-  <si>
     <t>burn down chart</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>Ralfs</t>
   </si>
   <si>
-    <t>Fix database</t>
-  </si>
-  <si>
     <t>Product owner</t>
   </si>
   <si>
@@ -239,9 +233,6 @@
     <t>Multiplayer game</t>
   </si>
   <si>
-    <t>Game error</t>
-  </si>
-  <si>
     <t>Report planing</t>
   </si>
   <si>
@@ -281,9 +272,6 @@
     <t>Techno/Programming report</t>
   </si>
   <si>
-    <t>Chat users upated if user info changed</t>
-  </si>
-  <si>
     <t>Reports</t>
   </si>
   <si>
@@ -366,6 +354,18 @@
   </si>
   <si>
     <t>Do it!</t>
+  </si>
+  <si>
+    <t>Game debug/release mode execution error</t>
+  </si>
+  <si>
+    <t>Refactor database</t>
+  </si>
+  <si>
+    <t>Exception handling</t>
+  </si>
+  <si>
+    <t>Chat users updated if user info changed</t>
   </si>
 </sst>
 </file>
@@ -3754,7 +3754,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -3771,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -3788,7 +3788,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3805,7 +3805,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3822,7 +3822,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -3839,7 +3839,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -3856,7 +3856,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3873,7 +3873,7 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -3890,7 +3890,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -3907,7 +3907,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3941,7 +3941,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -3958,7 +3958,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -3975,7 +3975,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -3992,7 +3992,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -4009,7 +4009,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -4026,7 +4026,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -4043,7 +4043,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -4060,7 +4060,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -4077,7 +4077,7 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4094,7 +4094,7 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -4111,7 +4111,7 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -4128,7 +4128,7 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -4145,7 +4145,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -4159,10 +4159,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -4176,10 +4176,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4193,10 +4193,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -4213,7 +4213,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -4227,10 +4227,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -4244,10 +4244,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -4261,10 +4261,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -4278,10 +4278,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -4298,7 +4298,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D33">
         <v>25</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -4333,7 +4333,7 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -4347,10 +4347,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -4364,10 +4364,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -4381,10 +4381,10 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -4398,10 +4398,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4415,10 +4415,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D40">
         <v>6</v>
@@ -4432,10 +4432,10 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -4449,10 +4449,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -4469,7 +4469,7 @@
         <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -4500,10 +4500,10 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -4517,10 +4517,10 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4534,10 +4534,10 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -4551,10 +4551,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -4568,10 +4568,10 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -4585,10 +4585,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -4602,10 +4602,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -4619,10 +4619,10 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -4636,10 +4636,10 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -4653,10 +4653,10 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D54">
         <v>9</v>
@@ -4670,10 +4670,10 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D55">
         <v>7</v>
@@ -4687,10 +4687,10 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -4704,10 +4704,10 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D57">
         <v>12</v>
@@ -4721,10 +4721,10 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -4738,10 +4738,10 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -4755,10 +4755,10 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -4772,10 +4772,10 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -4789,10 +4789,10 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D62">
         <v>7</v>
@@ -4806,10 +4806,10 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D63">
         <v>10</v>
@@ -4823,10 +4823,10 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -4840,10 +4840,10 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D65">
         <v>10</v>
@@ -4857,10 +4857,10 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -4874,10 +4874,10 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -4891,10 +4891,10 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -4908,10 +4908,10 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4928,7 +4928,7 @@
         <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4936,10 +4936,10 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4947,10 +4947,10 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5000,13 +5000,13 @@
         <v>3</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="O1" s="3"/>
     </row>
@@ -5015,7 +5015,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -5024,10 +5024,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I2">
         <v>9</v>
@@ -5055,7 +5055,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -5064,10 +5064,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -5095,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -5104,10 +5104,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -5135,7 +5135,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5144,10 +5144,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5">
         <v>7</v>
@@ -5175,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -5184,7 +5184,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -5212,7 +5212,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -5221,7 +5221,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -5249,7 +5249,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -5258,7 +5258,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5278,7 +5278,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -5287,7 +5287,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -5304,7 +5304,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -5313,7 +5313,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -5330,7 +5330,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -5356,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -5365,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12">
         <v>12</v>
@@ -5382,7 +5382,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -5391,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5408,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -5417,7 +5417,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -5434,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -5443,13 +5443,13 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5466,7 +5466,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -5475,10 +5475,10 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -5504,7 +5504,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -5521,7 +5521,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -5530,10 +5530,10 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I18">
         <v>7</v>
@@ -5550,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -5559,7 +5559,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I19">
         <v>3</v>
@@ -5576,7 +5576,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -5585,7 +5585,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -5602,7 +5602,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -5611,7 +5611,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -5681,14 +5681,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S1" s="3"/>
     </row>
@@ -5706,7 +5706,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M2" s="3">
         <v>3</v>
@@ -5744,7 +5744,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M3" s="3">
         <v>3</v>
@@ -5782,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="3">
         <v>6</v>
@@ -5820,7 +5820,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="3">
         <v>2</v>
@@ -5858,7 +5858,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" s="3">
         <v>3</v>
@@ -5896,7 +5896,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="3">
         <v>2</v>
@@ -5934,10 +5934,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M8" s="3">
         <v>2</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M9" s="3">
         <v>2</v>
@@ -6016,10 +6016,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M10" s="3">
         <v>4</v>
@@ -6057,10 +6057,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M11" s="3">
         <v>3</v>
@@ -6098,10 +6098,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M12" s="3">
         <v>2</v>
@@ -6139,10 +6139,10 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M13" s="3">
         <v>4</v>
@@ -6180,10 +6180,10 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M14" s="3">
         <v>3</v>
@@ -6221,10 +6221,10 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M15" s="3">
         <v>2</v>
@@ -6262,10 +6262,10 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M16" s="3">
         <v>6</v>
@@ -6295,10 +6295,10 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M17" s="3">
         <v>3</v>
@@ -6328,10 +6328,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M18" s="3">
         <v>3</v>
@@ -6361,10 +6361,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M19" s="3">
         <v>5</v>
@@ -6394,10 +6394,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M20" s="3">
         <v>4</v>
@@ -6427,10 +6427,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M21" s="3">
         <v>3</v>
@@ -6460,10 +6460,10 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M22" s="3">
         <v>2</v>
@@ -6493,10 +6493,10 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M23" s="3">
         <v>3</v>
@@ -6526,10 +6526,10 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M24" s="3">
         <v>2</v>
@@ -6550,7 +6550,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -6559,10 +6559,10 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M25" s="3">
         <v>1</v>
@@ -6583,7 +6583,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -6592,10 +6592,10 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M26" s="3">
         <v>4</v>
@@ -6616,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -6625,10 +6625,10 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M27" s="3">
         <v>2</v>
@@ -6658,10 +6658,10 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M28" s="3">
         <v>2</v>
@@ -6682,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -6691,10 +6691,10 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M29" s="3">
         <v>3</v>
@@ -6715,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -6724,7 +6724,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="1"/>
       <c r="M30" s="3">
@@ -6746,7 +6746,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -6755,7 +6755,7 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="1"/>
       <c r="M31" s="3">
@@ -6777,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -6786,7 +6786,7 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="1"/>
       <c r="M32" s="3">
@@ -6817,7 +6817,7 @@
         <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M33" s="3">
         <v>25</v>
@@ -6862,12 +6862,12 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
@@ -6899,14 +6899,14 @@
         <v>3</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O1" s="3"/>
     </row>
@@ -6924,7 +6924,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -6962,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -6991,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -7000,7 +7000,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -7038,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -7067,7 +7067,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -7076,7 +7076,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -7105,7 +7105,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7114,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -7143,7 +7143,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -7152,10 +7152,10 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I8" s="3">
         <v>2</v>
@@ -7184,7 +7184,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -7193,10 +7193,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -7217,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -7226,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3">
         <v>20</v>
@@ -7250,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -7259,10 +7259,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3">
         <v>8</v>
@@ -7283,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -7292,10 +7292,10 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I12" s="3">
         <v>2</v>
@@ -7325,7 +7325,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1"/>
       <c r="I13" s="3">
@@ -7347,7 +7347,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -7377,7 +7377,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -7407,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -7416,10 +7416,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I16" s="3">
         <v>4</v>
@@ -7440,7 +7440,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -7449,10 +7449,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -7473,7 +7473,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -7482,10 +7482,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
@@ -7506,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -7515,10 +7515,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
@@ -7539,7 +7539,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -7548,10 +7548,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I20" s="3">
         <v>5</v>
@@ -7572,7 +7572,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -7581,10 +7581,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I21" s="3">
         <v>4</v>
@@ -7605,7 +7605,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -7614,7 +7614,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1"/>
       <c r="I22" s="3">
@@ -7636,7 +7636,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -7645,7 +7645,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1"/>
       <c r="I23" s="3">
@@ -7667,7 +7667,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -7676,7 +7676,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F24" s="1"/>
       <c r="I24" s="3">
@@ -7697,7 +7697,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
@@ -7727,7 +7727,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>20</v>
@@ -7736,7 +7736,7 @@
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I26" s="3">
         <v>10</v>
@@ -7757,7 +7757,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -7766,7 +7766,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
@@ -7784,7 +7784,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -7793,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
@@ -7864,10 +7864,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7875,10 +7875,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7886,13 +7886,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7900,10 +7900,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7911,7 +7911,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7919,10 +7919,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7930,13 +7930,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7944,13 +7944,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7958,10 +7958,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7969,10 +7969,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="137">
   <si>
     <t>Play song</t>
   </si>
@@ -245,54 +245,30 @@
     <t>Updating end expanding existing UI</t>
   </si>
   <si>
-    <t>MVC</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>WCF hosting</t>
   </si>
   <si>
     <t>Dos/Ddos protection</t>
   </si>
   <si>
-    <t>test/refactor code</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>Entity framework</t>
-  </si>
-  <si>
     <t>Sys dev report</t>
   </si>
   <si>
     <t>Techno/Programming report</t>
   </si>
   <si>
-    <t>Reports</t>
-  </si>
-  <si>
     <t>Stoycho</t>
   </si>
   <si>
-    <t>Ajax spike</t>
-  </si>
-  <si>
-    <t>Andrei/Ralfs</t>
-  </si>
-  <si>
     <t>Splitting report tasks</t>
   </si>
   <si>
     <t>Fix update profile</t>
   </si>
   <si>
-    <t>transactions</t>
-  </si>
-  <si>
     <t>Mock up</t>
   </si>
   <si>
@@ -366,6 +342,99 @@
   </si>
   <si>
     <t>Chat users updated if user info changed</t>
+  </si>
+  <si>
+    <t>Signlr spike</t>
+  </si>
+  <si>
+    <t>MVC spike</t>
+  </si>
+  <si>
+    <t>Optimize transactions</t>
+  </si>
+  <si>
+    <t>Spike on WCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spike on different communication protocols </t>
+  </si>
+  <si>
+    <t>Spike on email sending</t>
+  </si>
+  <si>
+    <t>Sprint summup</t>
+  </si>
+  <si>
+    <t>Fix music player</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Plan driven Vs. Agile Development</t>
+  </si>
+  <si>
+    <t>Quality Criteria and Architecture</t>
+  </si>
+  <si>
+    <t>Development Method of Choice</t>
+  </si>
+  <si>
+    <t>merging Report</t>
+  </si>
+  <si>
+    <t>Giving feedback on report</t>
+  </si>
+  <si>
+    <t>Requesting edits for report</t>
+  </si>
+  <si>
+    <t>Final touches for report</t>
+  </si>
+  <si>
+    <t>Preliminary Study</t>
+  </si>
+  <si>
+    <t>Service’s Architecture</t>
+  </si>
+  <si>
+    <t>Database Architecture</t>
+  </si>
+  <si>
+    <t>Dedicated Client explanation</t>
+  </si>
+  <si>
+    <t>Web Client explanation</t>
+  </si>
+  <si>
+    <t>Choice of middleware</t>
+  </si>
+  <si>
+    <t>Security in program</t>
+  </si>
+  <si>
+    <t>Concurrency in project</t>
+  </si>
+  <si>
+    <t>Performance of project</t>
+  </si>
+  <si>
+    <t>Interesting bits of code</t>
+  </si>
+  <si>
+    <t>Epilogue</t>
+  </si>
+  <si>
+    <t>test/optimize code</t>
+  </si>
+  <si>
+    <t>MVC application</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>Types of Services</t>
   </si>
 </sst>
 </file>
@@ -408,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -418,6 +487,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -999,7 +1072,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1146,7 +1219,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1438,22 +1511,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>94</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1513,22 +1586,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1540,6 +1613,349 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3F94-48BA-8251-850259E5A8DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="488277248"/>
+        <c:axId val="488277576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="488277248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488277576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="488277576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488277248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="lv-LV"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="lv-LV"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="lv-LV"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3803149606299209E-2"/>
+          <c:y val="3.7037037037037035E-2"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 3'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 3'!$P$2:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$N$2:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA41-45F6-B695-FBBBE507A130}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1835,6 +2251,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2842,6 +3298,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3449,6 +4408,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A75515-41B4-4775-954A-E404F04918DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>71238</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramma 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF380613-FA7D-48FD-B91D-BB9E3FBD5B40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3736,8 +4738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W72" sqref="W72"/>
+    <sheetView topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4585,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
         <v>64</v>
@@ -4602,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
@@ -4619,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
@@ -4636,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
@@ -4653,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
         <v>64</v>
@@ -4670,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
         <v>64</v>
@@ -4687,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
         <v>64</v>
@@ -4704,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -4721,7 +5723,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
         <v>64</v>
@@ -4738,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
         <v>64</v>
@@ -4755,7 +5757,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
         <v>64</v>
@@ -4772,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
         <v>64</v>
@@ -4789,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
@@ -4806,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
@@ -4823,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
         <v>64</v>
@@ -4840,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s">
         <v>64</v>
@@ -4857,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
         <v>64</v>
@@ -4874,7 +5876,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
         <v>64</v>
@@ -4891,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
         <v>64</v>
@@ -4908,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
         <v>64</v>
@@ -4928,7 +5930,7 @@
         <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4936,10 +5938,10 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4947,10 +5949,10 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5015,7 +6017,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -5055,7 +6057,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -5095,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -5135,7 +6137,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5175,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -5212,7 +6214,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -5249,7 +6251,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -5258,7 +6260,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5278,7 +6280,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -5304,7 +6306,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -5330,7 +6332,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5356,7 +6358,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -5382,7 +6384,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -5408,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -5434,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -5449,7 +6451,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5466,7 +6468,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -5495,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -5521,7 +6523,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -5550,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -5576,7 +6578,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -5602,7 +6604,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -5643,13 +6645,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -5922,23 +6924,21 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="M8" s="3">
         <v>2</v>
       </c>
@@ -5966,13 +6966,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
@@ -6007,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -6048,13 +7048,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -6089,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -6130,13 +7130,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
@@ -6171,13 +7171,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -6196,12 +7196,12 @@
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3">
-        <f>Q13-SUM(M27:M29)</f>
-        <v>34</v>
+        <f>Q13-SUM(M27:M31)</f>
+        <v>27</v>
       </c>
       <c r="R14" s="3">
-        <f>R13-SUM(N27:N29)</f>
-        <v>40</v>
+        <f>R13-SUM(N27:N31)</f>
+        <v>32</v>
       </c>
       <c r="S14" s="3">
         <v>12</v>
@@ -6212,13 +7212,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
@@ -6237,11 +7237,11 @@
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3">
-        <f>Q14-SUM(M30:M33)</f>
+        <f>Q14-SUM(M32:M33)</f>
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <f>R14-SUM(N30:N33)</f>
+        <f>R14-SUM(N32:N33)</f>
         <v>0</v>
       </c>
       <c r="S15" s="3">
@@ -6253,10 +7253,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -6286,13 +7286,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -6316,16 +7316,16 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
@@ -6349,16 +7349,16 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
@@ -6382,16 +7382,16 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
@@ -6415,16 +7415,16 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
@@ -6451,7 +7451,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -6481,13 +7481,13 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -6658,7 +7658,7 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -6691,7 +7691,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
         <v>42</v>
@@ -6734,7 +7734,7 @@
         <v>4</v>
       </c>
       <c r="O30" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -6765,7 +7765,7 @@
         <v>4</v>
       </c>
       <c r="O31" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -6859,10 +7859,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037159B-319A-4C42-A294-2B2489B57574}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6924,7 +7924,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -6937,12 +7937,12 @@
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3">
-        <f>I29</f>
-        <v>85</v>
+        <f>I32</f>
+        <v>91</v>
       </c>
       <c r="N2" s="3">
-        <f>J29</f>
-        <v>94</v>
+        <f>J32</f>
+        <v>99</v>
       </c>
       <c r="O2" s="3">
         <v>0</v>
@@ -6962,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -6975,12 +7975,12 @@
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3">
-        <f>I29-SUM(I2:I5)</f>
-        <v>78</v>
+        <f>I32-SUM(I2:I5)</f>
+        <v>84</v>
       </c>
       <c r="N3" s="3">
-        <f>J29-SUM(J2:J5)</f>
-        <v>79</v>
+        <f>J32-SUM(J2:J5)</f>
+        <v>84</v>
       </c>
       <c r="O3" s="3">
         <v>1</v>
@@ -7000,7 +8000,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -7014,11 +8014,11 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3">
         <f>M3-SUM(I6:I10)</f>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N4" s="3">
         <f>N3-SUM(J6:J10)</f>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O4" s="3">
         <v>2</v>
@@ -7038,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -7052,11 +8052,11 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3">
         <f>M4-SUM(I11:I14)</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N5" s="3">
         <f>N4-SUM(J11:J14)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="O5" s="3">
         <v>3</v>
@@ -7076,7 +8076,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -7090,11 +8090,11 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3">
         <f>M5-SUM(I15:I17)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N6" s="3">
         <f>N5-SUM(J15:J17)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O6" s="3">
         <v>4</v>
@@ -7114,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -7128,11 +8128,11 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3">
         <f>M6-SUM(I18:I24)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N7" s="3">
         <f>N6-SUM(J18:J24)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O7" s="3">
         <v>5</v>
@@ -7168,11 +8168,11 @@
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3">
-        <f>M7-SUM(I25:I28)</f>
+        <f>M7-SUM(I25:I31)</f>
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <f>N7-SUM(J25:J28)</f>
+        <f>N7-SUM(J25:J31)</f>
         <v>0</v>
       </c>
       <c r="O8" s="3">
@@ -7184,7 +8184,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -7283,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -7605,7 +8605,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -7636,7 +8636,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -7667,7 +8667,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -7676,14 +8676,14 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1"/>
       <c r="I24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" s="3">
         <v>5</v>
@@ -7697,7 +8697,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -7709,10 +8709,10 @@
         <v>39</v>
       </c>
       <c r="I25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="3">
         <v>6</v>
@@ -7739,10 +8739,10 @@
         <v>71</v>
       </c>
       <c r="I26" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J26" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K26" s="3">
         <v>6</v>
@@ -7769,10 +8769,10 @@
         <v>71</v>
       </c>
       <c r="I27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="3">
         <v>6</v>
@@ -7784,7 +8784,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -7807,15 +8807,93 @@
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
       <c r="I29" s="3">
-        <f>SUM(C2:C28)</f>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J29" s="3">
-        <f>SUM(D2:D28)</f>
-        <v>94</v>
-      </c>
-      <c r="K29" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I32" s="3">
+        <f>SUM(C2:C31)</f>
+        <v>91</v>
+      </c>
+      <c r="J32" s="3">
+        <f>SUM(D2:D31)</f>
+        <v>99</v>
+      </c>
+      <c r="K32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7826,20 +8904,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7884E-D22C-4C15-B48F-DDAEB03C83F5}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -7858,138 +8936,832 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
       </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
       <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3">
+        <f>I31</f>
+        <v>117</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <f>N2-SUM(I2:I6)</f>
+        <v>101</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <f>N3-SUM(I7:I12)</f>
+        <v>89</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <f>N4-SUM(I13:I17)</f>
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <f>N5-SUM(I18:I21)</f>
+        <v>64</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3">
+        <f>N6-SUM(I22:I26)</f>
+        <v>47</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+      <c r="N8" s="3">
+        <f>N7-SUM(I27:I29)</f>
+        <v>30</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
+        <f>N8-SUM(I30)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="3">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="3">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="3">
+        <v>30</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I31" s="3">
+        <f>SUM(C2:C30)</f>
+        <v>117</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C4868-DA68-4B79-A75F-C29998123D8F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="153">
   <si>
     <t>Play song</t>
   </si>
@@ -435,6 +435,54 @@
   </si>
   <si>
     <t>Types of Services</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>28.11.2017</t>
+  </si>
+  <si>
+    <t>29.11.2017</t>
+  </si>
+  <si>
+    <t>30.11.2017</t>
+  </si>
+  <si>
+    <t>1.12.2017</t>
+  </si>
+  <si>
+    <t>2.12.2017</t>
+  </si>
+  <si>
+    <t>3.12.2017</t>
+  </si>
+  <si>
+    <t>4.12.2017</t>
+  </si>
+  <si>
+    <t>5.12.2017</t>
+  </si>
+  <si>
+    <t>22.11.2017</t>
+  </si>
+  <si>
+    <t>23.11.2017</t>
+  </si>
+  <si>
+    <t>24.11.2017</t>
+  </si>
+  <si>
+    <t>25.11.2017</t>
+  </si>
+  <si>
+    <t>26.11.2017</t>
+  </si>
+  <si>
+    <t>27.11.2017</t>
+  </si>
+  <si>
+    <t>fix it!</t>
   </si>
 </sst>
 </file>
@@ -477,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -493,6 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Parasts" xfId="0" builtinId="0"/>
@@ -1445,7 +1494,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual</c:v>
+                  <c:v>Date</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1480,27 +1529,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1511,24 +1539,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1549,9 +1574,6 @@
               <c:f>'Sprint 2'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Estimate</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1586,25 +1608,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1802,37 +1821,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1853,11 +1842,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$N$1</c:f>
+              <c:f>'Sprint 3'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Estimate</c:v>
+                  <c:v>time-act.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1887,67 +1876,66 @@
             </c:spPr>
           </c:marker>
           <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 3'!$M$2:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>28.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.12.2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$P$2:$P$9</c:f>
+              <c:f>'Sprint 3'!$L$2:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 3'!$N$2:$N$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1955,7 +1943,85 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AA41-45F6-B695-FBBBE507A130}"/>
+              <c16:uniqueId val="{00000001-94FB-4B02-9CFA-0A220530D59C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 3'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time-est.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-94FB-4B02-9CFA-0A220530D59C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4391,16 +4457,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>503465</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>517072</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>48986</xdr:rowOff>
+      <xdr:rowOff>89807</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7859,10 +7925,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037159B-319A-4C42-A294-2B2489B57574}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:O8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7873,7 +7939,7 @@
     <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -7892,25 +7958,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="G1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>62</v>
+      <c r="M1" s="3"/>
+      <c r="N1" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7926,29 +7998,35 @@
       <c r="E2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
+      <c r="G2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3">
-        <f>I32</f>
-        <v>91</v>
-      </c>
-      <c r="N2" s="3">
-        <f>J32</f>
-        <v>99</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>90</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5">
+        <f>SUM(C2:C31)</f>
+        <v>90</v>
+      </c>
+      <c r="R2">
+        <v>90</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7964,29 +8042,36 @@
       <c r="E3" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
+      <c r="G3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3">
-        <f>I32-SUM(I2:I5)</f>
-        <v>84</v>
-      </c>
-      <c r="N3" s="3">
-        <f>J32-SUM(J2:J5)</f>
-        <v>84</v>
-      </c>
-      <c r="O3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M3" s="5">
+        <f>C2+C11+C14+C18+C19+C21+C27+C28+C29+C20</f>
+        <v>18</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5">
+        <v>72</v>
+      </c>
+      <c r="R3">
+        <f>R2+(D2+D11+D14+D18+D19+D21+D27+D28+D29+D20)-(C2+C11+C14+C18+C19+C21+C27+C28+C29+C20)-(C2+C11+C14+C18+C19+C21+C27+C28+C29+C20)</f>
+        <v>73</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8002,29 +8087,36 @@
       <c r="E4" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
+      <c r="G4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3">
-        <f>M3-SUM(I6:I10)</f>
-        <v>59</v>
-      </c>
-      <c r="N4" s="3">
-        <f>N3-SUM(J6:J10)</f>
+      <c r="M4" s="5">
+        <f>C3+C4+C7+C12+C15+C16+C17+C25+C30+C31</f>
+        <v>18</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5">
         <v>54</v>
       </c>
-      <c r="O4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f>R3+(D3+D4+D7+D12+D15+D16+D17+D25+D30+D31)-(C3+C4+C7+C12+C15+C16+C17+C25+C30+C31)-(C3+C4+C7+C12+C15+C16+C17+C25+C30+C31)</f>
+        <v>57</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -8040,29 +8132,32 @@
       <c r="E5" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="3">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>10</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
+      <c r="G5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3">
-        <f>M4-SUM(I11:I14)</f>
-        <v>42</v>
-      </c>
-      <c r="N5" s="3">
-        <f>N4-SUM(J11:J14)</f>
-        <v>37</v>
-      </c>
-      <c r="O5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M5" s="5">
+        <f>M4-C5+C5-D5-C6+C6-D6-C8+C8-D8-C13+C13-D13</f>
+        <v>2</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5">
+        <v>36</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8078,29 +8173,32 @@
       <c r="E6" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2</v>
-      </c>
+      <c r="G6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3">
-        <f>M5-SUM(I15:I17)</f>
-        <v>36</v>
-      </c>
-      <c r="N6" s="3">
-        <f>N5-SUM(J15:J17)</f>
-        <v>29</v>
-      </c>
-      <c r="O6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M6" s="5">
+        <f>M5-C9+C9-D9-C10+C10-D10-C22+C22-D22-C23+C23-D23-C24+C24-D24</f>
+        <v>-20</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5">
+        <v>18</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8116,29 +8214,32 @@
       <c r="E7" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2</v>
-      </c>
+      <c r="G7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3">
-        <f>M6-SUM(I18:I24)</f>
-        <v>20</v>
-      </c>
-      <c r="N7" s="3">
-        <f>N6-SUM(J18:J24)</f>
-        <v>17</v>
-      </c>
-      <c r="O7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M7" s="5">
+        <f>M6+C26-D26</f>
+        <v>-26</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8157,29 +8258,23 @@
       <c r="F8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="3">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2</v>
-      </c>
+      <c r="G8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="3">
-        <f>M7-SUM(I25:I31)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <f>N7-SUM(J25:J31)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8198,21 +8293,23 @@
       <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2</v>
-      </c>
+      <c r="G9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -8231,21 +8328,18 @@
       <c r="F10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="3">
-        <v>20</v>
-      </c>
-      <c r="J10" s="3">
-        <v>24</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2</v>
-      </c>
+      <c r="G10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -8264,21 +8358,19 @@
       <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="3">
-        <v>8</v>
-      </c>
-      <c r="J11" s="3">
-        <v>8</v>
-      </c>
-      <c r="K11" s="3">
-        <v>3</v>
-      </c>
+      <c r="G11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -8297,21 +8389,18 @@
       <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="3">
-        <v>2</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3">
-        <v>3</v>
-      </c>
+      <c r="G12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -8319,7 +8408,7 @@
         <v>34</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -8328,21 +8417,18 @@
         <v>40</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="I13" s="3">
-        <v>6</v>
-      </c>
-      <c r="J13" s="3">
-        <v>5</v>
-      </c>
-      <c r="K13" s="3">
-        <v>3</v>
-      </c>
+      <c r="G13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8358,21 +8444,19 @@
       <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3">
-        <v>3</v>
-      </c>
+      <c r="G14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8388,21 +8472,18 @@
       <c r="E15" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3">
-        <v>4</v>
-      </c>
+      <c r="G15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -8421,21 +8502,37 @@
       <c r="F16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="3">
-        <v>4</v>
-      </c>
-      <c r="J16" s="3">
-        <v>6</v>
-      </c>
-      <c r="K16" s="3">
-        <v>4</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -8454,21 +8551,37 @@
       <c r="F17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -8487,21 +8600,38 @@
       <c r="F18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G18" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -8520,21 +8650,38 @@
       <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3">
-        <v>5</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -8553,21 +8700,38 @@
       <c r="F20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="3">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -8586,21 +8750,38 @@
       <c r="F21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="3">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -8617,21 +8798,37 @@
         <v>38</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="I22" s="3">
-        <v>2</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -8648,21 +8845,37 @@
         <v>40</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="I23" s="3">
-        <v>2</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8670,29 +8883,46 @@
         <v>104</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
         <v>78</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -8708,21 +8938,37 @@
       <c r="E25" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="3">
-        <v>2</v>
-      </c>
-      <c r="J25" s="3">
-        <v>2</v>
-      </c>
-      <c r="K25" s="3">
-        <v>6</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -8730,7 +8976,7 @@
         <v>69</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>24</v>
@@ -8738,21 +8984,35 @@
       <c r="E26" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="3">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2</v>
-      </c>
-      <c r="K26" s="3">
-        <v>6</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G26" s="5"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -8768,18 +9028,38 @@
       <c r="E27" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="3">
-        <v>2</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2</v>
-      </c>
-      <c r="K27" s="3">
-        <v>6</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G27" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -8795,18 +9075,16 @@
       <c r="E28" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3">
-        <v>6</v>
-      </c>
+      <c r="G28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -8822,17 +9100,15 @@
       <c r="E29" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="3">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -8848,17 +9124,14 @@
       <c r="E30" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -8874,25 +9147,16 @@
       <c r="E31" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I32" s="3">
-        <f>SUM(C2:C31)</f>
-        <v>91</v>
-      </c>
-      <c r="J32" s="3">
-        <f>SUM(D2:D31)</f>
-        <v>99</v>
-      </c>
+      <c r="G31" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
   </sheetData>
@@ -8904,10 +9168,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7884E-D22C-4C15-B48F-DDAEB03C83F5}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8915,9 +9179,13 @@
     <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -8936,24 +9204,28 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8963,29 +9235,36 @@
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
       <c r="E2" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="3">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3">
-        <f>I31</f>
-        <v>117</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5">
+        <v>119</v>
+      </c>
+      <c r="L2" s="5">
+        <f>SUM(D2:D30)</f>
+        <v>126</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8995,29 +9274,38 @@
       <c r="C3">
         <v>5</v>
       </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
       <c r="E3" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="3">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3">
-        <f>N2-SUM(I2:I6)</f>
-        <v>101</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
+        <v>102</v>
+      </c>
+      <c r="L3" s="5">
+        <f>L2-D3-D14-D17-D23</f>
+        <v>111</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9027,29 +9315,38 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
       <c r="E4" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="3">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <f>N3-SUM(I7:I12)</f>
-        <v>89</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5">
+        <v>85</v>
+      </c>
+      <c r="L4" s="5">
+        <f>L3-D4-D7-D8-D19-D25</f>
+        <v>102</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9059,29 +9356,38 @@
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
       <c r="E5" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="3">
-        <v>4</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <f>N4-SUM(I13:I17)</f>
-        <v>74</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5">
+        <v>68</v>
+      </c>
+      <c r="L5" s="5">
+        <f>L4-D5-D9-D15-D20-D24</f>
+        <v>86</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9091,29 +9397,38 @@
       <c r="C6">
         <v>3</v>
       </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="3">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3">
-        <f>N5-SUM(I18:I21)</f>
-        <v>64</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
+        <v>51</v>
+      </c>
+      <c r="L6" s="5">
+        <f>L5-D6-D13-D18-D27-D30</f>
+        <v>63</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -9123,29 +9438,38 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
       <c r="E7" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3">
-        <v>2</v>
-      </c>
-      <c r="N7" s="3">
-        <f>N6-SUM(I22:I26)</f>
-        <v>47</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5">
+        <v>34</v>
+      </c>
+      <c r="L7" s="5">
+        <f>L6-D12-D21</f>
+        <v>56</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -9164,23 +9488,27 @@
       <c r="F8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3">
-        <v>2</v>
-      </c>
-      <c r="N8" s="3">
-        <f>N7-SUM(I27:I29)</f>
-        <v>30</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5">
+        <v>17</v>
+      </c>
+      <c r="L8" s="5">
+        <f>L7-D11-D22-D28</f>
+        <v>49</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -9190,28 +9518,36 @@
       <c r="C9">
         <v>2</v>
       </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
       <c r="E9" t="s">
         <v>78</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>2</v>
-      </c>
-      <c r="N9" s="3">
-        <f>N8-SUM(I30)</f>
+      <c r="G9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
         <v>0</v>
       </c>
-      <c r="P9" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L9" s="5">
+        <f>L8-D10-D26</f>
+        <v>41</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -9221,21 +9557,29 @@
       <c r="C10">
         <v>3</v>
       </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
       <c r="E10" t="s">
         <v>78</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="3">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -9245,21 +9589,29 @@
       <c r="C11">
         <v>2</v>
       </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="3">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -9269,21 +9621,29 @@
       <c r="C12">
         <v>3</v>
       </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
       <c r="E12" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -9293,21 +9653,29 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -9315,6 +9683,9 @@
         <v>128</v>
       </c>
       <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -9323,15 +9694,20 @@
       <c r="F14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="3">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -9341,21 +9717,26 @@
       <c r="C15">
         <v>5</v>
       </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
       <c r="E15" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="3">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -9363,7 +9744,10 @@
         <v>74</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4</v>
       </c>
       <c r="E16" t="s">
         <v>78</v>
@@ -9371,15 +9755,14 @@
       <c r="F16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -9389,18 +9772,23 @@
       <c r="C17">
         <v>3</v>
       </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="3">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -9410,18 +9798,23 @@
       <c r="C18">
         <v>3</v>
       </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
       <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="3">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -9431,18 +9824,23 @@
       <c r="C19">
         <v>2</v>
       </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
       <c r="E19" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -9452,18 +9850,23 @@
       <c r="C20">
         <v>2</v>
       </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
       <c r="E20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="3">
-        <v>2</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -9473,18 +9876,20 @@
       <c r="C21">
         <v>3</v>
       </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
       <c r="E21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="3">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -9494,18 +9899,20 @@
       <c r="C22">
         <v>2</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="E22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="3">
-        <v>2</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -9515,18 +9922,20 @@
       <c r="C23">
         <v>5</v>
       </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
       <c r="E23" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="3">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -9542,15 +9951,14 @@
       <c r="E24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="3">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -9566,15 +9974,14 @@
       <c r="E25" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="3">
-        <v>2</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -9590,15 +9997,14 @@
       <c r="E26" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="3">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -9608,18 +10014,20 @@
       <c r="C27">
         <v>4</v>
       </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
       <c r="E27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="3">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -9629,18 +10037,20 @@
       <c r="C28">
         <v>3</v>
       </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
       <c r="E28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="3">
-        <v>3</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -9650,18 +10060,20 @@
       <c r="C29">
         <v>30</v>
       </c>
+      <c r="D29" s="5">
+        <v>34</v>
+      </c>
       <c r="E29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="3">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -9671,24 +10083,61 @@
       <c r="C30">
         <v>10</v>
       </c>
+      <c r="D30">
+        <v>13</v>
+      </c>
       <c r="E30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I30" s="3">
-        <v>30</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I31" s="3">
-        <f>SUM(C2:C30)</f>
-        <v>117</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="G30" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="581" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="581" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="195">
   <si>
     <t>Play song</t>
   </si>
@@ -603,6 +603,12 @@
   </si>
   <si>
     <t>Report planning</t>
+  </si>
+  <si>
+    <t>Get 10 messages at a time</t>
+  </si>
+  <si>
+    <t>Joined chat between web/dedicated</t>
   </si>
 </sst>
 </file>
@@ -2390,7 +2396,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 4'!$C$22</c:f>
+              <c:f>'Sprint 4'!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2454,33 +2460,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$D$22:$L$22</c:f>
+              <c:f>'Sprint 4'!$D$24:$L$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.5</c:v>
+                  <c:v>92.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.5</c:v>
+                  <c:v>66.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.5</c:v>
+                  <c:v>39.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.5</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2500,7 +2506,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 4'!$C$23</c:f>
+              <c:f>'Sprint 4'!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2564,7 +2570,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$D$23:$L$23</c:f>
+              <c:f>'Sprint 4'!$D$25:$L$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10661,7 +10667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037159B-319A-4C42-A294-2B2489B57574}">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -12045,27 +12051,27 @@
         <v>155</v>
       </c>
       <c r="D33" s="4">
-        <f>SUM(D2:D31)</f>
+        <f t="shared" ref="D33:I33" si="1">SUM(D2:D31)</f>
         <v>90</v>
       </c>
       <c r="E33" s="4">
-        <f>SUM(E2:E31)</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="F33" s="4">
-        <f>SUM(F2:F31)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="G33" s="4">
-        <f>SUM(G2:G31)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="H33" s="4">
-        <f>SUM(H2:H31)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I33" s="4">
-        <f>SUM(I2:I31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12240,8 +12246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7884E-D22C-4C15-B48F-DDAEB03C83F5}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D62"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13620,31 +13626,31 @@
         <v>110</v>
       </c>
       <c r="E30" s="4">
-        <f>D30-($D$30/7)</f>
+        <f t="shared" ref="E30:K30" si="0">D30-($D$30/7)</f>
         <v>94.285714285714292</v>
       </c>
       <c r="F30" s="4">
-        <f>E30-($D$30/7)</f>
+        <f t="shared" si="0"/>
         <v>78.571428571428584</v>
       </c>
       <c r="G30" s="4">
-        <f>F30-($D$30/7)</f>
+        <f t="shared" si="0"/>
         <v>62.857142857142868</v>
       </c>
       <c r="H30" s="4">
-        <f>G30-($D$30/7)</f>
+        <f t="shared" si="0"/>
         <v>47.142857142857153</v>
       </c>
       <c r="I30" s="4">
-        <f>H30-($D$30/7)</f>
+        <f t="shared" si="0"/>
         <v>31.428571428571438</v>
       </c>
       <c r="J30" s="4">
-        <f>I30-($D$30/7)</f>
+        <f t="shared" si="0"/>
         <v>15.714285714285724</v>
       </c>
       <c r="K30" s="4">
-        <f>J30-($D$30/7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="4"/>
@@ -13664,31 +13670,31 @@
         <v>108</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" ref="E31:K31" si="0">SUM(E2:E29)</f>
+        <f t="shared" ref="E31:K31" si="1">SUM(E2:E29)</f>
         <v>107</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="L31" s="4"/>
@@ -13884,10 +13890,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C4868-DA68-4B79-A75F-C29998123D8F}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13899,6 +13905,7 @@
     <col min="9" max="9" width="11.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14248,86 +14255,108 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="4">
-        <f>SUM(C2:C21)</f>
-        <v>100</v>
-      </c>
-      <c r="E22" s="4">
-        <f>D22-($D$22/8)</f>
-        <v>87.5</v>
-      </c>
-      <c r="F22" s="4">
-        <f>E22-($D$22/8)</f>
-        <v>75</v>
-      </c>
-      <c r="G22" s="4">
-        <f>F22-($D$22/8)</f>
-        <v>62.5</v>
-      </c>
-      <c r="H22" s="4">
-        <f>G22-($D$22/8)</f>
-        <v>50</v>
-      </c>
-      <c r="I22" s="4">
-        <f>H22-($D$22/8)</f>
-        <v>37.5</v>
-      </c>
-      <c r="J22" s="4">
-        <f>I22-($D$22/8)</f>
-        <v>25</v>
-      </c>
-      <c r="K22" s="4">
-        <f>J22-($D$22/8)</f>
-        <v>12.5</v>
-      </c>
-      <c r="L22" s="4">
-        <f>K22-($D$22/8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="4" t="s">
+      <c r="D24" s="4">
+        <f>SUM(C2:C23)</f>
+        <v>106</v>
+      </c>
+      <c r="E24" s="4">
+        <f>D24-($D$24/8)</f>
+        <v>92.75</v>
+      </c>
+      <c r="F24" s="4">
+        <f>E24-($D$24/8)</f>
+        <v>79.5</v>
+      </c>
+      <c r="G24" s="4">
+        <f>F24-($D$24/8)</f>
+        <v>66.25</v>
+      </c>
+      <c r="H24" s="4">
+        <f>G24-($D$24/8)</f>
+        <v>53</v>
+      </c>
+      <c r="I24" s="4">
+        <f>H24-($D$24/8)</f>
+        <v>39.75</v>
+      </c>
+      <c r="J24" s="4">
+        <f>I24-($D$24/8)</f>
+        <v>26.5</v>
+      </c>
+      <c r="K24" s="4">
+        <f>J24-($D$24/8)</f>
+        <v>13.25</v>
+      </c>
+      <c r="L24" s="4">
+        <f>K24-($D$24/8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="4">
-        <f>SUM(D2:D21)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <f>SUM(E2:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <f>SUM(F2:F21)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <f>SUM(G2:G21)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <f>SUM(H2:H21)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <f>SUM(I2:I21)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <f>SUM(J2:J21)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <f>SUM(K2:K21)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="4">
-        <f>SUM(L2:L21)</f>
+      <c r="D25" s="4">
+        <f>SUM(D2:D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" ref="E25:L25" si="0">SUM(E2:E23)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -667,7 +667,7 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -685,7 +685,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -932,7 +932,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -976,7 +976,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -1017,7 +1017,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1057,7 +1057,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1071,7 +1071,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1414,7 +1414,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -1458,7 +1458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -1499,7 +1499,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1539,7 +1539,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1553,7 +1553,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1800,7 +1800,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -1844,7 +1844,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -1885,7 +1885,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1925,7 +1925,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1939,7 +1939,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2210,7 +2210,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -2279,7 +2279,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -2320,7 +2320,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2360,7 +2360,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2374,7 +2374,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2657,7 +2657,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -2726,7 +2726,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -2767,7 +2767,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2807,7 +2807,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5974,6 +5974,92 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{78447A4E-CDB3-45EE-91A3-4EA22F56CF94}" name="Table2" displayName="Table2" ref="A1:J21" totalsRowShown="0">
+  <autoFilter ref="A1:J21" xr:uid="{C94A59BC-04BB-4AF5-9E59-80489801E0B2}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{03317E6F-5E64-493A-8CF3-61F18B436878}" name="Priority"/>
+    <tableColumn id="2" xr3:uid="{98825976-954F-479D-8108-396FEA9CA78A}" name="Work"/>
+    <tableColumn id="3" xr3:uid="{17ECD59D-0031-4A1B-B29F-E0E0CFB6C093}" name="time-est."/>
+    <tableColumn id="4" xr3:uid="{ADF84FA0-4D7F-4111-8508-929E463CAE1B}" name="25.10.2017"/>
+    <tableColumn id="5" xr3:uid="{BA314F50-6242-4633-9060-7BA63BF5F30E}" name="26.10.2017"/>
+    <tableColumn id="6" xr3:uid="{8AB26860-FC22-4A20-BE25-981489E8D4AA}" name="27.10.2017"/>
+    <tableColumn id="7" xr3:uid="{78B906B5-4501-4375-A5F0-A8019DA52149}" name="31.10.2017"/>
+    <tableColumn id="8" xr3:uid="{5F101E0C-ABBD-4941-A078-4CFF0A6B631F}" name="3.11.2017"/>
+    <tableColumn id="9" xr3:uid="{04063FC7-24F4-417A-86E7-F3960DB84B71}" name="6.11.2017"/>
+    <tableColumn id="10" xr3:uid="{FD179364-17E0-4BE6-A1D6-B849331A4B2C}" name="Person"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3FF0DD1C-4E49-4E7F-92CA-CB567AA3CB8E}" name="Table3" displayName="Table3" ref="A1:R33" totalsRowShown="0">
+  <autoFilter ref="A1:R33" xr:uid="{A001DDB7-4D03-41B6-A7CC-449892123C18}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{630B2E25-8E62-4D5D-AC40-3F67A507481F}" name="Priority"/>
+    <tableColumn id="2" xr3:uid="{E464CF59-1F40-432D-805D-D490D95510DD}" name="Work"/>
+    <tableColumn id="3" xr3:uid="{4B44EF22-B40A-44E1-9DA3-DE04BD21156E}" name="time-est."/>
+    <tableColumn id="4" xr3:uid="{60BB57D2-D349-441D-82A7-E0981FE04683}" name="8.11.2017"/>
+    <tableColumn id="5" xr3:uid="{3D5C7D68-C2F5-4A6A-971D-2E85D65F9867}" name="9.11.2017"/>
+    <tableColumn id="6" xr3:uid="{FE2C541D-8359-45A3-9CCF-5753C8A87EEF}" name="10.11.2017"/>
+    <tableColumn id="7" xr3:uid="{5FC0FACB-14F9-4A58-A454-5C2D470B83D3}" name="11.11.2017"/>
+    <tableColumn id="8" xr3:uid="{1C2025F8-27E6-44B2-A26A-6266F504CB1A}" name="12.11.2017"/>
+    <tableColumn id="9" xr3:uid="{A7FB4B68-F13B-4515-96CB-5F810B5B5ECB}" name="13.11.2017"/>
+    <tableColumn id="10" xr3:uid="{B64F9B56-D82D-4842-8B5F-74BE82D4E7F1}" name="14.11.2017"/>
+    <tableColumn id="11" xr3:uid="{B16195A0-E19D-4539-90AB-FCFFBAD25B0A}" name="15.11.2017"/>
+    <tableColumn id="12" xr3:uid="{1D17ECC7-1F51-4411-BBE6-D0AD1B5CF65B}" name="16.11.2017"/>
+    <tableColumn id="13" xr3:uid="{29DF574E-AF6C-46F5-8D08-458681778AC6}" name="17.11.2017"/>
+    <tableColumn id="14" xr3:uid="{4800A496-3370-40FF-AEC6-4A134FD11701}" name="18.11.2017"/>
+    <tableColumn id="15" xr3:uid="{AF3D249D-BE14-49A9-836B-2D4B8A084691}" name="19.11.2017"/>
+    <tableColumn id="16" xr3:uid="{9D2BF2D6-4506-449A-AE26-EEF5B2CE6306}" name="20.11.2017"/>
+    <tableColumn id="17" xr3:uid="{708A7FB6-A228-462A-80A8-01629604BBC5}" name="21.11.2017"/>
+    <tableColumn id="18" xr3:uid="{7E7DE8B1-6FE9-4C69-99B7-6A0BEEA23054}" name="Person"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6040D3C7-704D-4B34-9CD1-FCC83E772A66}" name="Table4" displayName="Table4" ref="A1:J31" totalsRowShown="0">
+  <autoFilter ref="A1:J31" xr:uid="{ACD998EF-9F68-4272-9D9B-C9575E3BBCF2}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{DB80EF25-AB96-4C8A-947A-9698EAA200D0}" name="Priority"/>
+    <tableColumn id="2" xr3:uid="{3A78EDAA-6898-4E45-8503-D686A2CE064F}" name="Work"/>
+    <tableColumn id="3" xr3:uid="{6D5E5F6C-9FAA-4FF3-AE1A-9AB2E5D93FFF}" name="time-est."/>
+    <tableColumn id="4" xr3:uid="{624AEDA0-C87E-466A-B79B-F052A960261C}" name="22.11.2017"/>
+    <tableColumn id="5" xr3:uid="{B8A2D6E7-BE4C-4402-B763-2492709AFA03}" name="23.11.2017"/>
+    <tableColumn id="6" xr3:uid="{F1719CD4-79DC-4FD8-9BF3-2A3BB701D0A1}" name="24.11.2017"/>
+    <tableColumn id="7" xr3:uid="{635529AE-16E7-4138-AE9E-73C1ECC43B46}" name="25.11.2017"/>
+    <tableColumn id="8" xr3:uid="{38C25D8D-9330-4741-A988-74ACB936E276}" name="26.11.2017"/>
+    <tableColumn id="9" xr3:uid="{D85D4688-5066-4445-8F81-75B3F83892E8}" name="27.11.2017"/>
+    <tableColumn id="10" xr3:uid="{4461199D-5506-46DE-8D4D-8B8CFDE54FC3}" name="Person"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{485FC9A2-2ECA-4867-B849-A896468FE32C}" name="Table1" displayName="Table1" ref="A1:L29" totalsRowShown="0">
+  <autoFilter ref="A1:L29" xr:uid="{2C3F92BE-8B09-468B-934C-DB92BECE08EA}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{9880F961-2E97-46DB-8F7D-08DD7C0BF047}" name="Priority"/>
+    <tableColumn id="2" xr3:uid="{FED33286-50D6-44CD-BC0A-6D6E4CCBA7B7}" name="Work"/>
+    <tableColumn id="3" xr3:uid="{638EF93A-44EE-40EB-BB12-4EDCBA47B63F}" name="time-est."/>
+    <tableColumn id="4" xr3:uid="{0E38524A-6FEC-46D6-A81B-5FD52AA91222}" name="28.11.2017"/>
+    <tableColumn id="5" xr3:uid="{9A84DAA7-1B55-4406-AFE2-BC5EBB40F2B6}" name="29.11.2017"/>
+    <tableColumn id="6" xr3:uid="{8E2EA95B-3C25-4733-BAFC-214CD135B888}" name="30.11.2017"/>
+    <tableColumn id="7" xr3:uid="{52452300-D7CD-433B-9646-BF6B754E30E5}" name="1.12.2017"/>
+    <tableColumn id="8" xr3:uid="{0C2C69C9-0839-458B-BB2B-FBF9EB9EEC73}" name="2.12.2017"/>
+    <tableColumn id="9" xr3:uid="{DD6E818E-6444-40CF-98CB-1A3CE46971D6}" name="3.12.2017"/>
+    <tableColumn id="10" xr3:uid="{DB5CE761-C263-44FE-944D-42EEA0D414F5}" name="4.12.2017"/>
+    <tableColumn id="11" xr3:uid="{D12129C4-1D29-4D8A-857F-9EFDCD56F08B}" name="5.12.2017"/>
+    <tableColumn id="12" xr3:uid="{A8FC9E0B-9761-42A6-8218-479E5D4A44F3}" name="Person"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7268,19 +7354,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416D8BE7-F174-4DE6-8BD7-669440759E00}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D46"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="4" customWidth="1"/>
+    <col min="4" max="6" width="15.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="4" customWidth="1"/>
+    <col min="8" max="9" width="13.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8183,6 +8269,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -8190,17 +8279,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView topLeftCell="I22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D70"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R33" sqref="A1:R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="4" customWidth="1"/>
+    <col min="5" max="15" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="4" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -10660,6 +10752,9 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -10668,14 +10763,15 @@
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection sqref="A1:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="11.140625" style="4" customWidth="1"/>
+    <col min="4" max="9" width="15.28515625" style="4" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -12239,6 +12335,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -12247,16 +12346,17 @@
   <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.28515625" style="4" customWidth="1"/>
+    <col min="7" max="10" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="4" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -13885,6 +13985,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -13892,7 +13995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C4868-DA68-4B79-A75F-C29998123D8F}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -14286,35 +14389,35 @@
         <v>106</v>
       </c>
       <c r="E24" s="4">
-        <f>D24-($D$24/8)</f>
+        <f t="shared" ref="E24:L24" si="0">D24-($D$24/8)</f>
         <v>92.75</v>
       </c>
       <c r="F24" s="4">
-        <f>E24-($D$24/8)</f>
+        <f t="shared" si="0"/>
         <v>79.5</v>
       </c>
       <c r="G24" s="4">
-        <f>F24-($D$24/8)</f>
+        <f t="shared" si="0"/>
         <v>66.25</v>
       </c>
       <c r="H24" s="4">
-        <f>G24-($D$24/8)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="I24" s="4">
-        <f>H24-($D$24/8)</f>
+        <f t="shared" si="0"/>
         <v>39.75</v>
       </c>
       <c r="J24" s="4">
-        <f>I24-($D$24/8)</f>
+        <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
       <c r="K24" s="4">
-        <f>J24-($D$24/8)</f>
+        <f t="shared" si="0"/>
         <v>13.25</v>
       </c>
       <c r="L24" s="4">
-        <f>K24-($D$24/8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14328,35 +14431,35 @@
         <v>0</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" ref="E25:L25" si="0">SUM(E2:E23)</f>
+        <f t="shared" ref="E25:L25" si="1">SUM(E2:E23)</f>
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -667,7 +667,7 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -685,7 +685,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="lv-LV"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -932,7 +932,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lv-LV"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -976,7 +976,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lv-LV"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -1017,7 +1017,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lv-LV"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1057,7 +1057,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lv-LV"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1071,7 +1071,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="lv-LV"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1414,7 +1414,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lv-LV"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -1458,7 +1458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lv-LV"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -1499,7 +1499,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lv-LV"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1539,7 +1539,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lv-LV"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1553,7 +1553,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="lv-LV"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1800,7 +1800,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lv-LV"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -1844,7 +1844,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lv-LV"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -1885,7 +1885,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lv-LV"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1925,7 +1925,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lv-LV"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1939,7 +1939,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="lv-LV"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2210,7 +2210,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lv-LV"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -2279,7 +2279,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lv-LV"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -2320,7 +2320,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lv-LV"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2360,7 +2360,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lv-LV"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2374,7 +2374,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="lv-LV"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2465,28 +2465,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>106</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.75</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.5</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.25</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.75</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.25</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2575,28 +2575,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2657,7 +2657,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lv-LV"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -2726,7 +2726,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lv-LV"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -2767,7 +2767,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lv-LV"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2807,7 +2807,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lv-LV"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7355,7 +7355,7 @@
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:J21"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12346,7 +12346,7 @@
   <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13995,8 +13995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C4868-DA68-4B79-A75F-C29998123D8F}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14069,6 +14069,33 @@
       <c r="C2">
         <v>6</v>
       </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
       <c r="M2" s="4" t="s">
         <v>37</v>
       </c>
@@ -14083,6 +14110,33 @@
       <c r="C3">
         <v>8</v>
       </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
       <c r="M3" s="4" t="s">
         <v>37</v>
       </c>
@@ -14096,6 +14150,33 @@
       </c>
       <c r="C4">
         <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>37</v>
@@ -14220,7 +14301,34 @@
         <v>140</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>39</v>
@@ -14270,6 +14378,33 @@
       <c r="C15">
         <v>4</v>
       </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
       <c r="M15" s="4" t="s">
         <v>70</v>
       </c>
@@ -14284,6 +14419,33 @@
       <c r="C16">
         <v>3</v>
       </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
       <c r="M16" s="4" t="s">
         <v>70</v>
       </c>
@@ -14297,6 +14459,33 @@
       </c>
       <c r="C17">
         <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>70</v>
@@ -14385,36 +14574,36 @@
         <v>154</v>
       </c>
       <c r="D24" s="4">
-        <f>SUM(C2:C23)</f>
-        <v>106</v>
+        <f>SUM(C2:C21)</f>
+        <v>104</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" ref="E24:L24" si="0">D24-($D$24/8)</f>
-        <v>92.75</v>
+        <v>91</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="0"/>
-        <v>79.5</v>
+        <v>78</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="0"/>
-        <v>66.25</v>
+        <v>65</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="0"/>
-        <v>39.75</v>
+        <v>39</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="0"/>
-        <v>13.25</v>
+        <v>13</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="0"/>
@@ -14428,35 +14617,35 @@
       </c>
       <c r="D25" s="4">
         <f>SUM(D2:D23)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" ref="E25:L25" si="1">SUM(E2:E23)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="1"/>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="581" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="194">
   <si>
     <t>Play song</t>
   </si>
@@ -455,9 +455,6 @@
     <t>Finalize MVC</t>
   </si>
   <si>
-    <t>Use activity class</t>
-  </si>
-  <si>
     <t>3 layer UI</t>
   </si>
   <si>
@@ -605,10 +602,10 @@
     <t>Report planning</t>
   </si>
   <si>
-    <t>Get 10 messages at a time</t>
-  </si>
-  <si>
-    <t>Joined chat between web/dedicated</t>
+    <t>use activity model layer class</t>
+  </si>
+  <si>
+    <t>make chat work on web client</t>
   </si>
 </sst>
 </file>
@@ -667,9 +664,13 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -685,7 +686,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -932,7 +933,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -976,7 +977,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -1017,7 +1018,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1057,7 +1058,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1071,7 +1072,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1414,7 +1415,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -1458,7 +1459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -1499,7 +1500,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1539,7 +1540,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1553,7 +1554,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1800,7 +1801,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -1844,7 +1845,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -1885,7 +1886,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1925,7 +1926,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1939,7 +1940,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2210,7 +2211,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -2279,7 +2280,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -2320,7 +2321,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2360,7 +2361,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2374,7 +2375,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2396,7 +2397,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 4'!$C$24</c:f>
+              <c:f>'Sprint 4'!$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2460,33 +2461,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$D$24:$L$24</c:f>
+              <c:f>'Sprint 4'!$D$20:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>104</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>75.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>53.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>32.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>10.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2506,7 +2507,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 4'!$C$25</c:f>
+              <c:f>'Sprint 4'!$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2570,36 +2571,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$D$25:$L$25</c:f>
+              <c:f>'Sprint 4'!$D$21:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,7 +2658,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -2726,7 +2727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -2767,7 +2768,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2807,7 +2808,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5946,7 +5947,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>309283</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>105895</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6057,6 +6058,28 @@
     <tableColumn id="10" xr3:uid="{DB5CE761-C263-44FE-944D-42EEA0D414F5}" name="4.12.2017"/>
     <tableColumn id="11" xr3:uid="{D12129C4-1D29-4D8A-857F-9EFDCD56F08B}" name="5.12.2017"/>
     <tableColumn id="12" xr3:uid="{A8FC9E0B-9761-42A6-8218-479E5D4A44F3}" name="Person"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{56EFC4CC-6B74-435D-9EE6-672AC3CDB8E2}" name="Table5" displayName="Table5" ref="A1:M21" totalsRowShown="0">
+  <autoFilter ref="A1:M21" xr:uid="{A9B36008-0599-4B21-9487-47570048E032}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{3EB796AE-6DE3-4798-AEDF-3C159AF24503}" name="Priority"/>
+    <tableColumn id="2" xr3:uid="{0F0A46F8-9675-410C-AE42-D74AA953495F}" name="Work" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{4AAFD8DC-DFB9-4A24-9BB5-A4D8563D8FC9}" name="time-est."/>
+    <tableColumn id="4" xr3:uid="{20DCFB3B-4196-491A-9429-607E4FBD4F0E}" name="5.12.2017"/>
+    <tableColumn id="5" xr3:uid="{6647B708-4D0B-4311-9F92-A54971A06EA0}" name="6.12.2017"/>
+    <tableColumn id="6" xr3:uid="{314780B3-6E9C-433D-97D3-ECB3CFBE17C1}" name="7.12.2017"/>
+    <tableColumn id="7" xr3:uid="{4EBB61FE-45C0-47EE-8A94-46E8FDD07645}" name="8.12.2017"/>
+    <tableColumn id="8" xr3:uid="{D71B7355-3E8B-4872-8511-01775CA6C4AC}" name="9.12.2017"/>
+    <tableColumn id="9" xr3:uid="{04804060-11E2-4A2C-9AE7-AFC508B1C4EF}" name="10.12.2017"/>
+    <tableColumn id="10" xr3:uid="{71B0E385-F9F6-4F21-BE83-908CF62A254C}" name="11.12.2017"/>
+    <tableColumn id="11" xr3:uid="{69288287-C6F8-456D-B62F-3F1305553762}" name="12.12.2017"/>
+    <tableColumn id="12" xr3:uid="{797DCDDA-8E62-4483-A331-871C8048855A}" name="13.12.2017"/>
+    <tableColumn id="13" xr3:uid="{BD9585ED-78ED-4D1F-BCC1-B8F94AF9E151}" name="Person"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6413,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -6441,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8">
         <v>80</v>
@@ -7029,7 +7052,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -7381,22 +7404,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -7530,7 +7553,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -7708,7 +7731,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -8095,7 +8118,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D22" s="4">
         <f>SUM(C2:C21)</f>
@@ -8124,7 +8147,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D23" s="4">
         <f>SUM(D2:D21)</f>
@@ -8279,8 +8302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R33" sqref="A1:R33"/>
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8309,46 +8332,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="R1" t="s">
         <v>3</v>
@@ -10449,7 +10472,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D34" s="4">
         <f>SUM(C2:C33)</f>
@@ -10517,7 +10540,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D35" s="4">
         <f>SUM(D2:D33)</f>
@@ -12045,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C30">
         <v>18</v>
@@ -12112,7 +12135,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" s="4">
         <f>SUM(C2:C31)</f>
@@ -12144,7 +12167,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ref="D33:I33" si="1">SUM(D2:D31)</f>
@@ -13388,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -13511,7 +13534,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -13719,7 +13742,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D30" s="4">
         <f>SUM(C2:C29)</f>
@@ -13763,7 +13786,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D31" s="4">
         <f>SUM(D2:D29)</f>
@@ -13993,22 +14016,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C4868-DA68-4B79-A75F-C29998123D8F}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="4" customWidth="1"/>
+    <col min="11" max="12" width="15.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14026,28 +14053,28 @@
         <v>132</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>3</v>
@@ -14192,6 +14219,33 @@
       <c r="C5">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
       <c r="M5" s="4" t="s">
         <v>37</v>
       </c>
@@ -14201,11 +14255,38 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
       <c r="M6" s="4" t="s">
         <v>37</v>
       </c>
@@ -14215,12 +14296,38 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
       <c r="M7" s="4" t="s">
         <v>37</v>
       </c>
@@ -14230,10 +14337,37 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8">
         <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>38</v>
@@ -14247,11 +14381,38 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
       <c r="M9" s="4" t="s">
         <v>38</v>
       </c>
@@ -14264,11 +14425,38 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
       <c r="M10" s="4" t="s">
         <v>38</v>
       </c>
@@ -14286,6 +14474,33 @@
       <c r="C11">
         <v>3</v>
       </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
       <c r="M11" t="s">
         <v>39</v>
       </c>
@@ -14342,10 +14557,37 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13">
         <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>39</v>
@@ -14364,6 +14606,33 @@
       <c r="C14">
         <v>2</v>
       </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
       <c r="M14" s="4" t="s">
         <v>70</v>
       </c>
@@ -14373,7 +14642,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -14414,7 +14683,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -14455,7 +14724,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -14496,10 +14765,37 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18">
         <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>70</v>
@@ -14515,145 +14811,254 @@
       <c r="C19">
         <v>20</v>
       </c>
+      <c r="D19" s="4">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4">
+        <v>15</v>
+      </c>
+      <c r="G19" s="4">
+        <v>13</v>
+      </c>
+      <c r="H19" s="4">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4">
+        <v>7</v>
+      </c>
+      <c r="J19" s="4">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4">
+        <v>3</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
       <c r="M19" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="4">
+        <f>SUM(C2:C19)</f>
+        <v>86</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" ref="E20:L20" si="0">D20-($D$20/8)</f>
+        <v>75.25</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>64.5</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>53.75</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>32.25</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
+        <v>10.75</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ref="D21:L21" si="1">SUM(D2:D19)</f>
+        <v>87</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="M20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="4">
-        <f>SUM(C2:C21)</f>
-        <v>104</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" ref="E24:L24" si="0">D24-($D$24/8)</f>
-        <v>91</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="4">
-        <f>SUM(D2:D23)</f>
-        <v>37</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" ref="E25:L25" si="1">SUM(E2:E23)</f>
-        <v>35</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J25" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L25" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="193">
   <si>
     <t>Play song</t>
   </si>
@@ -398,9 +398,6 @@
     <t>Types of Services</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>28.11.2017</t>
   </si>
   <si>
@@ -455,9 +452,6 @@
     <t>Finalize MVC</t>
   </si>
   <si>
-    <t>Use activity class</t>
-  </si>
-  <si>
     <t>3 layer UI</t>
   </si>
   <si>
@@ -605,10 +599,10 @@
     <t>Report planning</t>
   </si>
   <si>
-    <t>Get 10 messages at a time</t>
-  </si>
-  <si>
-    <t>Joined chat between web/dedicated</t>
+    <t>use activity model layer class</t>
+  </si>
+  <si>
+    <t>make chat work on web client</t>
   </si>
 </sst>
 </file>
@@ -696,6 +690,92 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="85000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sprint 0 burndown chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="lv-LV" sz="1000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="85000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="lv-LV"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -905,1284 +985,60 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+                <a:endParaRPr lang="lv-LV"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
             <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="488277576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="488277576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="488277248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sprint 1'!$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Deal remaining time:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 1'!$D$1:$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>8.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.11.2017</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 1'!$D$34:$Q$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>108.92307692307692</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99.84615384615384</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90.769230769230759</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>81.692307692307679</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>72.615384615384599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63.538461538461519</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54.461538461538439</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45.384615384615358</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36.307692307692278</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.230769230769202</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.153846153846125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.0769230769230482</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.8421709430404007E-14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-12D1-42B6-8941-7E460E29082D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sprint 1'!$C$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual remianing time:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 1'!$D$1:$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>8.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.11.2017</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 1'!$D$35:$Q$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-12D1-42B6-8941-7E460E29082D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="488277248"/>
-        <c:axId val="488277576"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="488277248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="488277576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="488277576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="488277248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sprint 2'!$C$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Deal remaining time:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 2'!$D$1:$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>22.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27.11.2017</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 2'!$D$32:$I$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36.399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1136-47B5-A89B-1E1200FE1D34}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sprint 2'!$C$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual remianing time:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 2'!$D$1:$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>22.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27.11.2017</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 2'!$D$33:$I$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1136-47B5-A89B-1E1200FE1D34}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="488277248"/>
-        <c:axId val="488277576"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="488277248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="488277576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="488277576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="488277248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sprint 3'!$C$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Deal remaining time:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 3'!$D$1:$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>28.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.12.2017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.12.2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.12.2017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.12.2017</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.12.2017</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 3'!$D$30:$L$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>94.285714285714292</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>78.571428571428584</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62.857142857142868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.142857142857153</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31.428571428571438</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.714285714285724</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3D24-40FB-835A-40B0A9C7B3B5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sprint 3'!$C$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual remianing time:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 3'!$D$1:$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>28.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.11.2017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.12.2017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.12.2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.12.2017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.12.2017</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.12.2017</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 3'!$D$31:$L$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3D24-40FB-835A-40B0A9C7B3B5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="488277248"/>
-        <c:axId val="488277576"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="488277248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="lv-LV"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2252,6 +1108,92 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Estimated Time in hours</a:t>
+                </a:r>
+                <a:endParaRPr lang="lv-LV" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="lv-LV"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2294,36 +1236,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2371,7 +1283,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="lv-LV"/>
@@ -2385,6 +1297,64 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sprint 1 burndown chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="lv-LV" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="lv-LV"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2396,7 +1366,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 4'!$C$24</c:f>
+              <c:f>'Sprint 1'!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2425,70 +1395,100 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 4'!$D$1:$L$1</c:f>
+              <c:f>'Sprint 1'!$D$1:$Q$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.12.2017</c:v>
+                  <c:v>8.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.12.2017</c:v>
+                  <c:v>9.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.12.2017</c:v>
+                  <c:v>10.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.12.2017</c:v>
+                  <c:v>11.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.12.2017</c:v>
+                  <c:v>12.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.12.2017</c:v>
+                  <c:v>13.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.12.2017</c:v>
+                  <c:v>14.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.12.2017</c:v>
+                  <c:v>15.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.12.2017</c:v>
+                  <c:v>16.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.11.2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$D$24:$L$24</c:f>
+              <c:f>'Sprint 1'!$D$34:$Q$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>104</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>108.92307692307692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78</c:v>
+                  <c:v>99.84615384615384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>90.769230769230759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>81.692307692307679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>72.615384615384599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>63.538461538461519</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>54.461538461538439</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>45.384615384615358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.307692307692278</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.230769230769202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.153846153846125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0769230769230482</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2497,7 +1497,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1547-4FD4-9B8A-17F241C77C21}"/>
+              <c16:uniqueId val="{00000000-12D1-42B6-8941-7E460E29082D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2506,7 +1506,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 4'!$C$25</c:f>
+              <c:f>'Sprint 1'!$C$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2535,70 +1535,100 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 4'!$D$1:$L$1</c:f>
+              <c:f>'Sprint 1'!$D$1:$Q$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.12.2017</c:v>
+                  <c:v>8.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.12.2017</c:v>
+                  <c:v>9.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.12.2017</c:v>
+                  <c:v>10.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.12.2017</c:v>
+                  <c:v>11.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.12.2017</c:v>
+                  <c:v>12.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.12.2017</c:v>
+                  <c:v>13.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.12.2017</c:v>
+                  <c:v>14.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.12.2017</c:v>
+                  <c:v>15.11.2017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.12.2017</c:v>
+                  <c:v>16.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.11.2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$D$25:$L$25</c:f>
+              <c:f>'Sprint 1'!$D$35:$Q$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2607,7 +1637,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1547-4FD4-9B8A-17F241C77C21}"/>
+              <c16:uniqueId val="{00000001-12D1-42B6-8941-7E460E29082D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2630,6 +1660,60 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+                <a:endParaRPr lang="lv-LV"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="lv-LV"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2699,6 +1783,92 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Estimated Time in hours</a:t>
+                </a:r>
+                <a:endParaRPr lang="lv-LV" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="lv-LV"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2741,8 +1911,676 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="lv-LV"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="lv-LV"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="85000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sprint 2 burndown chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="lv-LV" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="85000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="lv-LV"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deal remaining time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 2'!$D$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.11.2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$D$32:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1136-47B5-A89B-1E1200FE1D34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual remianing time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 2'!$D$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.11.2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$D$33:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1136-47B5-A89B-1E1200FE1D34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="488277248"/>
+        <c:axId val="488277576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="488277248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+                <a:endParaRPr lang="lv-LV"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="lv-LV"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488277576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="488277576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Estimated Time in hours</a:t>
+                </a:r>
+                <a:endParaRPr lang="lv-LV" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="lv-LV"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488277248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="lv-LV"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="lv-LV"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 3 burndown chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2756,10 +2594,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2770,7 +2608,1046 @@
           <a:endParaRPr lang="lv-LV"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 3'!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deal remaining time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 3'!$D$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>28.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.12.2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$D$30:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.571428571428584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.857142857142868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.142857142857153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.428571428571438</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.714285714285724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5861-48DC-8334-7DBFB6CB1FC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 3'!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual remianing time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 3'!$D$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>28.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.11.2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.12.2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$D$31:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5861-48DC-8334-7DBFB6CB1FC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="488277248"/>
+        <c:axId val="488277576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="488277248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+                <a:endParaRPr lang="lv-LV"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="lv-LV"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488277576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="488277576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000"/>
+                  <a:t>Estimated Time in hours</a:t>
+                </a:r>
+                <a:endParaRPr lang="lv-LV" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="lv-LV"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488277248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="lv-LV"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="lv-LV"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 4 burndown chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="lv-LV"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 4'!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deal remaining time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 4'!$D$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.12.2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$D$20:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1547-4FD4-9B8A-17F241C77C21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 4'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual remianing time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 4'!$D$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.12.2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.12.2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$D$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1547-4FD4-9B8A-17F241C77C21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="488277248"/>
+        <c:axId val="488277576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="488277248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Day</a:t>
+                </a:r>
+                <a:endParaRPr lang="lv-LV" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="lv-LV"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488277576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="488277576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000"/>
+                  <a:t>Estimated Time in hours</a:t>
+                </a:r>
+                <a:endParaRPr lang="lv-LV" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="lv-LV"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="lv-LV"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488277248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5767,16 +6644,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>367393</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>185058</xdr:rowOff>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5852,15 +6729,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>449035</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>62593</xdr:rowOff>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5894,23 +6771,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>535162</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>103014</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramma 1">
+        <xdr:cNvPr id="3" name="Diagramma 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF380613-FA7D-48FD-B91D-BB9E3FBD5B40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325D31B8-C0A1-470B-BDB5-D8CBAA387ECF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5937,16 +6814,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>128307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>309283</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>105895</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6413,7 +7290,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -6441,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8">
         <v>80</v>
@@ -7029,7 +7906,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -7354,8 +8231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416D8BE7-F174-4DE6-8BD7-669440759E00}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7381,22 +8258,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -7530,7 +8407,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -7708,7 +8585,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -8095,7 +8972,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D22" s="4">
         <f>SUM(C2:C21)</f>
@@ -8124,7 +9001,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D23" s="4">
         <f>SUM(D2:D21)</f>
@@ -8279,8 +9156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R33" sqref="A1:R33"/>
+    <sheetView topLeftCell="K8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8309,46 +9186,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="R1" t="s">
         <v>3</v>
@@ -10449,7 +11326,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D34" s="4">
         <f>SUM(C2:C33)</f>
@@ -10460,7 +11337,7 @@
         <v>108.92307692307692</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" ref="F34:Q34" si="0">E34-($D$34/13)</f>
+        <f t="shared" ref="F34:P34" si="0">E34-($D$34/13)</f>
         <v>99.84615384615384</v>
       </c>
       <c r="G34" s="4">
@@ -10504,8 +11381,8 @@
         <v>9.0769230769230482</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" si="0"/>
-        <v>-2.8421709430404007E-14</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
@@ -10517,7 +11394,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D35" s="4">
         <f>SUM(D2:D33)</f>
@@ -10762,8 +11639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037159B-319A-4C42-A294-2B2489B57574}">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:J31"/>
+    <sheetView topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10787,22 +11664,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -12045,7 +12922,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C30">
         <v>18</v>
@@ -12112,7 +12989,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D32" s="4">
         <f>SUM(C2:C31)</f>
@@ -12144,7 +13021,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ref="D33:I33" si="1">SUM(D2:D31)</f>
@@ -12345,8 +13222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7884E-D22C-4C15-B48F-DDAEB03C83F5}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12375,28 +13252,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
@@ -13388,7 +14265,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -13511,7 +14388,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -13719,7 +14596,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D30" s="4">
         <f>SUM(C2:C29)</f>
@@ -13763,7 +14640,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D31" s="4">
         <f>SUM(D2:D29)</f>
@@ -13993,10 +14870,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C4868-DA68-4B79-A75F-C29998123D8F}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14012,7 +14889,7 @@
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -14023,31 +14900,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>3</v>
@@ -14055,11 +14932,8 @@
       <c r="N1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14100,7 +14974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14141,7 +15015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -14182,7 +15056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -14192,48 +15066,155 @@
       <c r="C5">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
       <c r="M5" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
       <c r="M6" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
       <c r="M7" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8">
         <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>38</v>
@@ -14242,16 +15223,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
       <c r="M9" s="4" t="s">
         <v>38</v>
       </c>
@@ -14259,16 +15267,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
       <c r="M10" s="4" t="s">
         <v>38</v>
       </c>
@@ -14276,15 +15311,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11">
         <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
       </c>
       <c r="M11" t="s">
         <v>39</v>
@@ -14293,12 +15355,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -14337,15 +15399,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13">
         <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>39</v>
@@ -14354,26 +15443,53 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14">
         <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -14409,12 +15525,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -14455,7 +15571,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -14496,10 +15612,37 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C18">
         <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>70</v>
@@ -14510,147 +15653,253 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
+      <c r="D19" s="4">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4">
+        <v>15</v>
+      </c>
+      <c r="G19" s="4">
+        <v>13</v>
+      </c>
+      <c r="H19" s="4">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4">
+        <v>7</v>
+      </c>
+      <c r="J19" s="4">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4">
+        <v>3</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
       <c r="M19" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="C20" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="4">
+        <f>SUM(C2:C19)</f>
+        <v>86</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" ref="E20:L20" si="0">D20-($D$20/8)</f>
+        <v>75.25</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>64.5</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>53.75</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>32.25</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
+        <v>10.75</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C22" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="4">
-        <f>SUM(C2:C21)</f>
-        <v>104</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" ref="E24:L24" si="0">D24-($D$24/8)</f>
-        <v>91</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ref="D21:L21" si="1">SUM(D2:D19)</f>
+        <v>87</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="4">
-        <f>SUM(D2:D23)</f>
-        <v>37</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" ref="E25:L25" si="1">SUM(E2:E23)</f>
-        <v>35</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J25" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L25" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B25" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="581" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="210">
   <si>
     <t>Play song</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Show newest chat info</t>
   </si>
   <si>
-    <t>burn down chart</t>
-  </si>
-  <si>
     <t>Andrei</t>
   </si>
   <si>
@@ -221,21 +218,12 @@
     <t>Multiplayer game</t>
   </si>
   <si>
-    <t>Spreading tasks</t>
-  </si>
-  <si>
-    <t>All of us together</t>
-  </si>
-  <si>
     <t>Updating end expanding existing UI</t>
   </si>
   <si>
     <t>WCF hosting</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>Stoycho</t>
   </si>
   <si>
@@ -284,9 +272,6 @@
     <t>Create report structure</t>
   </si>
   <si>
-    <t>Read about chats</t>
-  </si>
-  <si>
     <t>Decide on development method</t>
   </si>
   <si>
@@ -320,9 +305,6 @@
     <t>Spike on WCF</t>
   </si>
   <si>
-    <t xml:space="preserve">Spike on different communication protocols </t>
-  </si>
-  <si>
     <t>Spike on email sending</t>
   </si>
   <si>
@@ -389,9 +371,6 @@
     <t>test/optimize code</t>
   </si>
   <si>
-    <t>MVC application</t>
-  </si>
-  <si>
     <t>Quality Assurance</t>
   </si>
   <si>
@@ -449,9 +428,6 @@
     <t>Release product</t>
   </si>
   <si>
-    <t>Finalize MVC</t>
-  </si>
-  <si>
     <t>3 layer UI</t>
   </si>
   <si>
@@ -584,9 +560,6 @@
     <t>Chat users updated if info changed</t>
   </si>
   <si>
-    <t>Distribute use cases</t>
-  </si>
-  <si>
     <t>Database trigger tests</t>
   </si>
   <si>
@@ -603,6 +576,84 @@
   </si>
   <si>
     <t>make chat work on web client</t>
+  </si>
+  <si>
+    <t>Create Mock up</t>
+  </si>
+  <si>
+    <t>Create project becklog</t>
+  </si>
+  <si>
+    <t>Create baclog for sprint 1</t>
+  </si>
+  <si>
+    <t>Read about chats (how to make)</t>
+  </si>
+  <si>
+    <t>Database model 1st. Version</t>
+  </si>
+  <si>
+    <t>Domain model 1st. Version</t>
+  </si>
+  <si>
+    <t>Update problem statement</t>
+  </si>
+  <si>
+    <t>Update domain model (add song and playlist)</t>
+  </si>
+  <si>
+    <t>Update database (add song and playlist)</t>
+  </si>
+  <si>
+    <t>Update database diagram</t>
+  </si>
+  <si>
+    <t>Update database diagram (add song and playlist)</t>
+  </si>
+  <si>
+    <t>Finish Domain model (Optimize profile)</t>
+  </si>
+  <si>
+    <t>Fix and create more tests</t>
+  </si>
+  <si>
+    <t>Add group member</t>
+  </si>
+  <si>
+    <t>Remove group member</t>
+  </si>
+  <si>
+    <t>burn down chart (update/make it work better)</t>
+  </si>
+  <si>
+    <t>Show online persons in group</t>
+  </si>
+  <si>
+    <t>Show group members</t>
+  </si>
+  <si>
+    <t>Create baclog for sprint 2</t>
+  </si>
+  <si>
+    <t>MVC application (chat working)</t>
+  </si>
+  <si>
+    <t>Create baclog for sprint 3</t>
+  </si>
+  <si>
+    <t>Create baclog for sprint 4</t>
+  </si>
+  <si>
+    <t>Review and if necessary fix backlog</t>
+  </si>
+  <si>
+    <t>Reoprt review</t>
+  </si>
+  <si>
+    <t>Finalize MVC (mvc chat and login)</t>
+  </si>
+  <si>
+    <t>Finish MoSCoW model</t>
   </si>
 </sst>
 </file>
@@ -787,7 +838,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 0'!$C$22</c:f>
+              <c:f>'Sprint 0'!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -842,24 +893,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 0'!$D$22:$I$22</c:f>
+              <c:f>'Sprint 0'!$D$25:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>88</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.400000000000006</c:v>
+                  <c:v>82.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.800000000000004</c:v>
+                  <c:v>61.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.200000000000003</c:v>
+                  <c:v>41.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>20.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -879,7 +930,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 0'!$C$23</c:f>
+              <c:f>'Sprint 0'!$C$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -934,27 +985,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 0'!$D$23:$I$23</c:f>
+              <c:f>'Sprint 0'!$D$26:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>79</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,7 +1417,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1'!$C$34</c:f>
+              <c:f>'Sprint 1'!$C$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1445,48 +1496,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$D$34:$Q$34</c:f>
+              <c:f>'Sprint 1'!$D$35:$Q$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>118</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.92307692307692</c:v>
+                  <c:v>107.07692307692308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.84615384615384</c:v>
+                  <c:v>98.15384615384616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.769230769230759</c:v>
+                  <c:v>89.230769230769241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.692307692307679</c:v>
+                  <c:v>80.307692307692321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.615384615384599</c:v>
+                  <c:v>71.384615384615401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.538461538461519</c:v>
+                  <c:v>62.461538461538481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.461538461538439</c:v>
+                  <c:v>53.538461538461561</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.384615384615358</c:v>
+                  <c:v>44.615384615384642</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.307692307692278</c:v>
+                  <c:v>35.692307692307722</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.230769230769202</c:v>
+                  <c:v>26.769230769230798</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.153846153846125</c:v>
+                  <c:v>17.846153846153875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0769230769230482</c:v>
+                  <c:v>8.9230769230769518</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1506,7 +1557,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1'!$C$35</c:f>
+              <c:f>'Sprint 1'!$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1585,42 +1636,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$D$35:$Q$35</c:f>
+              <c:f>'Sprint 1'!$D$36:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>120</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>11</c:v>
@@ -2069,7 +2120,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 2'!$C$32</c:f>
+              <c:f>'Sprint 2'!$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2124,24 +2175,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$D$32:$I$32</c:f>
+              <c:f>'Sprint 2'!$D$36:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.8</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.599999999999994</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.399999999999991</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.199999999999992</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2161,7 +2212,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 2'!$C$33</c:f>
+              <c:f>'Sprint 2'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2216,24 +2267,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$D$33:$I$33</c:f>
+              <c:f>'Sprint 2'!$D$37:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2620,7 +2671,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$C$30</c:f>
+              <c:f>'Sprint 3'!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2681,33 +2732,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$D$30:$K$30</c:f>
+              <c:f>'Sprint 3'!$D$31:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>110</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.285714285714292</c:v>
+                  <c:v>97.714285714285722</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.571428571428584</c:v>
+                  <c:v>81.428571428571445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.857142857142868</c:v>
+                  <c:v>65.142857142857167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.142857142857153</c:v>
+                  <c:v>48.857142857142883</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.428571428571438</c:v>
+                  <c:v>32.571428571428598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.714285714285724</c:v>
+                  <c:v>16.285714285714313</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.8421709430404007E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2724,7 +2775,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$C$31</c:f>
+              <c:f>'Sprint 3'!$C$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2785,30 +2836,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$D$31:$K$31</c:f>
+              <c:f>'Sprint 3'!$D$32:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>108</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>18</c:v>
@@ -3191,7 +3242,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 4'!$C$20</c:f>
+              <c:f>'Sprint 4'!$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3255,33 +3306,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$D$20:$L$20</c:f>
+              <c:f>'Sprint 4'!$D$22:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>86</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.25</c:v>
+                  <c:v>82.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.5</c:v>
+                  <c:v>70.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.75</c:v>
+                  <c:v>58.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.25</c:v>
+                  <c:v>35.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.5</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.75</c:v>
+                  <c:v>11.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3301,7 +3352,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 4'!$C$21</c:f>
+              <c:f>'Sprint 4'!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3365,33 +3416,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$D$21:$L$21</c:f>
+              <c:f>'Sprint 4'!$D$23:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>87</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -6652,7 +6703,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>367393</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>40820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6695,7 +6746,7 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>367391</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>27213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6736,7 +6787,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>176892</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6822,7 +6873,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>309283</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6854,8 +6905,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{78447A4E-CDB3-45EE-91A3-4EA22F56CF94}" name="Table2" displayName="Table2" ref="A1:J21" totalsRowShown="0">
-  <autoFilter ref="A1:J21" xr:uid="{C94A59BC-04BB-4AF5-9E59-80489801E0B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{78447A4E-CDB3-45EE-91A3-4EA22F56CF94}" name="Table2" displayName="Table2" ref="A1:J24" totalsRowShown="0">
+  <autoFilter ref="A1:J24" xr:uid="{C94A59BC-04BB-4AF5-9E59-80489801E0B2}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{03317E6F-5E64-493A-8CF3-61F18B436878}" name="Priority"/>
     <tableColumn id="2" xr3:uid="{98825976-954F-479D-8108-396FEA9CA78A}" name="Work"/>
@@ -6873,8 +6924,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3FF0DD1C-4E49-4E7F-92CA-CB567AA3CB8E}" name="Table3" displayName="Table3" ref="A1:R33" totalsRowShown="0">
-  <autoFilter ref="A1:R33" xr:uid="{A001DDB7-4D03-41B6-A7CC-449892123C18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3FF0DD1C-4E49-4E7F-92CA-CB567AA3CB8E}" name="Table3" displayName="Table3" ref="A1:R34" totalsRowShown="0">
+  <autoFilter ref="A1:R34" xr:uid="{A001DDB7-4D03-41B6-A7CC-449892123C18}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{630B2E25-8E62-4D5D-AC40-3F67A507481F}" name="Priority"/>
     <tableColumn id="2" xr3:uid="{E464CF59-1F40-432D-805D-D490D95510DD}" name="Work"/>
@@ -6900,8 +6951,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6040D3C7-704D-4B34-9CD1-FCC83E772A66}" name="Table4" displayName="Table4" ref="A1:J31" totalsRowShown="0">
-  <autoFilter ref="A1:J31" xr:uid="{ACD998EF-9F68-4272-9D9B-C9575E3BBCF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6040D3C7-704D-4B34-9CD1-FCC83E772A66}" name="Table4" displayName="Table4" ref="A1:J35" totalsRowShown="0">
+  <autoFilter ref="A1:J35" xr:uid="{ACD998EF-9F68-4272-9D9B-C9575E3BBCF2}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DB80EF25-AB96-4C8A-947A-9698EAA200D0}" name="Priority"/>
     <tableColumn id="2" xr3:uid="{3A78EDAA-6898-4E45-8503-D686A2CE064F}" name="Work"/>
@@ -6919,8 +6970,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{485FC9A2-2ECA-4867-B849-A896468FE32C}" name="Table1" displayName="Table1" ref="A1:L29" totalsRowShown="0">
-  <autoFilter ref="A1:L29" xr:uid="{2C3F92BE-8B09-468B-934C-DB92BECE08EA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{485FC9A2-2ECA-4867-B849-A896468FE32C}" name="Table1" displayName="Table1" ref="A1:L30" totalsRowShown="0">
+  <autoFilter ref="A1:L30" xr:uid="{2C3F92BE-8B09-468B-934C-DB92BECE08EA}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{9880F961-2E97-46DB-8F7D-08DD7C0BF047}" name="Priority"/>
     <tableColumn id="2" xr3:uid="{FED33286-50D6-44CD-BC0A-6D6E4CCBA7B7}" name="Work"/>
@@ -7204,8 +7255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:D61"/>
+    <sheetView topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7226,7 +7277,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7234,13 +7285,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2" s="4">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7248,13 +7299,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7262,13 +7313,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7276,13 +7327,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C5" s="4">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7290,13 +7341,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7304,13 +7355,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7318,13 +7369,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C8">
         <v>80</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -7332,13 +7383,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C9" s="4">
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -7346,13 +7397,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" s="4">
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7360,13 +7411,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4">
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7380,7 +7431,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -7394,7 +7445,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -7408,7 +7459,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -7422,7 +7473,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -7436,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7450,7 +7501,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7464,7 +7515,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -7478,7 +7529,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7492,7 +7543,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -7506,7 +7557,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7520,7 +7571,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -7534,7 +7585,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7548,7 +7599,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -7562,7 +7613,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -7576,7 +7627,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7590,7 +7641,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -7598,13 +7649,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -7612,13 +7663,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -7632,7 +7683,7 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -7640,13 +7691,13 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -7660,7 +7711,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -7674,7 +7725,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -7688,7 +7739,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -7696,13 +7747,13 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="4">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -7716,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -7730,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -7738,13 +7789,13 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -7752,13 +7803,13 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -7766,13 +7817,13 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="4">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -7780,13 +7831,13 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -7802,7 +7853,7 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -7812,13 +7863,13 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -7828,13 +7879,13 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -7844,13 +7895,13 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -7858,13 +7909,13 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="4">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -7874,13 +7925,13 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -7890,13 +7941,13 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -7906,13 +7957,13 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -7928,7 +7979,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -7944,7 +7995,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -7960,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -7977,7 +8028,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -7994,7 +8045,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F54" s="4"/>
       <c r="J54" s="4"/>
@@ -8004,13 +8055,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F55" s="4"/>
     </row>
@@ -8019,13 +8070,13 @@
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="4">
         <v>2</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F56" s="4"/>
     </row>
@@ -8034,13 +8085,13 @@
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" s="4">
         <v>2</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -8050,13 +8101,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" s="4">
         <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -8072,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -8088,7 +8139,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -8103,8 +8154,8 @@
       <c r="C61">
         <v>30</v>
       </c>
-      <c r="D61" t="s">
-        <v>69</v>
+      <c r="D61" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
@@ -8229,10 +8280,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416D8BE7-F174-4DE6-8BD7-669440759E00}">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8258,22 +8309,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -8293,7 +8344,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -8317,10 +8368,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -8331,7 +8382,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -8355,10 +8406,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -8366,19 +8417,19 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
@@ -8393,74 +8444,74 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+    <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
+      <c r="J5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
+    <row r="6" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -8468,11 +8519,11 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
+      <c r="J6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -8483,13 +8534,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -8507,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -8518,7 +8569,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -8542,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -8553,7 +8604,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8577,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -8585,7 +8636,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -8609,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -8617,7 +8668,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -8641,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -8649,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -8673,20 +8724,20 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="4">
@@ -8696,22 +8747,22 @@
         <v>3</v>
       </c>
       <c r="F13" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>38</v>
+      <c r="J13" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -8719,95 +8770,98 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>37</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F15" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G15" s="4">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4">
+        <v>6</v>
+      </c>
+      <c r="G16" s="4">
         <v>4</v>
       </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4">
-        <v>12</v>
-      </c>
-      <c r="E16" s="4">
-        <v>12</v>
-      </c>
-      <c r="F16" s="4">
-        <v>12</v>
-      </c>
-      <c r="G16" s="4">
-        <v>7</v>
-      </c>
       <c r="H16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -8815,127 +8869,127 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G17" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
       </c>
       <c r="D18" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E18" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
-        <v>43</v>
+      <c r="J18" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E19" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D20" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -8943,105 +8997,186 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D21" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E21" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F21" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G21" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H21" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
-        <v>152</v>
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
       </c>
       <c r="D22" s="4">
-        <f>SUM(C2:C21)</f>
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="E22" s="4">
-        <f>D22-($D$22/5)</f>
-        <v>70.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" ref="F22:I22" si="0">E22-($D$22/5)</f>
-        <v>52.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3</v>
+      </c>
+      <c r="H23" s="4">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="4">
+        <f>SUM(C2:C24)</f>
+        <v>103</v>
+      </c>
+      <c r="E25" s="4">
+        <f>D25-($D$25/5)</f>
+        <v>82.4</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" ref="F25:I25" si="0">E25-($D$25/5)</f>
+        <v>61.800000000000004</v>
+      </c>
+      <c r="G25" s="4">
         <f t="shared" si="0"/>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="H22" s="4">
+        <v>41.2</v>
+      </c>
+      <c r="H25" s="4">
         <f t="shared" si="0"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="I22" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="I25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="4">
-        <f>SUM(D2:D21)</f>
-        <v>79</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" ref="E23:I23" si="1">SUM(E2:E21)</f>
-        <v>63</v>
-      </c>
-      <c r="F23" s="4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" ref="D26:I26" si="1">SUM(D2:D24)</f>
+        <v>98</v>
+      </c>
+      <c r="E26" s="4">
         <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="G23" s="4">
+        <v>74</v>
+      </c>
+      <c r="F26" s="4">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="H23" s="4">
+        <v>64</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H26" s="4">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -9142,6 +9277,21 @@
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9154,16 +9304,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView topLeftCell="K8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="4" customWidth="1"/>
     <col min="5" max="15" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -9186,46 +9336,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="R1" t="s">
         <v>3</v>
@@ -9294,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -9357,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
@@ -9420,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
@@ -9483,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -9546,7 +9696,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -9609,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
@@ -9624,7 +9774,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -9672,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S8" s="1"/>
       <c r="Z8" s="2"/>
@@ -9736,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -9802,10 +9952,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
@@ -9868,10 +10018,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -9934,10 +10084,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -10000,10 +10150,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
@@ -10066,10 +10216,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -10132,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
@@ -10159,28 +10309,28 @@
         <v>7</v>
       </c>
       <c r="E16" s="4">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4">
+        <v>7</v>
+      </c>
+      <c r="G16" s="4">
+        <v>7</v>
+      </c>
+      <c r="H16" s="4">
+        <v>7</v>
+      </c>
+      <c r="I16" s="4">
         <v>6</v>
       </c>
-      <c r="F16" s="4">
+      <c r="J16" s="4">
         <v>4</v>
       </c>
-      <c r="G16" s="4">
-        <v>3</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
       <c r="K16" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
@@ -10198,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -10228,28 +10378,28 @@
         <v>4</v>
       </c>
       <c r="F17" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H17" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K17" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="4">
         <v>0</v>
@@ -10264,10 +10414,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -10330,10 +10480,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -10396,10 +10546,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -10462,10 +10612,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -10477,61 +10627,61 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
       </c>
       <c r="R21" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -10546,58 +10696,58 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N22" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O22" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="4">
         <v>0</v>
       </c>
       <c r="R22" t="s">
+        <v>38</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -10609,49 +10759,49 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O23" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P23" s="4">
         <v>0</v>
@@ -10660,10 +10810,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -10678,43 +10828,43 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J24" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K24" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L24" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M24" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O24" s="4">
         <v>0</v>
@@ -10726,10 +10876,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -10739,51 +10889,51 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
+    <row r="25" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2</v>
       </c>
       <c r="D25" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="4">
         <v>3</v>
       </c>
       <c r="J25" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M25" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N25" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O25" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P25" s="4">
         <v>0</v>
@@ -10791,11 +10941,11 @@
       <c r="Q25" s="4">
         <v>0</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -10810,43 +10960,43 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K26" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L26" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M26" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N26" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26" s="4">
         <v>0</v>
@@ -10858,9 +11008,9 @@
         <v>0</v>
       </c>
       <c r="R26" t="s">
-        <v>39</v>
-      </c>
-      <c r="S26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S26" t="s">
         <v>40</v>
       </c>
       <c r="Z26" s="2"/>
@@ -10876,7 +11026,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -10885,19 +11035,19 @@
         <v>6</v>
       </c>
       <c r="E27" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F27" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G27" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" s="4">
         <v>0</v>
@@ -10924,9 +11074,9 @@
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>39</v>
-      </c>
-      <c r="S27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S27" t="s">
         <v>40</v>
       </c>
       <c r="Z27" s="2"/>
@@ -10939,46 +11089,46 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K28" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L28" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M28" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N28" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O28" s="4">
         <v>0</v>
@@ -10990,11 +11140,9 @@
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>70</v>
-      </c>
-      <c r="S28" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="S28" s="1"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
@@ -11008,28 +11156,28 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F29" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G29" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" s="4">
         <v>0</v>
@@ -11056,11 +11204,9 @@
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>70</v>
-      </c>
-      <c r="S29" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="S29" s="1"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
@@ -11074,107 +11220,106 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D30" s="4">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E30" s="4">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F30" s="4">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G30" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H30" s="4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I30" s="4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J30" s="4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K30" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L30" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M30" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N30" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O30" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P30" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="4">
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>38</v>
-      </c>
-      <c r="S30" s="1"/>
+        <v>42</v>
+      </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
+      <c r="AB30" s="3"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
+    <row r="31" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3</v>
       </c>
       <c r="D31" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G31" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I31" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J31" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K31" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M31" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="4">
         <v>0</v>
@@ -11185,39 +11330,38 @@
       <c r="Q31" s="4">
         <v>0</v>
       </c>
-      <c r="R31" t="s">
-        <v>38</v>
-      </c>
-      <c r="S31" s="1"/>
+      <c r="R31" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
+      <c r="AB31" s="3"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
+    <row r="32" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2</v>
       </c>
       <c r="D32" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
@@ -11249,72 +11393,71 @@
       <c r="Q32" s="4">
         <v>0</v>
       </c>
-      <c r="R32" t="s">
-        <v>38</v>
-      </c>
-      <c r="S32" s="1"/>
+      <c r="R32" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
+      <c r="AB32" s="3"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33">
-        <v>25</v>
+    <row r="33" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
       </c>
       <c r="D33" s="4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E33" s="4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F33" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G33" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H33" s="4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I33" s="4">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J33" s="4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K33" s="4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L33" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M33" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N33" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O33" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P33" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="4">
         <v>0</v>
       </c>
-      <c r="R33" t="s">
-        <v>43</v>
+      <c r="R33" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
@@ -11324,69 +11467,64 @@
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C34" s="4" t="s">
-        <v>152</v>
+    <row r="34" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3</v>
       </c>
       <c r="D34" s="4">
-        <f>SUM(C2:C33)</f>
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="E34" s="4">
-        <f>D34-($D$34/13)</f>
-        <v>108.92307692307692</v>
+        <v>3</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" ref="F34:P34" si="0">E34-($D$34/13)</f>
-        <v>99.84615384615384</v>
+        <v>3</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="0"/>
-        <v>90.769230769230759</v>
+        <v>3</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="0"/>
-        <v>81.692307692307679</v>
+        <v>3</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="0"/>
-        <v>72.615384615384599</v>
+        <v>3</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="0"/>
-        <v>63.538461538461519</v>
+        <v>3</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="0"/>
-        <v>54.461538461538439</v>
+        <v>3</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" si="0"/>
-        <v>45.384615384615358</v>
+        <v>3</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" si="0"/>
-        <v>36.307692307692278</v>
+        <v>3</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" si="0"/>
-        <v>27.230769230769202</v>
+        <v>3</v>
       </c>
       <c r="O34" s="4">
-        <f t="shared" si="0"/>
-        <v>18.153846153846125</v>
+        <v>3</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" si="0"/>
-        <v>9.0769230769230482</v>
+        <v>3</v>
       </c>
       <c r="Q34" s="4">
-        <f>0</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
+      <c r="AB34" s="3"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
@@ -11394,69 +11532,132 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D35" s="4">
-        <f>SUM(D2:D33)</f>
-        <v>120</v>
+        <f>SUM(C2:C34)</f>
+        <v>116</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" ref="E35:Q35" si="1">SUM(E2:E33)</f>
-        <v>106</v>
+        <f>D35-($D$35/13)</f>
+        <v>107.07692307692308</v>
       </c>
       <c r="F35" s="4">
+        <f t="shared" ref="F35:P35" si="0">E35-($D$35/13)</f>
+        <v>98.15384615384616</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="0"/>
+        <v>89.230769230769241</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="0"/>
+        <v>80.307692307692321</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="0"/>
+        <v>71.384615384615401</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="0"/>
+        <v>62.461538461538481</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="0"/>
+        <v>53.538461538461561</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="0"/>
+        <v>44.615384615384642</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="0"/>
+        <v>35.692307692307722</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="0"/>
+        <v>26.769230769230798</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="0"/>
+        <v>17.846153846153875</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="0"/>
+        <v>8.9230769230769518</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="4">
+        <f>SUM(D2:D34)</f>
+        <v>118</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" ref="E36:Q36" si="1">SUM(E2:E30)</f>
+        <v>100</v>
+      </c>
+      <c r="F36" s="4">
         <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="G35" s="4">
+        <v>92</v>
+      </c>
+      <c r="G36" s="4">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="H35" s="4">
+        <v>85</v>
+      </c>
+      <c r="H36" s="4">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="I35" s="4">
+        <v>78</v>
+      </c>
+      <c r="I36" s="4">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="J35" s="4">
+        <v>73</v>
+      </c>
+      <c r="J36" s="4">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="K35" s="4">
+        <v>54</v>
+      </c>
+      <c r="K36" s="4">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="L35" s="4">
+        <v>47</v>
+      </c>
+      <c r="L36" s="4">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M36" s="4">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="N35" s="4">
+        <v>27</v>
+      </c>
+      <c r="N36" s="4">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="O35" s="4">
+        <v>21</v>
+      </c>
+      <c r="O36" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P36" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q36" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -11623,9 +11824,14 @@
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
     </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+    </row>
   </sheetData>
-  <sortState ref="Z2:AB33">
-    <sortCondition ref="AB2:AB33"/>
+  <sortState ref="Z2:AB30">
+    <sortCondition ref="AB2:AB30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11637,10 +11843,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037159B-319A-4C42-A294-2B2489B57574}">
-  <dimension ref="A1:X68"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11649,7 +11855,7 @@
     <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="15.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11664,22 +11870,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -11729,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="2"/>
@@ -11772,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -11792,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -11816,7 +12022,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -11836,7 +12042,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -11860,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -11880,7 +12086,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -11904,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -11924,7 +12130,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -11948,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -11968,7 +12174,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -11992,7 +12198,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K8" s="1"/>
       <c r="M8" s="4"/>
@@ -12008,74 +12214,66 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
+    <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
       </c>
       <c r="D9" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" s="4">
         <v>3</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="1"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -12084,10 +12282,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
@@ -12096,28 +12294,33 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
@@ -12126,13 +12329,12 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="M11" s="4"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -12145,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -12154,13 +12356,13 @@
         <v>2</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
@@ -12169,12 +12371,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -12187,13 +12390,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -12211,12 +12414,12 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="M13" s="3"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -12226,25 +12429,25 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -12253,13 +12456,12 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="M14" s="4"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -12272,22 +12474,22 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
@@ -12296,12 +12498,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -12311,16 +12514,16 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -12338,10 +12541,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="2"/>
@@ -12350,16 +12553,13 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -12383,10 +12583,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="2"/>
@@ -12404,7 +12604,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -12413,7 +12613,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -12428,13 +12628,12 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="M18" s="4"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -12450,7 +12649,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -12474,10 +12673,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="2"/>
@@ -12520,10 +12719,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="2"/>
@@ -12542,7 +12741,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -12566,10 +12765,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="2"/>
@@ -12584,13 +12783,13 @@
       <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="4">
@@ -12611,11 +12810,14 @@
       <c r="I22" s="4">
         <v>0</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="J22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -12631,7 +12833,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -12655,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23" s="4"/>
       <c r="M23" s="4"/>
@@ -12674,16 +12876,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -12698,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24" s="4"/>
       <c r="M24" s="4"/>
@@ -12717,16 +12919,16 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="C25" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -12741,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25" s="4"/>
       <c r="M25" s="4"/>
@@ -12755,24 +12957,24 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="C26" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D26" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E26" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -12784,10 +12986,8 @@
         <v>0</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="M26" s="2"/>
+        <v>38</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -12803,16 +13003,16 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -12827,11 +13027,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="2"/>
+      <c r="M27" s="4"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -12844,22 +13043,22 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C28" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E28" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -12871,33 +13070,38 @@
         <v>0</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="K28" s="1"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
       </c>
       <c r="D29" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F29" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -12908,68 +13112,78 @@
       <c r="I29" s="4">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="1"/>
+      <c r="J29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30">
-        <v>18</v>
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
       </c>
       <c r="D30" s="4">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E30" s="4">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F30" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G30" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H30" s="4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>66</v>
-      </c>
-      <c r="M30" s="4"/>
+      <c r="J30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D31" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E31" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
@@ -12981,129 +13195,252 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>152</v>
+    <row r="32" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
       </c>
       <c r="D32" s="4">
-        <f>SUM(C2:C31)</f>
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E32" s="4">
-        <f>D32-($D$32/5)</f>
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" ref="F32:I32" si="0">E32-($D$32/5)</f>
-        <v>54.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="0"/>
-        <v>36.399999999999991</v>
+        <v>0</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="0"/>
-        <v>18.199999999999992</v>
+        <v>0</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="1"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>153</v>
+    <row r="33" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" ref="D33:I33" si="1">SUM(D2:D31)</f>
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34">
+        <v>18</v>
+      </c>
+      <c r="D34" s="4">
+        <v>18</v>
+      </c>
+      <c r="E34" s="4">
+        <v>18</v>
+      </c>
+      <c r="F34" s="4">
+        <v>18</v>
+      </c>
+      <c r="G34" s="4">
+        <v>20</v>
+      </c>
+      <c r="H34" s="4">
+        <v>13</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4">
+        <v>5</v>
+      </c>
+      <c r="E35" s="4">
+        <v>5</v>
+      </c>
+      <c r="F35" s="4">
+        <v>4</v>
+      </c>
+      <c r="G35" s="4">
+        <v>4</v>
+      </c>
+      <c r="H35" s="4">
+        <v>3</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="4">
+        <f>SUM(C2:C35)</f>
+        <v>95</v>
+      </c>
+      <c r="E36" s="4">
+        <f>D36-($D$36/5)</f>
+        <v>76</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" ref="F36:I36" si="0">E36-($D$36/5)</f>
+        <v>57</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:I37" si="1">SUM(D2:D35)</f>
+        <v>93</v>
+      </c>
+      <c r="E37" s="4">
         <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="F33" s="4">
+        <v>70</v>
+      </c>
+      <c r="F37" s="4">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="G33" s="4">
+        <v>58</v>
+      </c>
+      <c r="G37" s="4">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="H33" s="4">
+        <v>39</v>
+      </c>
+      <c r="H37" s="4">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I33" s="4">
+        <v>17</v>
+      </c>
+      <c r="I37" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -13207,6 +13544,26 @@
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13220,10 +13577,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7884E-D22C-4C15-B48F-DDAEB03C83F5}">
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13234,7 +13591,7 @@
     <col min="4" max="6" width="15.28515625" style="4" customWidth="1"/>
     <col min="7" max="10" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -13252,28 +13609,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
@@ -13298,7 +13655,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -13328,10 +13685,10 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -13350,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -13380,10 +13737,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -13402,7 +13759,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -13432,10 +13789,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -13454,7 +13811,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -13484,10 +13841,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -13506,7 +13863,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -13536,10 +13893,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -13558,7 +13915,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -13588,10 +13945,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -13610,7 +13967,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -13640,10 +13997,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="4"/>
@@ -13660,7 +14017,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -13690,10 +14047,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="4"/>
@@ -13710,7 +14067,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -13740,10 +14097,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="4"/>
@@ -13760,7 +14117,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -13790,10 +14147,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="4"/>
@@ -13810,7 +14167,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -13840,10 +14197,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="4"/>
@@ -13860,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -13890,10 +14247,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="4"/>
@@ -13910,7 +14267,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -13940,10 +14297,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -13960,7 +14317,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -13990,10 +14347,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -14007,7 +14364,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -14037,7 +14394,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -14051,7 +14408,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -14081,7 +14438,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -14095,7 +14452,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -14125,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -14139,7 +14496,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -14169,7 +14526,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -14183,7 +14540,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -14213,7 +14570,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="4"/>
@@ -14224,7 +14581,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -14254,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="4"/>
@@ -14265,7 +14622,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -14295,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="4"/>
@@ -14306,7 +14663,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -14336,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="4"/>
@@ -14347,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -14377,7 +14734,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="4"/>
@@ -14388,7 +14745,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -14418,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="4"/>
@@ -14429,7 +14786,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -14459,7 +14816,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="4"/>
@@ -14470,7 +14827,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -14500,7 +14857,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="4"/>
@@ -14511,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C28">
         <v>25</v>
@@ -14541,7 +14898,7 @@
         <v>15</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -14550,12 +14907,12 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -14585,52 +14942,46 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C30" s="4" t="s">
-        <v>152</v>
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4</v>
       </c>
       <c r="D30" s="4">
-        <f>SUM(C2:C29)</f>
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" ref="E30:K30" si="0">D30-($D$30/7)</f>
-        <v>94.285714285714292</v>
+        <v>4</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="0"/>
-        <v>78.571428571428584</v>
+        <v>4</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="0"/>
-        <v>62.857142857142868</v>
+        <v>5</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="0"/>
-        <v>47.142857142857153</v>
+        <v>5</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="0"/>
-        <v>31.428571428571438</v>
+        <v>5</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="0"/>
-        <v>15.714285714285724</v>
+        <v>2</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -14640,39 +14991,39 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D31" s="4">
-        <f>SUM(D2:D29)</f>
-        <v>108</v>
+        <f>SUM(C2:C30)</f>
+        <v>114</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" ref="E31:K31" si="1">SUM(E2:E29)</f>
-        <v>107</v>
+        <f t="shared" ref="E31:K31" si="0">D31-($D$31/7)</f>
+        <v>97.714285714285722</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
+        <f t="shared" si="0"/>
+        <v>81.428571428571445</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="1"/>
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>65.142857142857167</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="1"/>
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>48.857142857142883</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>32.571428571428598</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>16.285714285714313</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>2.8421709430404007E-14</v>
       </c>
       <c r="L31" s="4"/>
       <c r="N31" s="4"/>
@@ -14683,6 +15034,42 @@
       <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C32" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" ref="D32:K32" si="1">SUM(D2:D30)</f>
+        <v>112</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="L32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -14699,9 +15086,6 @@
       <c r="S33" s="4"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -14713,6 +15097,12 @@
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -14858,6 +15248,11 @@
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14870,10 +15265,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C4868-DA68-4B79-A75F-C29998123D8F}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14900,31 +15295,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>3</v>
@@ -14938,7 +15333,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -14971,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -14979,7 +15374,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -15012,7 +15407,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -15020,7 +15415,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -15053,7 +15448,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -15061,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -15094,7 +15489,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -15102,7 +15497,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -15135,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -15143,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -15176,7 +15571,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -15184,7 +15579,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -15217,10 +15612,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -15228,7 +15623,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -15261,10 +15656,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -15272,7 +15667,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -15305,10 +15700,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -15316,7 +15711,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -15349,10 +15744,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -15360,7 +15755,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -15393,10 +15788,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -15404,7 +15799,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -15437,77 +15832,80 @@
         <v>0</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
+        <v>206</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
       </c>
       <c r="E14" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="4">
         <v>0</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>70</v>
+        <v>38</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>145</v>
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -15522,30 +15920,30 @@
         <v>0</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>146</v>
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
@@ -15563,21 +15961,21 @@
         <v>0</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
-        <v>147</v>
+      <c r="B17" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -15604,30 +16002,30 @@
         <v>0</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>183</v>
+      <c r="B18" t="s">
+        <v>139</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F18" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -15645,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -15653,155 +16051,225 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20">
         <v>20</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <v>20</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>16</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
         <v>15</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <v>13</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <v>10</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="4">
         <v>7</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="4">
         <v>5</v>
       </c>
-      <c r="K19" s="4">
-        <v>3</v>
-      </c>
-      <c r="L19" s="4">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="4">
-        <f>SUM(C2:C19)</f>
-        <v>86</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" ref="E20:L20" si="0">D20-($D$20/8)</f>
-        <v>75.25</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="K20" s="4">
+        <v>3</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
+      <c r="H21" s="4">
+        <v>4</v>
+      </c>
+      <c r="I21" s="4">
+        <v>4</v>
+      </c>
+      <c r="J21" s="4">
+        <v>7</v>
+      </c>
+      <c r="K21" s="4">
+        <v>6</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="4">
+        <f>SUM(C2:C21)</f>
+        <v>94</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" ref="E22:L22" si="0">D22-($D$22/8)</f>
+        <v>82.25</v>
+      </c>
+      <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>64.5</v>
-      </c>
-      <c r="G20" s="4">
+        <v>70.5</v>
+      </c>
+      <c r="G22" s="4">
         <f t="shared" si="0"/>
-        <v>53.75</v>
-      </c>
-      <c r="H20" s="4">
+        <v>58.75</v>
+      </c>
+      <c r="H22" s="4">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="I20" s="4">
+        <v>47</v>
+      </c>
+      <c r="I22" s="4">
         <f t="shared" si="0"/>
-        <v>32.25</v>
-      </c>
-      <c r="J20" s="4">
+        <v>35.25</v>
+      </c>
+      <c r="J22" s="4">
         <f t="shared" si="0"/>
-        <v>21.5</v>
-      </c>
-      <c r="K20" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>10.75</v>
-      </c>
-      <c r="L20" s="4">
+        <v>11.75</v>
+      </c>
+      <c r="L22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" ref="D21:L21" si="1">SUM(D2:D19)</f>
-        <v>87</v>
-      </c>
-      <c r="E21" s="4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="4">
+        <f>SUM(D2:D21)</f>
+        <v>95</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" ref="E23:L23" si="1">SUM(E2:E21)</f>
+        <v>90</v>
+      </c>
+      <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="F21" s="4">
+        <v>81</v>
+      </c>
+      <c r="G23" s="4">
         <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="G21" s="4">
+        <v>62</v>
+      </c>
+      <c r="H23" s="4">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="H21" s="4">
+        <v>41</v>
+      </c>
+      <c r="I23" s="4">
         <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="I21" s="4">
+        <v>30</v>
+      </c>
+      <c r="J23" s="4">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="J21" s="4">
+        <v>25</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K21" s="4">
+        <v>19</v>
+      </c>
+      <c r="L23" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L21" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>192</v>
+      <c r="B27" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="B29" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
@@ -15837,7 +16305,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
@@ -15897,12 +16365,25 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
+      <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="581" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -7377,7 +7377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416D8BE7-F174-4DE6-8BD7-669440759E00}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -8302,7 +8302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="Q12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
@@ -10785,7 +10785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037159B-319A-4C42-A294-2B2489B57574}">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="H12" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J31"/>
     </sheetView>
   </sheetViews>
@@ -12368,7 +12368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7884E-D22C-4C15-B48F-DDAEB03C83F5}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="I9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -14018,8 +14018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C4868-DA68-4B79-A75F-C29998123D8F}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="J2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="212">
   <si>
     <t>Play song</t>
   </si>
@@ -287,9 +287,6 @@
     <t>Game debug/release mode execution error</t>
   </si>
   <si>
-    <t>Refactor database</t>
-  </si>
-  <si>
     <t>Exception handling</t>
   </si>
   <si>
@@ -323,9 +320,6 @@
     <t>Development Method of Choice</t>
   </si>
   <si>
-    <t>merging Report</t>
-  </si>
-  <si>
     <t>Giving feedback on report</t>
   </si>
   <si>
@@ -566,9 +560,6 @@
     <t>Signalr spike</t>
   </si>
   <si>
-    <t>Sprint sum-up</t>
-  </si>
-  <si>
     <t>Report planning</t>
   </si>
   <si>
@@ -590,30 +581,9 @@
     <t>Read about chats (how to make)</t>
   </si>
   <si>
-    <t>Database model 1st. Version</t>
-  </si>
-  <si>
-    <t>Domain model 1st. Version</t>
-  </si>
-  <si>
     <t>Update problem statement</t>
   </si>
   <si>
-    <t>Update domain model (add song and playlist)</t>
-  </si>
-  <si>
-    <t>Update database (add song and playlist)</t>
-  </si>
-  <si>
-    <t>Update database diagram</t>
-  </si>
-  <si>
-    <t>Update database diagram (add song and playlist)</t>
-  </si>
-  <si>
-    <t>Finish Domain model (Optimize profile)</t>
-  </si>
-  <si>
     <t>Fix and create more tests</t>
   </si>
   <si>
@@ -647,13 +617,49 @@
     <t>Review and if necessary fix backlog</t>
   </si>
   <si>
-    <t>Reoprt review</t>
-  </si>
-  <si>
     <t>Finalize MVC (mvc chat and login)</t>
   </si>
   <si>
     <t>Finish MoSCoW model</t>
+  </si>
+  <si>
+    <t>Domain model (chat and profile)</t>
+  </si>
+  <si>
+    <t>Database model (chat and profile)</t>
+  </si>
+  <si>
+    <t>Update database and add (song and playlist)</t>
+  </si>
+  <si>
+    <t>Update database diagram and add (song and playlist)</t>
+  </si>
+  <si>
+    <t>Update database and add (group)</t>
+  </si>
+  <si>
+    <t>Update database diagram and add (group)</t>
+  </si>
+  <si>
+    <t>Update domain model and add (group)</t>
+  </si>
+  <si>
+    <t>Sprint sum-up (until now)</t>
+  </si>
+  <si>
+    <t>Dedicated client (for existing functionality)</t>
+  </si>
+  <si>
+    <t>Sprint sum-up (final)</t>
+  </si>
+  <si>
+    <t>Report review</t>
+  </si>
+  <si>
+    <t>Merging Report</t>
+  </si>
+  <si>
+    <t>Update domain model and add (song,  playlist, notifications)</t>
   </si>
 </sst>
 </file>
@@ -714,7 +720,11 @@
   <cellStyles count="1">
     <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -898,19 +908,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.4</c:v>
+                  <c:v>76.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.800000000000004</c:v>
+                  <c:v>57.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.2</c:v>
+                  <c:v>38.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.6</c:v>
+                  <c:v>19.199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -990,19 +1000,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -2180,19 +2190,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76</c:v>
+                  <c:v>74.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>55.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>37.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2272,7 +2282,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>70</c:v>
@@ -3242,7 +3252,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 4'!$C$22</c:f>
+              <c:f>'Sprint 4'!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3306,33 +3316,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$D$22:$L$22</c:f>
+              <c:f>'Sprint 4'!$D$23:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>94</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.25</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.75</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.25</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.5</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.75</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3352,7 +3362,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 4'!$C$23</c:f>
+              <c:f>'Sprint 4'!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3416,18 +3426,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$D$23:$L$23</c:f>
+              <c:f>'Sprint 4'!$D$24:$L$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>62</c:v>
@@ -6787,7 +6797,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>176892</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6873,7 +6883,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>309283</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6985,6 +6995,28 @@
     <tableColumn id="10" xr3:uid="{DB5CE761-C263-44FE-944D-42EEA0D414F5}" name="4.12.2017"/>
     <tableColumn id="11" xr3:uid="{D12129C4-1D29-4D8A-857F-9EFDCD56F08B}" name="5.12.2017"/>
     <tableColumn id="12" xr3:uid="{A8FC9E0B-9761-42A6-8218-479E5D4A44F3}" name="Person"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{69F42748-5731-45AD-AB2F-2D56CE6CE30F}" name="Tabula5" displayName="Tabula5" ref="A1:M22" totalsRowShown="0">
+  <autoFilter ref="A1:M22" xr:uid="{53754D2A-1621-4F83-9B64-281BB9D7345E}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{306EE1EA-B0B1-4175-8E88-A2B100506FAC}" name="Priority"/>
+    <tableColumn id="2" xr3:uid="{4DF1E167-2B6E-4646-9E57-BBD0A536C003}" name="Work" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FF972DE1-AB0B-4929-98A7-EF76BB4B4F75}" name="time-est."/>
+    <tableColumn id="4" xr3:uid="{E0A23C63-298C-4EE0-B937-0CE2842AEF13}" name="5.12.2017"/>
+    <tableColumn id="5" xr3:uid="{06523220-F482-4E4F-80DF-AF0B07E8008D}" name="6.12.2017"/>
+    <tableColumn id="6" xr3:uid="{F42B1C34-8E39-4DC4-812D-74DB150E1376}" name="7.12.2017"/>
+    <tableColumn id="7" xr3:uid="{F8E2A858-D2A3-4E58-BF20-04FFF947CA18}" name="8.12.2017"/>
+    <tableColumn id="8" xr3:uid="{591CA4B6-29BF-4E1C-B96F-D6DD1DF9437E}" name="9.12.2017"/>
+    <tableColumn id="9" xr3:uid="{8FCC6452-56F4-4BEF-935B-9250EDB59435}" name="10.12.2017"/>
+    <tableColumn id="10" xr3:uid="{14D28F79-F9A0-4876-8542-24D8499B8C69}" name="11.12.2017"/>
+    <tableColumn id="11" xr3:uid="{DC40776A-5787-419C-BE3E-815487055AB1}" name="12.12.2017"/>
+    <tableColumn id="12" xr3:uid="{A690D3DE-F147-4B4E-9360-A2B2A43A33D2}" name="13.12.2017"/>
+    <tableColumn id="13" xr3:uid="{945433BC-B052-4280-81C3-8CFCBAC7FAF9}" name="Person"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7255,8 +7287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7341,7 +7373,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -7369,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C8">
         <v>80</v>
@@ -7957,7 +7989,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -8283,7 +8315,7 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8309,22 +8341,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -8344,7 +8376,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -8420,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -8496,7 +8528,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -8636,7 +8668,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -8735,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -8869,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -8901,7 +8933,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C18" s="4">
         <v>4</v>
@@ -8933,25 +8965,25 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D19" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E19" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F19" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
@@ -8997,25 +9029,25 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E21" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G21" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H21" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -9122,27 +9154,27 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D25" s="4">
         <f>SUM(C2:C24)</f>
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E25" s="4">
         <f>D25-($D$25/5)</f>
-        <v>82.4</v>
+        <v>76.8</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ref="F25:I25" si="0">E25-($D$25/5)</f>
-        <v>61.800000000000004</v>
+        <v>57.599999999999994</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="0"/>
-        <v>41.2</v>
+        <v>38.399999999999991</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="0"/>
-        <v>20.6</v>
+        <v>19.199999999999992</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="0"/>
@@ -9151,27 +9183,27 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ref="D26:I26" si="1">SUM(D2:D24)</f>
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="1"/>
@@ -9306,14 +9338,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="4" customWidth="1"/>
     <col min="5" max="15" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -9336,46 +9368,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="R1" t="s">
         <v>3</v>
@@ -9774,7 +9806,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -10894,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
@@ -11220,7 +11252,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -11280,10 +11312,10 @@
     </row>
     <row r="31" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -11343,10 +11375,10 @@
     </row>
     <row r="32" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
@@ -11406,10 +11438,10 @@
     </row>
     <row r="33" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -11472,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C34" s="4">
         <v>3</v>
@@ -11532,7 +11564,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D35" s="4">
         <f>SUM(C2:C34)</f>
@@ -11600,7 +11632,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D36" s="4">
         <f>SUM(D2:D34)</f>
@@ -11846,7 +11878,7 @@
   <dimension ref="A1:X72"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11870,22 +11902,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -12174,7 +12206,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -12219,7 +12251,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
@@ -12429,25 +12461,25 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>87</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -12461,7 +12493,8 @@
       <c r="K14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -12469,27 +12502,27 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
+    <row r="15" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
       </c>
       <c r="D15" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
@@ -12497,13 +12530,12 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="4"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -12512,21 +12544,21 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16">
+    <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="4">
         <v>2</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
       </c>
       <c r="E16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -12540,13 +12572,13 @@
       <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>37</v>
+      <c r="J16" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -12556,16 +12588,16 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -12595,16 +12627,13 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -12649,7 +12678,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -12658,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -12678,8 +12707,7 @@
       <c r="K19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="2"/>
+      <c r="M19" s="4"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -12695,7 +12723,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -12741,7 +12769,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -12787,7 +12815,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -12829,13 +12857,13 @@
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" s="4">
@@ -12856,11 +12884,14 @@
       <c r="I23" s="4">
         <v>0</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="J23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -12876,7 +12907,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -12919,16 +12950,16 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -12957,24 +12988,24 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -12988,6 +13019,8 @@
       <c r="J26" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="K26" s="4"/>
+      <c r="M26" s="4"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -12998,24 +13031,24 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="C27" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -13029,8 +13062,6 @@
       <c r="J27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="M27" s="4"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -13043,22 +13074,22 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C28" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D28" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E28" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F28" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -13072,8 +13103,8 @@
       <c r="J28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="M28" s="2"/>
+      <c r="K28" s="4"/>
+      <c r="M28" s="4"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -13086,22 +13117,22 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
       <c r="C29" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D29" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E29" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -13115,8 +13146,7 @@
       <c r="J29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="K29" s="1"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -13133,7 +13163,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -13142,7 +13172,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -13165,25 +13195,31 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
       </c>
       <c r="D31" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
@@ -13194,33 +13230,34 @@
       <c r="I31" s="4">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="1"/>
+      <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>1</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1</v>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="4">
         <v>0</v>
@@ -13231,10 +13268,11 @@
       <c r="I32" s="4">
         <v>0</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" t="s">
         <v>38</v>
       </c>
       <c r="K32" s="1"/>
+      <c r="L32" s="4"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -13244,10 +13282,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C33" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -13280,7 +13318,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C34">
         <v>18</v>
@@ -13314,7 +13352,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -13346,27 +13384,27 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D36" s="4">
         <f>SUM(C2:C35)</f>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E36" s="4">
         <f>D36-($D$36/5)</f>
-        <v>76</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" ref="F36:I36" si="0">E36-($D$36/5)</f>
-        <v>57</v>
+        <v>55.800000000000004</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" si="0"/>
@@ -13378,11 +13416,11 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" ref="D37:I37" si="1">SUM(D2:D35)</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="1"/>
@@ -13579,14 +13617,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7884E-D22C-4C15-B48F-DDAEB03C83F5}">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="15.28515625" style="4" customWidth="1"/>
     <col min="7" max="10" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -13609,28 +13647,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
@@ -13811,7 +13849,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -13863,7 +13901,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -13915,7 +13953,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -13967,7 +14005,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -14017,7 +14055,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -14067,7 +14105,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -14117,7 +14155,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -14167,7 +14205,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -14217,7 +14255,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -14267,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -14317,7 +14355,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -14364,7 +14402,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -14408,7 +14446,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -14452,7 +14490,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -14496,7 +14534,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -14540,7 +14578,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -14581,7 +14619,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -14622,7 +14660,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -14663,7 +14701,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -14704,7 +14742,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -14745,7 +14783,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -14786,7 +14824,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -14827,7 +14865,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -14868,7 +14906,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C28">
         <v>25</v>
@@ -14912,7 +14950,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -14950,7 +14988,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C30" s="4">
         <v>4</v>
@@ -14991,7 +15029,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D31" s="4">
         <f>SUM(C2:C30)</f>
@@ -15035,7 +15073,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ref="D32:K32" si="1">SUM(D2:D30)</f>
@@ -15265,22 +15303,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C4868-DA68-4B79-A75F-C29998123D8F}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="8" width="14.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="4" customWidth="1"/>
+    <col min="11" max="12" width="15.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15295,31 +15334,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>3</v>
@@ -15333,7 +15372,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -15374,7 +15413,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -15415,7 +15454,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -15456,7 +15495,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -15497,7 +15536,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -15538,7 +15577,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -15579,7 +15618,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -15623,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -15667,7 +15706,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -15710,8 +15749,8 @@
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>131</v>
+      <c r="B11" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -15755,7 +15794,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -15799,7 +15838,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -15843,7 +15882,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C14" s="4">
         <v>4</v>
@@ -15882,30 +15921,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
+        <v>208</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
       </c>
       <c r="F15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -15920,33 +15959,36 @@
         <v>0</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>66</v>
+        <v>38</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>137</v>
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
@@ -15966,25 +16008,25 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>138</v>
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G17" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -16009,14 +16051,14 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
-        <v>139</v>
+      <c r="B18" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -16050,23 +16092,23 @@
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>175</v>
+      <c r="B19" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F19" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -16092,190 +16134,225 @@
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21">
         <v>20</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="4">
         <v>20</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <v>16</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="4">
         <v>15</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G21" s="4">
         <v>13</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="4">
         <v>10</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I21" s="4">
         <v>7</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J21" s="4">
         <v>5</v>
       </c>
-      <c r="K20" s="4">
-        <v>3</v>
-      </c>
-      <c r="L20" s="4">
-        <v>1</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4">
-        <v>4</v>
-      </c>
-      <c r="E21" s="4">
-        <v>4</v>
-      </c>
-      <c r="F21" s="4">
-        <v>4</v>
-      </c>
-      <c r="G21" s="4">
-        <v>4</v>
-      </c>
-      <c r="H21" s="4">
-        <v>4</v>
-      </c>
-      <c r="I21" s="4">
-        <v>4</v>
-      </c>
-      <c r="J21" s="4">
-        <v>7</v>
-      </c>
       <c r="K21" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
-        <v>144</v>
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4</v>
       </c>
       <c r="D22" s="4">
-        <f>SUM(C2:C21)</f>
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" ref="E22:L22" si="0">D22-($D$22/8)</f>
-        <v>82.25</v>
+        <v>4</v>
       </c>
       <c r="F22" s="4">
+        <v>4</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4</v>
+      </c>
+      <c r="H22" s="4">
+        <v>4</v>
+      </c>
+      <c r="I22" s="4">
+        <v>4</v>
+      </c>
+      <c r="J22" s="4">
+        <v>7</v>
+      </c>
+      <c r="K22" s="4">
+        <v>6</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="4">
+        <f>SUM(C2:C22)</f>
+        <v>96</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" ref="E23:L23" si="0">D23-($D$23/8)</f>
+        <v>84</v>
+      </c>
+      <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>70.5</v>
-      </c>
-      <c r="G22" s="4">
+        <v>72</v>
+      </c>
+      <c r="G23" s="4">
         <f t="shared" si="0"/>
-        <v>58.75</v>
-      </c>
-      <c r="H22" s="4">
+        <v>60</v>
+      </c>
+      <c r="H23" s="4">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="I22" s="4">
+        <v>48</v>
+      </c>
+      <c r="I23" s="4">
         <f t="shared" si="0"/>
-        <v>35.25</v>
-      </c>
-      <c r="J22" s="4">
+        <v>36</v>
+      </c>
+      <c r="J23" s="4">
         <f t="shared" si="0"/>
-        <v>23.5</v>
-      </c>
-      <c r="K22" s="4">
+        <v>24</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>11.75</v>
-      </c>
-      <c r="L22" s="4">
+        <v>12</v>
+      </c>
+      <c r="L23" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="4">
-        <f>SUM(D2:D21)</f>
-        <v>95</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" ref="E23:L23" si="1">SUM(E2:E21)</f>
-        <v>90</v>
-      </c>
-      <c r="F23" s="4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="4">
+        <f>SUM(D2:D22)</f>
+        <v>97</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" ref="E24:L24" si="1">SUM(E2:E22)</f>
+        <v>92</v>
+      </c>
+      <c r="F24" s="4">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="G23" s="4">
+        <v>82</v>
+      </c>
+      <c r="G24" s="4">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="4">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J24" s="4">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K24" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L24" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>182</v>
+      <c r="B28" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
@@ -16317,61 +16394,61 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
+      <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
+      <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="B45" s="5"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
+      <c r="B47" s="5"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
@@ -16381,9 +16458,18 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="581" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -590,9 +590,6 @@
     <t>Read about chats (how to make)</t>
   </si>
   <si>
-    <t>Database model 1st. Version</t>
-  </si>
-  <si>
     <t>Domain model 1st. Version</t>
   </si>
   <si>
@@ -654,6 +651,9 @@
   </si>
   <si>
     <t>Finish MoSCoW model</t>
+  </si>
+  <si>
+    <t>Database model(register, create chat)</t>
   </si>
 </sst>
 </file>
@@ -712,9 +712,13 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -730,7 +734,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -823,7 +827,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1086,7 +1090,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1117,7 +1121,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -1241,7 +1245,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1272,7 +1276,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -1323,7 +1327,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1337,7 +1341,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1402,7 +1406,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1761,7 +1765,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1792,7 +1796,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -1916,7 +1920,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1947,7 +1951,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -1998,7 +2002,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2012,7 +2016,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2105,7 +2109,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2368,7 +2372,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2399,7 +2403,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -2495,7 +2499,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2526,7 +2530,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -2577,7 +2581,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2591,7 +2595,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2656,7 +2660,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2943,7 +2947,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2974,7 +2978,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -3066,7 +3070,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3097,7 +3101,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -3148,7 +3152,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3162,7 +3166,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3227,7 +3231,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3530,7 +3534,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3561,7 +3565,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -3653,7 +3657,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3684,7 +3688,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -3735,7 +3739,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6990,6 +6994,28 @@
 </table>
 </file>
 
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{316C6D31-10C0-4D24-8F4E-F7D974DF4770}" name="Table5" displayName="Table5" ref="A1:M21" totalsRowShown="0">
+  <autoFilter ref="A1:M21" xr:uid="{76780C3D-7F03-4194-8FFD-57DEF0EC89B9}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{B93B91D6-9530-4141-AC64-38D948C22D76}" name="Priority"/>
+    <tableColumn id="2" xr3:uid="{327C1D89-B708-45F2-ABF7-0DC02F745336}" name="Work" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{BA0A9125-B69B-4D41-AF68-42726E21286A}" name="time-est."/>
+    <tableColumn id="4" xr3:uid="{D9514308-B10D-4ED4-87A6-4AB47C4DF68D}" name="5.12.2017"/>
+    <tableColumn id="5" xr3:uid="{6B73EC1C-A818-4087-9F5F-3722CE8696AC}" name="6.12.2017"/>
+    <tableColumn id="6" xr3:uid="{B432022B-D15A-42E2-935C-D3ECBCFE33AD}" name="7.12.2017"/>
+    <tableColumn id="7" xr3:uid="{C54F4135-5D2C-4885-89FE-C4D01C32B167}" name="8.12.2017"/>
+    <tableColumn id="8" xr3:uid="{B2411848-A5C9-4C5C-AE8E-C6F5825C1551}" name="9.12.2017"/>
+    <tableColumn id="9" xr3:uid="{4A925BB1-4700-4983-AE3A-65CCB6E5E875}" name="10.12.2017"/>
+    <tableColumn id="10" xr3:uid="{8AF74238-3C3E-45FE-8082-8CFEAEE499B3}" name="11.12.2017"/>
+    <tableColumn id="11" xr3:uid="{87D4CA31-C896-4A1D-8C90-41A2723054BD}" name="12.12.2017"/>
+    <tableColumn id="12" xr3:uid="{5669DA0F-244E-428A-B187-9DE91903FEA9}" name="13.12.2017"/>
+    <tableColumn id="13" xr3:uid="{64ED3623-E810-4DD3-B04A-46CD56E4A39C}" name="Person"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8283,7 +8309,7 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8735,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -8933,7 +8959,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -8997,7 +9023,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -9306,8 +9332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10894,7 +10920,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
@@ -11283,7 +11309,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -11346,7 +11372,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
@@ -11409,7 +11435,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -11472,7 +11498,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C34" s="4">
         <v>3</v>
@@ -12219,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
@@ -12559,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -12604,7 +12630,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -12919,7 +12945,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
@@ -12962,7 +12988,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -13089,7 +13115,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -13208,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -13244,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C33" s="4">
         <v>2</v>
@@ -13314,7 +13340,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -14868,7 +14894,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28">
         <v>25</v>
@@ -14950,7 +14976,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C30" s="4">
         <v>4</v>
@@ -15267,20 +15293,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C4868-DA68-4B79-A75F-C29998123D8F}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="8" width="14.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="4" customWidth="1"/>
+    <col min="11" max="12" width="15.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15843,7 +15870,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="4">
         <v>4</v>
@@ -16092,7 +16119,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -16133,7 +16160,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="4">
         <v>4</v>
@@ -16385,5 +16412,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="211">
   <si>
     <t>Play song</t>
   </si>
@@ -566,9 +566,6 @@
     <t>use activity model layer class</t>
   </si>
   <si>
-    <t>make chat work on web client</t>
-  </si>
-  <si>
     <t>Create Mock up</t>
   </si>
   <si>
@@ -617,18 +614,9 @@
     <t>Review and if necessary fix backlog</t>
   </si>
   <si>
-    <t>Finalize MVC (mvc chat and login)</t>
-  </si>
-  <si>
     <t>Finish MoSCoW model</t>
   </si>
   <si>
-    <t>Domain model (chat and profile)</t>
-  </si>
-  <si>
-    <t>Database model (chat and profile)</t>
-  </si>
-  <si>
     <t>Update database and add (song and playlist)</t>
   </si>
   <si>
@@ -660,6 +648,15 @@
   </si>
   <si>
     <t>Update domain model and add (song,  playlist, notifications)</t>
+  </si>
+  <si>
+    <t>Finalize MVC (chat and login)</t>
+  </si>
+  <si>
+    <t>Database model (chat, message, profile)</t>
+  </si>
+  <si>
+    <t>Domain model (chat, message,  profile)</t>
   </si>
 </sst>
 </file>
@@ -8314,14 +8311,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416D8BE7-F174-4DE6-8BD7-669440759E00}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="15.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="4" customWidth="1"/>
@@ -8376,7 +8373,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -8452,7 +8449,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -8767,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -8901,7 +8898,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -8933,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="4">
         <v>4</v>
@@ -8965,7 +8962,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -9029,7 +9026,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -9338,7 +9335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -10926,7 +10923,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
@@ -11252,7 +11249,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -11315,7 +11312,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -11378,7 +11375,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
@@ -11441,7 +11438,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -11504,7 +11501,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C34" s="4">
         <v>3</v>
@@ -12251,7 +12248,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
@@ -12507,7 +12504,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
@@ -12549,7 +12546,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
@@ -12633,7 +12630,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -12678,7 +12675,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -12993,7 +12990,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C26" s="4">
         <v>2</v>
@@ -13036,7 +13033,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -13163,7 +13160,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -13282,7 +13279,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -13352,7 +13349,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -14783,7 +14780,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -14906,7 +14903,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C28">
         <v>25</v>
@@ -14988,7 +14985,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C30" s="4">
         <v>4</v>
@@ -15306,7 +15303,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15372,7 +15369,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -15882,7 +15879,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="4">
         <v>4</v>
@@ -15926,7 +15923,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
@@ -16175,7 +16172,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -16216,7 +16213,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C22" s="4">
         <v>4</v>
@@ -16346,9 +16343,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -679,15 +679,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -695,11 +707,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -713,9 +777,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -737,7 +808,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -830,7 +901,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1093,7 +1164,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1124,7 +1195,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -1248,7 +1319,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1279,7 +1350,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -1330,7 +1401,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1344,7 +1415,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1409,7 +1480,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1768,7 +1839,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1799,7 +1870,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -1923,7 +1994,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1954,7 +2025,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -2005,7 +2076,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2019,7 +2090,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2112,7 +2183,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2375,7 +2446,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2406,7 +2477,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -2502,7 +2573,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2533,7 +2604,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -2584,7 +2655,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2598,7 +2669,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2663,7 +2734,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2950,7 +3021,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2981,7 +3052,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -3073,7 +3144,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3104,7 +3175,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -3155,7 +3226,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3169,7 +3240,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3234,7 +3305,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3537,7 +3608,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3568,7 +3639,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -3660,7 +3731,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3691,7 +3762,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -3742,7 +3813,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8311,8 +8382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416D8BE7-F174-4DE6-8BD7-669440759E00}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8600,25 +8671,25 @@
       <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
@@ -8628,7 +8699,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -8667,25 +8738,25 @@
       <c r="B10" t="s">
         <v>176</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2</v>
+      </c>
+      <c r="I10" s="8">
         <v>0</v>
       </c>
       <c r="J10" t="s">
@@ -8699,57 +8770,57 @@
       <c r="B11" t="s">
         <v>77</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4">
-        <v>3</v>
-      </c>
-      <c r="H11" s="4">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="C11" s="10">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3</v>
+      </c>
+      <c r="I11" s="8">
         <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>80</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <v>10</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="8">
         <v>12</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="8">
         <v>4</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
         <v>0</v>
       </c>
       <c r="J12" t="s">
@@ -8766,7 +8837,7 @@
       <c r="B13" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <v>3</v>
       </c>
       <c r="D13" s="4">
@@ -8836,7 +8907,7 @@
       <c r="B15" t="s">
         <v>78</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>2</v>
       </c>
       <c r="D15" s="4">
@@ -8861,7 +8932,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -8893,39 +8964,39 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>181</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="12">
         <v>7</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="8">
         <v>7</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="8">
         <v>7</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="8">
         <v>9</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="8">
         <v>4</v>
       </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
         <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -8957,39 +9028,39 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>209</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="13">
         <v>4</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="8">
         <v>4</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="8">
         <v>4</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="8">
         <v>5</v>
       </c>
-      <c r="G19" s="4">
-        <v>2</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="G19" s="8">
+        <v>2</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
         <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -9020,40 +9091,41 @@
       <c r="J20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>210</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="13">
         <v>5</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="8">
         <v>5</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="8">
         <v>5</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="8">
         <v>4</v>
       </c>
-      <c r="G21" s="4">
-        <v>2</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="G21" s="8">
+        <v>2</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
         <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -9085,7 +9157,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -9117,7 +9189,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -9149,7 +9221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
         <v>142</v>
       </c>
@@ -9178,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
         <v>143</v>
       </c>
@@ -9207,22 +9279,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -9335,8 +9407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="581" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="210">
   <si>
     <t>Play song</t>
   </si>
@@ -416,15 +416,9 @@
     <t>Update sprint report document</t>
   </si>
   <si>
-    <t>Design class diagram</t>
-  </si>
-  <si>
     <t>Release product</t>
   </si>
   <si>
-    <t>3 layer UI</t>
-  </si>
-  <si>
     <t>On connection lost close connection</t>
   </si>
   <si>
@@ -563,9 +557,6 @@
     <t>Report planning</t>
   </si>
   <si>
-    <t>use activity model layer class</t>
-  </si>
-  <si>
     <t>Create Mock up</t>
   </si>
   <si>
@@ -657,13 +648,19 @@
   </si>
   <si>
     <t>Domain model (chat, message,  profile)</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Design class diagram(for report)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,8 +675,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,8 +702,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -759,11 +829,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -784,6 +961,70 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,6 +1035,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7441,7 +7687,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -7469,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C8">
         <v>80</v>
@@ -8057,7 +8303,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -8382,8 +8628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416D8BE7-F174-4DE6-8BD7-669440759E00}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8409,22 +8655,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -8444,7 +8690,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -8520,7 +8766,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -8629,7 +8875,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -8664,14 +8910,14 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="13">
         <v>2</v>
       </c>
       <c r="D8" s="8">
@@ -8736,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
@@ -8835,7 +9081,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C13" s="7">
         <v>3</v>
@@ -8969,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C17" s="12">
         <v>7</v>
@@ -9001,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C18" s="4">
         <v>4</v>
@@ -9033,7 +9279,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C19" s="13">
         <v>4</v>
@@ -9098,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C21" s="13">
         <v>5</v>
@@ -9223,7 +9469,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D25" s="4">
         <f>SUM(C2:C24)</f>
@@ -9252,7 +9498,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ref="D26:I26" si="1">SUM(D2:D24)</f>
@@ -9407,8 +9653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0FA56-3052-4FDF-A416-31284BD45B6D}">
   <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9426,7 +9672,7 @@
     <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -9437,46 +9683,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="R1" t="s">
         <v>3</v>
@@ -9492,185 +9738,185 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:32" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="C2" s="25">
+        <v>3</v>
+      </c>
+      <c r="D2" s="25">
+        <v>3</v>
+      </c>
+      <c r="E2" s="25">
+        <v>2</v>
+      </c>
+      <c r="F2" s="25">
+        <v>0</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0</v>
+      </c>
+      <c r="I2" s="25">
+        <v>0</v>
+      </c>
+      <c r="J2" s="25">
+        <v>0</v>
+      </c>
+      <c r="K2" s="25">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25">
+        <v>0</v>
+      </c>
+      <c r="M2" s="25">
+        <v>0</v>
+      </c>
+      <c r="N2" s="25">
+        <v>0</v>
+      </c>
+      <c r="O2" s="25">
+        <v>0</v>
+      </c>
+      <c r="P2" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>0</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+    </row>
+    <row r="3" spans="1:32" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="C3" s="25">
+        <v>2</v>
+      </c>
+      <c r="D3" s="25">
+        <v>2</v>
+      </c>
+      <c r="E3" s="25">
+        <v>2</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0</v>
+      </c>
+      <c r="K3" s="25">
+        <v>0</v>
+      </c>
+      <c r="L3" s="25">
+        <v>0</v>
+      </c>
+      <c r="M3" s="25">
+        <v>0</v>
+      </c>
+      <c r="N3" s="25">
+        <v>0</v>
+      </c>
+      <c r="O3" s="25">
+        <v>0</v>
+      </c>
+      <c r="P3" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>0</v>
+      </c>
+      <c r="R3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+    </row>
+    <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="C4" s="15">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15">
+        <v>3</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15">
+        <v>3</v>
+      </c>
+      <c r="H4" s="15">
+        <v>2</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15" t="s">
         <v>36</v>
       </c>
       <c r="Z4" s="2"/>
@@ -9681,248 +9927,248 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:32" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>1</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="C5" s="25">
+        <v>3</v>
+      </c>
+      <c r="D5" s="25">
+        <v>3</v>
+      </c>
+      <c r="E5" s="25">
+        <v>3</v>
+      </c>
+      <c r="F5" s="25">
+        <v>3</v>
+      </c>
+      <c r="G5" s="25">
+        <v>3</v>
+      </c>
+      <c r="H5" s="25">
+        <v>2</v>
+      </c>
+      <c r="I5" s="25">
+        <v>2</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0</v>
+      </c>
+      <c r="M5" s="25">
+        <v>0</v>
+      </c>
+      <c r="N5" s="25">
+        <v>0</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0</v>
+      </c>
+      <c r="P5" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>0</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+    </row>
+    <row r="6" spans="1:32" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="C6" s="25">
+        <v>3</v>
+      </c>
+      <c r="D6" s="25">
+        <v>3</v>
+      </c>
+      <c r="E6" s="25">
         <v>4</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="25">
         <v>4</v>
       </c>
-      <c r="G6" s="4">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="G6" s="25">
+        <v>3</v>
+      </c>
+      <c r="H6" s="25">
+        <v>3</v>
+      </c>
+      <c r="I6" s="25">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0</v>
+      </c>
+      <c r="N6" s="25">
+        <v>0</v>
+      </c>
+      <c r="O6" s="25">
+        <v>0</v>
+      </c>
+      <c r="P6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>0</v>
+      </c>
+      <c r="R6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+    </row>
+    <row r="7" spans="1:32" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <v>1</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="C7" s="25">
+        <v>2</v>
+      </c>
+      <c r="D7" s="25">
+        <v>2</v>
+      </c>
+      <c r="E7" s="25">
+        <v>2</v>
+      </c>
+      <c r="F7" s="25">
+        <v>2</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="25">
+        <v>0</v>
+      </c>
+      <c r="N7" s="25">
+        <v>0</v>
+      </c>
+      <c r="O7" s="25">
+        <v>0</v>
+      </c>
+      <c r="P7" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>0</v>
+      </c>
+      <c r="R7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3</v>
-      </c>
-      <c r="J8" s="4">
-        <v>3</v>
-      </c>
-      <c r="K8" s="4">
-        <v>3</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="C8" s="15">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15">
+        <v>3</v>
+      </c>
+      <c r="E8" s="15">
+        <v>3</v>
+      </c>
+      <c r="F8" s="15">
+        <v>3</v>
+      </c>
+      <c r="G8" s="15">
+        <v>3</v>
+      </c>
+      <c r="H8" s="15">
+        <v>3</v>
+      </c>
+      <c r="I8" s="15">
+        <v>3</v>
+      </c>
+      <c r="J8" s="15">
+        <v>3</v>
+      </c>
+      <c r="K8" s="15">
+        <v>3</v>
+      </c>
+      <c r="L8" s="15">
         <v>4</v>
       </c>
-      <c r="M8" s="4">
-        <v>2</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="M8" s="15">
+        <v>2</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>0</v>
+      </c>
+      <c r="R8" s="15" t="s">
         <v>36</v>
       </c>
       <c r="S8" s="1"/>
@@ -9934,929 +10180,929 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>2</v>
-      </c>
-      <c r="K9" s="4">
-        <v>2</v>
-      </c>
-      <c r="L9" s="4">
-        <v>2</v>
-      </c>
-      <c r="M9" s="4">
-        <v>2</v>
-      </c>
-      <c r="N9" s="4">
-        <v>3</v>
-      </c>
-      <c r="O9" s="4">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2</v>
+      </c>
+      <c r="J9" s="8">
+        <v>2</v>
+      </c>
+      <c r="K9" s="8">
+        <v>2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>2</v>
+      </c>
+      <c r="M9" s="8">
+        <v>2</v>
+      </c>
+      <c r="N9" s="8">
+        <v>3</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+    </row>
+    <row r="10" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+    </row>
+    <row r="11" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="C11" s="8">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+    </row>
+    <row r="12" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>1</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>2</v>
-      </c>
-      <c r="I12" s="4">
-        <v>2</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="C12" s="32">
+        <v>2</v>
+      </c>
+      <c r="D12" s="32">
+        <v>2</v>
+      </c>
+      <c r="E12" s="32">
+        <v>2</v>
+      </c>
+      <c r="F12" s="32">
+        <v>2</v>
+      </c>
+      <c r="G12" s="32">
+        <v>2</v>
+      </c>
+      <c r="H12" s="32">
+        <v>2</v>
+      </c>
+      <c r="I12" s="32">
+        <v>2</v>
+      </c>
+      <c r="J12" s="32">
+        <v>0</v>
+      </c>
+      <c r="K12" s="32">
+        <v>0</v>
+      </c>
+      <c r="L12" s="32">
+        <v>0</v>
+      </c>
+      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="N12" s="32">
+        <v>0</v>
+      </c>
+      <c r="O12" s="32">
+        <v>0</v>
+      </c>
+      <c r="P12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>0</v>
+      </c>
+      <c r="R12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+    </row>
+    <row r="13" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+    </row>
+    <row r="14" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>4</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="8">
         <v>4</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="8">
         <v>4</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="8">
         <v>4</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="8">
         <v>4</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="8">
         <v>4</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="8">
         <v>4</v>
       </c>
-      <c r="J14" s="4">
-        <v>3</v>
-      </c>
-      <c r="K14" s="4">
-        <v>2</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="J14" s="8">
+        <v>3</v>
+      </c>
+      <c r="K14" s="8">
+        <v>2</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+    </row>
+    <row r="15" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2</v>
-      </c>
-      <c r="I15" s="4">
-        <v>2</v>
-      </c>
-      <c r="J15" s="4">
-        <v>2</v>
-      </c>
-      <c r="K15" s="4">
-        <v>2</v>
-      </c>
-      <c r="L15" s="4">
-        <v>2</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2</v>
+      </c>
+      <c r="K15" s="8">
+        <v>2</v>
+      </c>
+      <c r="L15" s="8">
+        <v>2</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0</v>
+      </c>
+      <c r="R15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+    </row>
+    <row r="16" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="8">
         <v>7</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="8">
         <v>7</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="8">
         <v>7</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="8">
         <v>7</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="8">
         <v>7</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="8">
         <v>6</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="8">
         <v>4</v>
       </c>
-      <c r="K16" s="4">
-        <v>3</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="K16" s="8">
+        <v>3</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+    </row>
+    <row r="17" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <v>4</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="8">
         <v>4</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="8">
         <v>4</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="8">
         <v>4</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="8">
         <v>4</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="8">
         <v>4</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="8">
         <v>4</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="8">
         <v>4</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="8">
         <v>4</v>
       </c>
-      <c r="L17" s="4">
-        <v>2</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="L17" s="8">
+        <v>2</v>
+      </c>
+      <c r="M17" s="8">
+        <v>1</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+    </row>
+    <row r="18" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8">
+        <v>3</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+    </row>
+    <row r="19" spans="1:32" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>2</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" s="4">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4">
-        <v>3</v>
-      </c>
-      <c r="F19" s="4">
-        <v>3</v>
-      </c>
-      <c r="G19" s="4">
-        <v>3</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="C19" s="29">
+        <v>3</v>
+      </c>
+      <c r="D19" s="29">
+        <v>3</v>
+      </c>
+      <c r="E19" s="29">
+        <v>3</v>
+      </c>
+      <c r="F19" s="29">
+        <v>3</v>
+      </c>
+      <c r="G19" s="29">
+        <v>3</v>
+      </c>
+      <c r="H19" s="29">
+        <v>3</v>
+      </c>
+      <c r="I19" s="29">
         <v>4</v>
       </c>
-      <c r="J19" s="4">
-        <v>2</v>
-      </c>
-      <c r="K19" s="4">
-        <v>1</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="J19" s="29">
+        <v>2</v>
+      </c>
+      <c r="K19" s="29">
+        <v>1</v>
+      </c>
+      <c r="L19" s="29">
+        <v>0</v>
+      </c>
+      <c r="M19" s="29">
+        <v>0</v>
+      </c>
+      <c r="N19" s="29">
+        <v>0</v>
+      </c>
+      <c r="O19" s="29">
+        <v>0</v>
+      </c>
+      <c r="P19" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>0</v>
+      </c>
+      <c r="R19" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+    </row>
+    <row r="20" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2</v>
-      </c>
-      <c r="G20" s="4">
-        <v>2</v>
-      </c>
-      <c r="H20" s="4">
-        <v>2</v>
-      </c>
-      <c r="I20" s="4">
-        <v>2</v>
-      </c>
-      <c r="J20" s="4">
-        <v>2</v>
-      </c>
-      <c r="K20" s="4">
-        <v>2</v>
-      </c>
-      <c r="L20" s="4">
-        <v>2</v>
-      </c>
-      <c r="M20" s="4">
-        <v>1</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2</v>
+      </c>
+      <c r="H20" s="8">
+        <v>2</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2</v>
+      </c>
+      <c r="J20" s="8">
+        <v>2</v>
+      </c>
+      <c r="K20" s="8">
+        <v>2</v>
+      </c>
+      <c r="L20" s="8">
+        <v>2</v>
+      </c>
+      <c r="M20" s="8">
+        <v>1</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+    </row>
+    <row r="21" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>2</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2</v>
-      </c>
-      <c r="G21" s="4">
-        <v>2</v>
-      </c>
-      <c r="H21" s="4">
-        <v>2</v>
-      </c>
-      <c r="I21" s="4">
-        <v>2</v>
-      </c>
-      <c r="J21" s="4">
-        <v>2</v>
-      </c>
-      <c r="K21" s="4">
-        <v>2</v>
-      </c>
-      <c r="L21" s="4">
-        <v>2</v>
-      </c>
-      <c r="M21" s="4">
-        <v>2</v>
-      </c>
-      <c r="N21" s="4">
-        <v>2</v>
-      </c>
-      <c r="O21" s="4">
-        <v>2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="C21" s="8">
+        <v>2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2</v>
+      </c>
+      <c r="H21" s="8">
+        <v>2</v>
+      </c>
+      <c r="I21" s="8">
+        <v>2</v>
+      </c>
+      <c r="J21" s="8">
+        <v>2</v>
+      </c>
+      <c r="K21" s="8">
+        <v>2</v>
+      </c>
+      <c r="L21" s="8">
+        <v>2</v>
+      </c>
+      <c r="M21" s="8">
+        <v>2</v>
+      </c>
+      <c r="N21" s="8">
+        <v>2</v>
+      </c>
+      <c r="O21" s="8">
+        <v>2</v>
+      </c>
+      <c r="P21" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="S21" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+    </row>
+    <row r="22" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36">
+        <v>2</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="36">
         <v>4</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="36">
         <v>4</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="36">
         <v>4</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="36">
         <v>4</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="36">
         <v>4</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="36">
         <v>4</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="36">
         <v>4</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="36">
         <v>4</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="36">
         <v>4</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="36">
         <v>4</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="36">
         <v>4</v>
       </c>
-      <c r="N22" s="4">
-        <v>3</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="N22" s="36">
+        <v>3</v>
+      </c>
+      <c r="O22" s="36">
+        <v>0</v>
+      </c>
+      <c r="P22" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="36">
+        <v>0</v>
+      </c>
+      <c r="R22" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S22" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -10995,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
@@ -11056,137 +11302,137 @@
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:32" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>2</v>
+      </c>
+      <c r="B26" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="40">
         <v>4</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="40">
         <v>4</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="40">
         <v>4</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="40">
         <v>4</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="40">
         <v>4</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="40">
         <v>4</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="40">
         <v>4</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="40">
         <v>4</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="40">
         <v>4</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="40">
         <v>4</v>
       </c>
-      <c r="M26" s="4">
-        <v>3</v>
-      </c>
-      <c r="N26" s="4">
-        <v>2</v>
-      </c>
-      <c r="O26" s="4">
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>0</v>
-      </c>
-      <c r="R26" t="s">
+      <c r="M26" s="40">
+        <v>3</v>
+      </c>
+      <c r="N26" s="40">
+        <v>2</v>
+      </c>
+      <c r="O26" s="40">
+        <v>0</v>
+      </c>
+      <c r="P26" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="40">
+        <v>0</v>
+      </c>
+      <c r="R26" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S26" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="41"/>
+    </row>
+    <row r="27" spans="1:32" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>1</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="40">
         <v>6</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="40">
         <v>6</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="40">
         <v>6</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="40">
         <v>6</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="40">
         <v>4</v>
       </c>
-      <c r="H27" s="4">
-        <v>3</v>
-      </c>
-      <c r="I27" s="4">
-        <v>3</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
-      </c>
-      <c r="L27" s="4">
-        <v>0</v>
-      </c>
-      <c r="M27" s="4">
-        <v>0</v>
-      </c>
-      <c r="N27" s="4">
-        <v>0</v>
-      </c>
-      <c r="O27" s="4">
-        <v>0</v>
-      </c>
-      <c r="P27" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>0</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="H27" s="40">
+        <v>3</v>
+      </c>
+      <c r="I27" s="40">
+        <v>3</v>
+      </c>
+      <c r="J27" s="40">
+        <v>0</v>
+      </c>
+      <c r="K27" s="40">
+        <v>0</v>
+      </c>
+      <c r="L27" s="40">
+        <v>0</v>
+      </c>
+      <c r="M27" s="40">
+        <v>0</v>
+      </c>
+      <c r="N27" s="40">
+        <v>0</v>
+      </c>
+      <c r="O27" s="40">
+        <v>0</v>
+      </c>
+      <c r="P27" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="40">
+        <v>0</v>
+      </c>
+      <c r="R27" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S27" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -11321,27 +11567,27 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30">
+        <v>200</v>
+      </c>
+      <c r="C30" s="7">
         <v>25</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="8">
         <v>25</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="15">
         <v>25</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="32">
         <v>25</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="40">
         <v>25</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="36">
         <v>23</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="44">
         <v>21</v>
       </c>
       <c r="J30" s="4">
@@ -11384,27 +11630,27 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
       </c>
-      <c r="D31" s="4">
-        <v>3</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4">
+      <c r="D31" s="8">
+        <v>3</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0</v>
+      </c>
+      <c r="G31" s="40">
+        <v>0</v>
+      </c>
+      <c r="H31" s="36">
+        <v>0</v>
+      </c>
+      <c r="I31" s="44">
         <v>0</v>
       </c>
       <c r="J31" s="4">
@@ -11447,15 +11693,15 @@
         <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" s="4">
-        <v>2</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2</v>
-      </c>
-      <c r="E32" s="4">
+        <v>194</v>
+      </c>
+      <c r="C32" s="40">
+        <v>2</v>
+      </c>
+      <c r="D32" s="40">
+        <v>2</v>
+      </c>
+      <c r="E32" s="40">
         <v>2</v>
       </c>
       <c r="F32" s="4">
@@ -11464,7 +11710,7 @@
       <c r="G32" s="4">
         <v>0</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="35">
         <v>0</v>
       </c>
       <c r="I32" s="4">
@@ -11510,15 +11756,15 @@
         <v>1</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
+        <v>195</v>
+      </c>
+      <c r="C33" s="40">
+        <v>1</v>
+      </c>
+      <c r="D33" s="40">
+        <v>1</v>
+      </c>
+      <c r="E33" s="40">
         <v>1</v>
       </c>
       <c r="F33" s="4">
@@ -11527,7 +11773,7 @@
       <c r="G33" s="4">
         <v>0</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="35">
         <v>0</v>
       </c>
       <c r="I33" s="4">
@@ -11573,7 +11819,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C34" s="4">
         <v>3</v>
@@ -11633,7 +11879,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D35" s="4">
         <f>SUM(C2:C34)</f>
@@ -11701,7 +11947,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D36" s="4">
         <f>SUM(D2:D34)</f>
@@ -11758,6 +12004,11 @@
       <c r="Q36" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
@@ -11946,8 +12197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037159B-319A-4C42-A294-2B2489B57574}">
   <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12007,268 +12258,221 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
+    <row r="2" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="40">
+        <v>1</v>
+      </c>
+      <c r="D2" s="40">
+        <v>1</v>
+      </c>
+      <c r="E2" s="40">
+        <v>0</v>
+      </c>
+      <c r="F2" s="40">
+        <v>0</v>
+      </c>
+      <c r="G2" s="40">
+        <v>0</v>
+      </c>
+      <c r="H2" s="40">
+        <v>0</v>
+      </c>
+      <c r="I2" s="40">
+        <v>0</v>
+      </c>
+      <c r="J2" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="S2" s="41"/>
+    </row>
+    <row r="3" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="C3" s="40">
+        <v>1</v>
+      </c>
+      <c r="D3" s="40">
+        <v>1</v>
+      </c>
+      <c r="E3" s="40">
+        <v>1</v>
+      </c>
+      <c r="F3" s="40">
+        <v>0</v>
+      </c>
+      <c r="G3" s="40">
+        <v>0</v>
+      </c>
+      <c r="H3" s="40">
+        <v>0</v>
+      </c>
+      <c r="I3" s="40">
+        <v>0</v>
+      </c>
+      <c r="J3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="S3" s="41"/>
+    </row>
+    <row r="4" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>1</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="C4" s="40">
+        <v>3</v>
+      </c>
+      <c r="D4" s="40">
+        <v>2</v>
+      </c>
+      <c r="E4" s="40">
+        <v>0</v>
+      </c>
+      <c r="F4" s="40">
+        <v>0</v>
+      </c>
+      <c r="G4" s="40">
+        <v>0</v>
+      </c>
+      <c r="H4" s="40">
+        <v>0</v>
+      </c>
+      <c r="I4" s="40">
+        <v>0</v>
+      </c>
+      <c r="J4" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="S4" s="41"/>
+    </row>
+    <row r="5" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>1</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="C5" s="40">
+        <v>1</v>
+      </c>
+      <c r="D5" s="40">
+        <v>1</v>
+      </c>
+      <c r="E5" s="40">
+        <v>1</v>
+      </c>
+      <c r="F5" s="40">
+        <v>0</v>
+      </c>
+      <c r="G5" s="40">
+        <v>0</v>
+      </c>
+      <c r="H5" s="40">
+        <v>0</v>
+      </c>
+      <c r="I5" s="40">
+        <v>0</v>
+      </c>
+      <c r="J5" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="S5" s="41"/>
+    </row>
+    <row r="6" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>2</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="C6" s="40">
+        <v>2</v>
+      </c>
+      <c r="D6" s="40">
+        <v>2</v>
+      </c>
+      <c r="E6" s="40">
+        <v>2</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0</v>
+      </c>
+      <c r="G6" s="40">
+        <v>0</v>
+      </c>
+      <c r="H6" s="40">
+        <v>0</v>
+      </c>
+      <c r="I6" s="40">
+        <v>0</v>
+      </c>
+      <c r="J6" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="S6" s="41"/>
+    </row>
+    <row r="7" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>2</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="C7" s="40">
+        <v>1</v>
+      </c>
+      <c r="D7" s="40">
+        <v>1</v>
+      </c>
+      <c r="E7" s="40">
+        <v>1</v>
+      </c>
+      <c r="F7" s="40">
+        <v>0</v>
+      </c>
+      <c r="G7" s="40">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40">
+        <v>0</v>
+      </c>
+      <c r="I7" s="40">
+        <v>0</v>
+      </c>
+      <c r="J7" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="S7" s="41"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -12320,7 +12524,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
@@ -12354,179 +12558,171 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
+        <v>2</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="47">
         <v>6</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="47">
         <v>6</v>
       </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="E10" s="47">
+        <v>3</v>
+      </c>
+      <c r="F10" s="47">
+        <v>1</v>
+      </c>
+      <c r="G10" s="47">
+        <v>0</v>
+      </c>
+      <c r="H10" s="47">
+        <v>0</v>
+      </c>
+      <c r="I10" s="47">
+        <v>0</v>
+      </c>
+      <c r="J10" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+    </row>
+    <row r="11" spans="1:24" s="47" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47">
+        <v>2</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="C11" s="47">
+        <v>3</v>
+      </c>
+      <c r="D11" s="47">
+        <v>3</v>
+      </c>
+      <c r="E11" s="47">
         <v>7</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="47">
         <v>10</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="47">
         <v>6</v>
       </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="H11" s="47">
+        <v>0</v>
+      </c>
+      <c r="I11" s="47">
+        <v>0</v>
+      </c>
+      <c r="J11" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+    </row>
+    <row r="12" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>1</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="C12" s="19">
+        <v>2</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>2</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2</v>
+      </c>
+      <c r="G12" s="19">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+    </row>
+    <row r="13" spans="1:24" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="C13" s="22">
+        <v>2</v>
+      </c>
+      <c r="D13" s="22">
+        <v>2</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -12576,12 +12772,12 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
+        <v>196</v>
+      </c>
+      <c r="C15" s="14">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14">
         <v>2</v>
       </c>
       <c r="E15" s="4">
@@ -12618,12 +12814,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
+        <v>197</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
         <v>2</v>
       </c>
       <c r="E16" s="4">
@@ -12702,15 +12898,15 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
+        <v>183</v>
+      </c>
+      <c r="C18" s="39">
+        <v>1</v>
+      </c>
+      <c r="D18" s="39">
+        <v>1</v>
+      </c>
+      <c r="E18" s="39">
         <v>1</v>
       </c>
       <c r="F18" s="4">
@@ -12747,15 +12943,15 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
+        <v>184</v>
+      </c>
+      <c r="C19" s="39">
+        <v>1</v>
+      </c>
+      <c r="D19" s="39">
+        <v>1</v>
+      </c>
+      <c r="E19" s="39">
         <v>1</v>
       </c>
       <c r="F19" s="4">
@@ -12787,189 +12983,185 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+    </row>
+    <row r="21" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>1</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+    </row>
+    <row r="22" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>1</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+    </row>
+    <row r="23" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>1</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -13014,225 +13206,219 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="1:22" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43">
+        <v>2</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="C25" s="43">
+        <v>1</v>
+      </c>
+      <c r="D25" s="43">
+        <v>1</v>
+      </c>
+      <c r="E25" s="43">
+        <v>0</v>
+      </c>
+      <c r="F25" s="43">
+        <v>0</v>
+      </c>
+      <c r="G25" s="43">
+        <v>0</v>
+      </c>
+      <c r="H25" s="43">
+        <v>0</v>
+      </c>
+      <c r="I25" s="43">
+        <v>0</v>
+      </c>
+      <c r="J25" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>2</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" s="4">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4" t="s">
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+    </row>
+    <row r="26" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>2</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15">
+        <v>2</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>1</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>2</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4" t="s">
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+    </row>
+    <row r="27" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>1</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15">
+        <v>2</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0</v>
+      </c>
+      <c r="J27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>2</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+    </row>
+    <row r="28" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>2</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="4">
-        <v>3</v>
-      </c>
-      <c r="D28" s="4">
-        <v>3</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4" t="s">
+      <c r="C28" s="8">
+        <v>3</v>
+      </c>
+      <c r="D28" s="8">
+        <v>3</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>1</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+    </row>
+    <row r="29" spans="1:22" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="42">
+        <v>1</v>
+      </c>
+      <c r="B29" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="42">
         <v>9</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="42">
         <v>9</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="42">
         <v>9</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="42">
         <v>8</v>
       </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4" t="s">
+      <c r="G29" s="42">
+        <v>0</v>
+      </c>
+      <c r="H29" s="42">
+        <v>0</v>
+      </c>
+      <c r="I29" s="42">
+        <v>0</v>
+      </c>
+      <c r="J29" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
+      <c r="K29" s="45"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -13278,13 +13464,13 @@
       <c r="B31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="C31" s="43">
+        <v>1</v>
+      </c>
+      <c r="D31" s="42">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
         <v>2</v>
       </c>
       <c r="F31" s="4">
@@ -13350,13 +13536,13 @@
       <c r="A33" s="4">
         <v>1</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="B33" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="15">
+        <v>1</v>
+      </c>
+      <c r="D33" s="15">
         <v>1</v>
       </c>
       <c r="E33" s="4">
@@ -13387,7 +13573,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C34">
         <v>18</v>
@@ -13421,7 +13607,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -13453,7 +13639,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D36" s="4">
         <f>SUM(C2:C35)</f>
@@ -13485,7 +13671,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" ref="D37:I37" si="1">SUM(D2:D35)</f>
@@ -13687,7 +13873,7 @@
   <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13809,7 +13995,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13861,20 +14047,20 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C4" s="17">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2</v>
+      </c>
+      <c r="E4" s="56">
         <v>2</v>
       </c>
       <c r="F4" s="4">
@@ -14018,19 +14204,19 @@
       <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="47">
+        <v>1</v>
+      </c>
+      <c r="B7" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C7" s="47">
+        <v>1</v>
+      </c>
+      <c r="D7" s="47">
+        <v>1</v>
+      </c>
+      <c r="E7" s="47">
         <v>2</v>
       </c>
       <c r="F7" s="4">
@@ -14729,7 +14915,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -14852,7 +15038,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -14971,40 +15157,40 @@
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28">
+      <c r="A28" s="57">
+        <v>1</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="57">
         <v>25</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="57">
         <v>25</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="57">
         <v>34</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="57">
         <v>30</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="57">
         <v>27</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="57">
         <v>25</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="57">
         <v>21</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="57">
         <v>17</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="57">
         <v>15</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="57" t="s">
         <v>42</v>
       </c>
       <c r="N28" s="4"/>
@@ -15015,40 +15201,40 @@
       <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="57">
+        <v>1</v>
+      </c>
+      <c r="B29" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="57">
         <v>10</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="57">
         <v>10</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="57">
         <v>13</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="57">
         <v>10</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="57">
         <v>6</v>
       </c>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
-      </c>
-      <c r="L29" s="4" t="s">
+      <c r="H29" s="57">
+        <v>0</v>
+      </c>
+      <c r="I29" s="57">
+        <v>0</v>
+      </c>
+      <c r="J29" s="57">
+        <v>0</v>
+      </c>
+      <c r="K29" s="57">
+        <v>0</v>
+      </c>
+      <c r="L29" s="57" t="s">
         <v>42</v>
       </c>
     </row>
@@ -15057,7 +15243,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C30" s="4">
         <v>4</v>
@@ -15098,7 +15284,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D31" s="4">
         <f>SUM(C2:C30)</f>
@@ -15142,7 +15328,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ref="D32:K32" si="1">SUM(D2:D30)</f>
@@ -15374,8 +15560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C4868-DA68-4B79-A75F-C29998123D8F}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15406,28 +15592,28 @@
         <v>122</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>3</v>
@@ -15441,7 +15627,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -15605,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -15646,7 +15832,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -15687,7 +15873,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -15731,7 +15917,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -15775,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -15863,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -15907,7 +16093,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -15951,7 +16137,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C14" s="4">
         <v>4</v>
@@ -15995,7 +16181,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
@@ -16039,7 +16225,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -16080,7 +16266,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -16121,7 +16307,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -16162,7 +16348,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -16198,12 +16384,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -16239,41 +16425,41 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21">
+        <v>205</v>
+      </c>
+      <c r="C21" s="16">
         <v>20</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="56">
         <v>20</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="8">
         <v>16</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="8">
         <v>15</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="8">
         <v>13</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="8">
         <v>10</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="8">
         <v>7</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="8">
         <v>5</v>
       </c>
-      <c r="K21" s="4">
-        <v>3</v>
-      </c>
-      <c r="L21" s="4">
+      <c r="K21" s="8">
+        <v>3</v>
+      </c>
+      <c r="L21" s="8">
         <v>1</v>
       </c>
       <c r="M21" s="4" t="s">
@@ -16285,7 +16471,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C22" s="4">
         <v>4</v>
@@ -16323,7 +16509,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D23" s="4">
         <f>SUM(C2:C22)</f>
@@ -16365,7 +16551,7 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D24" s="4">
         <f>SUM(D2:D22)</f>
@@ -16405,14 +16591,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>132</v>
-      </c>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>

--- a/project/SystemDev/Sprint_Backlog.xlsx
+++ b/project/SystemDev/Sprint_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="581" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Time est.</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -651,6 +648,9 @@
   </si>
   <si>
     <t>Design class diagram(for report)</t>
+  </si>
+  <si>
+    <t>Time est. (hours)</t>
   </si>
 </sst>
 </file>
@@ -686,32 +686,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -934,6 +919,24 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -955,7 +958,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1048,7 +1051,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1311,7 +1314,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1342,7 +1345,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -1466,7 +1469,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1497,7 +1500,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -1548,7 +1551,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1562,7 +1565,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1627,7 +1630,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1986,7 +1989,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2017,7 +2020,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -2141,7 +2144,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2172,7 +2175,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -2223,7 +2226,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2237,7 +2240,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2330,7 +2333,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2593,7 +2596,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2624,7 +2627,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -2720,7 +2723,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2751,7 +2754,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -2802,7 +2805,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2816,7 +2819,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2881,7 +2884,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3168,7 +3171,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3199,7 +3202,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -3291,7 +3294,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3322,7 +3325,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -3373,7 +3376,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3387,7 +3390,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="lv-LV"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3452,7 +3455,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3755,7 +3758,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3786,7 +3789,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277576"/>
@@ -3878,7 +3881,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3909,7 +3912,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="488277248"/>
@@ -3960,7 +3963,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7130,6 +7133,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9E91EDFE-69A4-4DB5-9BEB-278FA52F3C99}" name="Table6" displayName="Table6" ref="A1:D61" totalsRowShown="0">
+  <autoFilter ref="A1:D61" xr:uid="{DEED746A-3EE2-4F95-862B-8D1FDA786B17}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1D358D9B-BDA9-4FAA-9527-A76EEDD11322}" name="Priority"/>
+    <tableColumn id="2" xr3:uid="{43410A99-A5DB-4E72-B8EF-85F1F7A20908}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{004396E5-C5A7-4451-9A9D-FB35C94CF099}" name="Time est. (hours)"/>
+    <tableColumn id="4" xr3:uid="{C11B94CA-8710-4830-8787-503C60BB7102}" name="Done"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{78447A4E-CDB3-45EE-91A3-4EA22F56CF94}" name="Table2" displayName="Table2" ref="A1:J24" totalsRowShown="0">
   <autoFilter ref="A1:J24" xr:uid="{C94A59BC-04BB-4AF5-9E59-80489801E0B2}"/>
   <tableColumns count="10">
@@ -7148,7 +7164,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3FF0DD1C-4E49-4E7F-92CA-CB567AA3CB8E}" name="Table3" displayName="Table3" ref="A1:R34" totalsRowShown="0">
   <autoFilter ref="A1:R34" xr:uid="{A001DDB7-4D03-41B6-A7CC-449892123C18}"/>
   <tableColumns count="18">
@@ -7175,7 +7191,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6040D3C7-704D-4B34-9CD1-FCC83E772A66}" name="Table4" displayName="Table4" ref="A1:J35" totalsRowShown="0">
   <autoFilter ref="A1:J35" xr:uid="{ACD998EF-9F68-4272-9D9B-C9575E3BBCF2}"/>
   <tableColumns count="10">
@@ -7194,7 +7210,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{485FC9A2-2ECA-4867-B849-A896468FE32C}" name="Table1" displayName="Table1" ref="A1:L30" totalsRowShown="0">
   <autoFilter ref="A1:L30" xr:uid="{2C3F92BE-8B09-468B-934C-DB92BECE08EA}"/>
   <tableColumns count="12">
@@ -7215,23 +7231,23 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{69F42748-5731-45AD-AB2F-2D56CE6CE30F}" name="Tabula5" displayName="Tabula5" ref="A1:M22" totalsRowShown="0" dataDxfId="0">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{69F42748-5731-45AD-AB2F-2D56CE6CE30F}" name="Tabula5" displayName="Tabula5" ref="A1:M22" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:M22" xr:uid="{53754D2A-1621-4F83-9B64-281BB9D7345E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{306EE1EA-B0B1-4175-8E88-A2B100506FAC}" name="Priority" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{4DF1E167-2B6E-4646-9E57-BBD0A536C003}" name="Work" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{FF972DE1-AB0B-4929-98A7-EF76BB4B4F75}" name="time-est." dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{E0A23C63-298C-4EE0-B937-0CE2842AEF13}" name="5.12.2017" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{06523220-F482-4E4F-80DF-AF0B07E8008D}" name="6.12.2017" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{F42B1C34-8E39-4DC4-812D-74DB150E1376}" name="7.12.2017" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{F8E2A858-D2A3-4E58-BF20-04FFF947CA18}" name="8.12.2017" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{591CA4B6-29BF-4E1C-B96F-D6DD1DF9437E}" name="9.12.2017" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{8FCC6452-56F4-4BEF-935B-9250EDB59435}" name="10.12.2017" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{14D28F79-F9A0-4876-8542-24D8499B8C69}" name="11.12.2017" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{DC40776A-5787-419C-BE3E-815487055AB1}" name="12.12.2017" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{A690D3DE-F147-4B4E-9360-A2B2A43A33D2}" name="13.12.2017" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{945433BC-B052-4280-81C3-8CFCBAC7FAF9}" name="Person" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{306EE1EA-B0B1-4175-8E88-A2B100506FAC}" name="Priority" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{4DF1E167-2B6E-4646-9E57-BBD0A536C003}" name="Work" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{FF972DE1-AB0B-4929-98A7-EF76BB4B4F75}" name="time-est." dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{E0A23C63-298C-4EE0-B937-0CE2842AEF13}" name="5.12.2017" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{06523220-F482-4E4F-80DF-AF0B07E8008D}" name="6.12.2017" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{F42B1C34-8E39-4DC4-812D-74DB150E1376}" name="7.12.2017" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{F8E2A858-D2A3-4E58-BF20-04FFF947CA18}" name="8.12.2017" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{591CA4B6-29BF-4E1C-B96F-D6DD1DF9437E}" name="9.12.2017" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{8FCC6452-56F4-4BEF-935B-9250EDB59435}" name="10.12.2017" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{14D28F79-F9A0-4876-8542-24D8499B8C69}" name="11.12.2017" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{DC40776A-5787-419C-BE3E-815487055AB1}" name="12.12.2017" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{A690D3DE-F147-4B4E-9360-A2B2A43A33D2}" name="13.12.2017" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{945433BC-B052-4280-81C3-8CFCBAC7FAF9}" name="Person" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7502,29 +7518,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView zoomScale="37" zoomScaleNormal="37" workbookViewId="0">
-      <selection activeCell="T56" sqref="T56"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="42.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
+      <c r="C1" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7532,13 +7550,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7546,13 +7564,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7560,13 +7578,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7574,13 +7592,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7588,13 +7606,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7602,13 +7620,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7616,13 +7634,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8">
         <v>80</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -7630,13 +7648,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -7644,13 +7662,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7658,13 +7676,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7672,13 +7690,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -7686,13 +7704,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -7700,13 +7718,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -7714,13 +7732,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -7728,13 +7746,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7742,13 +7760,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7756,13 +7774,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -7770,13 +7788,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7784,13 +7802,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -7798,13 +7816,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7812,13 +7830,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -7826,13 +7844,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7840,13 +7858,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -7854,13 +7872,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -7868,13 +7886,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7882,13 +7900,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -7896,13 +7914,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -7910,13 +7928,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -7924,13 +7942,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1">
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -7938,13 +7956,13 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -7952,13 +7970,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -7966,13 +7984,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -7980,13 +7998,13 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -7994,13 +8012,13 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -8014,7 +8032,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -8022,13 +8040,13 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -8036,13 +8054,13 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -8050,13 +8068,13 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -8064,13 +8082,13 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -8078,13 +8096,13 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -8094,13 +8112,13 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" s="1">
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -8110,13 +8128,13 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -8126,13 +8144,13 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -8142,13 +8160,13 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -8156,13 +8174,13 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -8172,13 +8190,13 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -8188,13 +8206,13 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -8204,13 +8222,13 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -8220,13 +8238,13 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" s="1">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -8236,13 +8254,13 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" s="1">
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -8252,13 +8270,13 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -8269,13 +8287,13 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" s="1">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -8286,13 +8304,13 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54" s="1">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F54" s="1"/>
       <c r="J54" s="1"/>
@@ -8302,13 +8320,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="1">
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -8317,13 +8335,13 @@
         <v>3</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F56" s="1"/>
     </row>
@@ -8332,13 +8350,13 @@
         <v>3</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -8348,13 +8366,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="1">
         <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -8364,13 +8382,13 @@
         <v>3</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -8380,13 +8398,13 @@
         <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -8396,13 +8414,13 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61">
         <v>30</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
@@ -8522,6 +8540,9 @@
     <sortCondition ref="A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -8556,22 +8577,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -8585,7 +8606,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
@@ -8609,10 +8630,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8620,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -8644,10 +8665,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8655,7 +8676,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -8679,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8690,7 +8711,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
@@ -8714,10 +8735,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8725,7 +8746,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -8749,10 +8770,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8760,7 +8781,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1">
         <v>9</v>
@@ -8784,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8792,7 +8813,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -8816,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8824,7 +8845,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -8848,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8856,7 +8877,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -8880,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8888,7 +8909,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -8912,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8920,7 +8941,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -8944,10 +8965,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8955,7 +8976,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -8979,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8990,7 +9011,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -9014,10 +9035,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9025,7 +9046,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -9049,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9057,7 +9078,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1">
         <v>6</v>
@@ -9081,7 +9102,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9089,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="1">
         <v>7</v>
@@ -9113,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9121,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -9145,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9153,7 +9174,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -9177,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9185,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -9209,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9217,7 +9238,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
@@ -9241,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9249,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -9273,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9281,7 +9302,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -9305,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9313,7 +9334,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -9337,12 +9358,12 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25" s="1">
         <f>SUM(C2:C24)</f>
@@ -9371,7 +9392,7 @@
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" ref="D26:I26" si="1">SUM(D2:D24)</f>
@@ -9540,46 +9561,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
@@ -9593,7 +9614,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -9641,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9649,7 +9670,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -9697,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9705,7 +9726,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -9753,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9761,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -9809,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9817,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -9865,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9873,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -9921,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9929,7 +9950,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -9977,7 +9998,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9985,7 +10006,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -10033,10 +10054,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10044,7 +10065,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -10092,10 +10113,10 @@
         <v>0</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10103,7 +10124,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -10151,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10162,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -10210,10 +10231,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10221,7 +10242,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -10269,10 +10290,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10280,7 +10301,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -10328,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10339,7 +10360,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -10387,10 +10408,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10398,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
@@ -10446,10 +10467,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10457,7 +10478,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -10505,10 +10526,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10516,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -10564,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="R18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10575,7 +10596,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -10623,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="R19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10634,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -10682,10 +10703,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10693,7 +10714,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -10741,10 +10762,10 @@
         <v>0</v>
       </c>
       <c r="R21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10752,7 +10773,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -10800,10 +10821,10 @@
         <v>0</v>
       </c>
       <c r="R22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10811,7 +10832,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -10859,10 +10880,10 @@
         <v>0</v>
       </c>
       <c r="R23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10870,7 +10891,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -10918,10 +10939,10 @@
         <v>0</v>
       </c>
       <c r="R24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10929,7 +10950,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -10977,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="R25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10988,7 +11009,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
@@ -11036,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11047,7 +11068,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1">
         <v>6</v>
@@ -11095,10 +11116,10 @@
         <v>0</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11106,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -11154,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11162,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
@@ -11210,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11218,7 +11239,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C30" s="1">
         <v>25</v>
@@ -11266,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11274,7 +11295,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
@@ -11322,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11330,7 +11351,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
@@ -11378,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11386,7 +11407,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -11434,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11442,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -11490,12 +11511,12 @@
         <v>0</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="1">
         <f>SUM(C2:C34)</f>
@@ -11558,7 +11579,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" s="1">
         <f>SUM(D2:D34)</f>
@@ -11890,22 +11911,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -11943,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11951,7 +11972,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -11975,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11983,7 +12004,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -12007,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12015,7 +12036,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -12039,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12047,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -12071,7 +12092,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12079,7 +12100,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -12103,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12111,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -12135,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12143,7 +12164,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -12167,7 +12188,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12175,7 +12196,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1">
         <v>6</v>
@@ -12199,10 +12220,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12210,7 +12231,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -12234,10 +12255,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12245,7 +12266,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -12269,10 +12290,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12280,7 +12301,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -12304,10 +12325,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12315,7 +12336,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -12339,10 +12360,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12350,7 +12371,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -12374,10 +12395,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12385,7 +12406,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
@@ -12409,10 +12430,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12420,7 +12441,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -12444,10 +12465,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12455,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -12479,10 +12500,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12490,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -12514,10 +12535,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12525,7 +12546,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -12549,10 +12570,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12560,7 +12581,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -12584,10 +12605,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12595,7 +12616,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -12619,10 +12640,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12630,7 +12651,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -12654,10 +12675,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12665,7 +12686,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -12689,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12697,7 +12718,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -12721,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12729,7 +12750,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
@@ -12753,7 +12774,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12761,7 +12782,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -12785,7 +12806,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12793,7 +12814,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -12817,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12825,7 +12846,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
         <v>9</v>
@@ -12849,7 +12870,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12857,7 +12878,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -12881,7 +12902,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12889,7 +12910,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -12913,7 +12934,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12921,7 +12942,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="1">
         <v>4</v>
@@ -12945,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12953,7 +12974,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -12977,7 +12998,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12985,7 +13006,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" s="1">
         <v>18</v>
@@ -13009,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13017,7 +13038,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C35" s="1">
         <v>5</v>
@@ -13041,12 +13062,12 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="1">
         <f>SUM(C2:C35)</f>
@@ -13075,7 +13096,7 @@
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" ref="D37:I37" si="1">SUM(D2:D35)</f>
@@ -13326,28 +13347,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -13361,7 +13382,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -13391,10 +13412,10 @@
         <v>3</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13402,7 +13423,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -13432,10 +13453,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13443,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -13473,10 +13494,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13484,7 +13505,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -13514,10 +13535,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13525,7 +13546,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -13555,10 +13576,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13566,7 +13587,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -13596,10 +13617,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13607,7 +13628,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -13637,10 +13658,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13648,7 +13669,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -13678,10 +13699,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13689,7 +13710,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -13719,10 +13740,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13730,7 +13751,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -13760,10 +13781,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13771,7 +13792,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -13801,10 +13822,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13812,7 +13833,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -13842,10 +13863,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13853,7 +13874,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -13883,10 +13904,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13894,7 +13915,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -13924,10 +13945,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13935,7 +13956,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -13965,7 +13986,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13973,7 +13994,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -14003,7 +14024,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14011,7 +14032,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -14041,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14049,7 +14070,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -14079,7 +14100,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14087,7 +14108,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -14117,7 +14138,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14125,7 +14146,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -14155,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14163,7 +14184,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -14193,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14201,7 +14222,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
@@ -14231,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14239,7 +14260,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -14269,7 +14290,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14277,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" s="1">
         <v>4</v>
@@ -14307,7 +14328,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14315,7 +14336,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
@@ -14345,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14353,7 +14374,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -14383,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14391,7 +14412,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" s="1">
         <v>25</v>
@@ -14421,7 +14442,7 @@
         <v>15</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14429,7 +14450,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -14459,7 +14480,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14467,7 +14488,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" s="1">
         <v>4</v>
@@ -14497,12 +14518,12 @@
         <v>0</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" s="1">
         <f>SUM(C2:C30)</f>
@@ -14539,7 +14560,7 @@
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" ref="D32:K32" si="1">SUM(D2:D30)</f>
@@ -14663,7 +14684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C4868-DA68-4B79-A75F-C29998123D8F}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -14692,31 +14713,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -14730,7 +14751,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1">
         <v>6</v>
@@ -14763,7 +14784,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14771,7 +14792,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1">
         <v>8</v>
@@ -14804,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14812,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -14845,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14853,7 +14874,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -14886,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14894,7 +14915,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -14927,7 +14948,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14935,7 +14956,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -14968,7 +14989,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14976,7 +14997,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -15009,10 +15030,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15020,7 +15041,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -15053,10 +15074,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15064,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -15097,10 +15118,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15108,7 +15129,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -15141,10 +15162,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15152,7 +15173,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -15185,10 +15206,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15196,7 +15217,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -15229,10 +15250,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15240,7 +15261,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -15273,10 +15294,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15284,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -15317,10 +15338,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15328,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
@@ -15361,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15369,7 +15390,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -15402,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15410,7 +15431,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -15443,7 +15464,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15451,7 +15472,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -15484,7 +15505,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15492,7 +15513,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -15525,7 +15546,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15533,7 +15554,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
@@ -15566,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15574,7 +15595,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -15607,12 +15628,12 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="1">
         <f>SUM(C2:C22)</f>
@@ -15653,7 +15674,7 @@
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="1">
         <f>SUM(D2:D22)</f>
